--- a/files/результат.xlsx
+++ b/files/результат.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P174"/>
+  <dimension ref="A1:P173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>4484</v>
+        <v>4256</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O4" t="n">
         <v>432291</v>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4499</v>
+        <v>4449</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -718,7 +718,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-9.3%</t>
+          <t>-10.3%</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O5" t="n">
         <v>48612</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O6" t="n">
         <v>48612</v>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O8" t="n">
         <v>32200006400</v>
@@ -924,16 +924,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PNY</t>
+          <t>AFOX</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GeForce GTX 1660 Ti XLR8 (VCG1660T6SFPPB-O)</t>
+          <t>GT 610 (AF610-2048D3L7-V5)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7949</v>
+        <v>1589</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -944,52 +944,54 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-68.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>675.3200000000001</v>
+        <v>42</v>
       </c>
       <c r="J9" t="n">
-        <v>24987</v>
+        <v>1584</v>
       </c>
       <c r="K9" t="n">
-        <v>24987</v>
+        <v>1584</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>52</v>
-      </c>
-      <c r="O9" t="n">
-        <v>17050086</v>
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>AF610-2048D3L7-V5</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>-4682109</v>
+        <v>8425795</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Жесткие диски</t>
+          <t>Видео адаптеры</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SEAGATE</t>
+          <t>PNY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>USB 1TB (STJL1000400) Basic</t>
+          <t>GeForce GTX 1660 Ti XLR8 (VCG1660T6SFPPB-O)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1699</v>
+        <v>7899</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1000,32 +1002,32 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>-68.4%</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>43.25</v>
+        <v>675.3200000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>1631</v>
+        <v>24987</v>
       </c>
       <c r="K10" t="n">
-        <v>1631</v>
+        <v>24987</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="O10" t="n">
-        <v>1281336</v>
+        <v>17050086</v>
       </c>
       <c r="P10" t="n">
-        <v>3879098</v>
+        <v>-4682109</v>
       </c>
     </row>
     <row r="11">
@@ -1045,7 +1047,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1199</v>
+        <v>1149</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1056,7 +1058,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-10.8%</t>
+          <t>-14.5%</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1075,7 +1077,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O11" t="n">
         <v>367703</v>
@@ -1131,7 +1133,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1189,7 +1191,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
         <v>1604897</v>
@@ -1245,7 +1247,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1273,7 +1275,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1284,7 +1286,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-22.6%</t>
+          <t>-32.3%</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1303,7 +1305,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O15" t="n">
         <v>47136</v>
@@ -1329,10 +1331,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
@@ -1340,7 +1342,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1359,7 +1361,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1417,7 +1419,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O17" t="n">
         <v>73002</v>
@@ -1454,7 +1456,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1468,7 +1470,7 @@
         <v>567</v>
       </c>
       <c r="K18" t="n">
-        <v>4536</v>
+        <v>2835</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
@@ -1477,7 +1479,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
@@ -1512,7 +1514,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1526,7 +1528,7 @@
         <v>862</v>
       </c>
       <c r="K19" t="n">
-        <v>7758</v>
+        <v>6896</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
@@ -1535,7 +1537,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
@@ -1570,7 +1572,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1584,7 +1586,7 @@
         <v>1449</v>
       </c>
       <c r="K20" t="n">
-        <v>18837</v>
+        <v>14490</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
@@ -1593,7 +1595,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1632,7 +1634,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1646,7 +1648,7 @@
         <v>2738</v>
       </c>
       <c r="K21" t="n">
-        <v>35594</v>
+        <v>30118</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
@@ -1655,7 +1657,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O21" t="n">
         <v>378364</v>
@@ -1692,7 +1694,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1706,7 +1708,7 @@
         <v>1561</v>
       </c>
       <c r="K22" t="n">
-        <v>28098</v>
+        <v>26537</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
@@ -1715,7 +1717,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1777,7 +1779,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O23" t="n">
         <v>378355</v>
@@ -1803,7 +1805,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2099</v>
+        <v>2049</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -1814,7 +1816,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-16.4%</t>
+          <t>-18.4%</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1833,7 +1835,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O24" t="n">
         <v>378353</v>
@@ -1889,7 +1891,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1928,7 +1930,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1942,7 +1944,7 @@
         <v>691</v>
       </c>
       <c r="K26" t="n">
-        <v>5528</v>
+        <v>4837</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
@@ -1951,7 +1953,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O26" t="n">
         <v>336786</v>
@@ -1973,11 +1975,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>T7 500GB USB 3.2 Gen 2 Type-C Titan Grey (MU-PC500T/WW)</t>
+          <t>970 EVO Plus 250GB M.2 PCIe 3.0 (MZ-V7S250BW)</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2589</v>
+        <v>1259</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -1988,34 +1990,34 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>23.0%</t>
+          <t>28.4%</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>55.84</v>
+        <v>26</v>
       </c>
       <c r="J27" t="n">
-        <v>2106</v>
+        <v>981</v>
       </c>
       <c r="K27" t="n">
-        <v>2106</v>
+        <v>981</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>MU-PC500T/WW</t>
+          <t>MZ-V7S250BW</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4469682</v>
+        <v>3099631</v>
       </c>
     </row>
     <row r="28">
@@ -2026,16 +2028,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSCEND</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ESD270C 500GB USB 3.2 Gen 2 Type-C (TS500GESD270C)</t>
+          <t>T7 500GB USB 3.2 Gen 2 Type-C Titan Grey (MU-PC500T/WW)</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1429</v>
+        <v>2589</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2046,17 +2048,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>23.0%</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>55.84</v>
       </c>
       <c r="J28" t="n">
-        <v>1395</v>
+        <v>2106</v>
       </c>
       <c r="K28" t="n">
-        <v>1395</v>
+        <v>2106</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
@@ -2065,145 +2067,147 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>17</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1619</v>
+        <v>18</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>MU-PC500T/WW</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>6426982</v>
+        <v>4469682</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Звуковые карты</t>
+          <t>Жесткие диски SSD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>UGREEN</t>
+          <t>TRANSCEND</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>USB AUX jack, TRS(Mic + Ear) ALC4042 Black US205 (30724)</t>
+          <t>ESD270C 500GB USB 3.2 Gen 2 Type-C (TS500GESD270C)</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>79</v>
+        <v>1429</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>108.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="J29" t="n">
-        <v>38</v>
+        <v>1395</v>
       </c>
       <c r="K29" t="n">
-        <v>1368</v>
+        <v>1395</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>FuaCM</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="O29" t="n">
-        <v>820035</v>
+        <v>1619</v>
       </c>
       <c r="P29" t="n">
-        <v>8568970</v>
+        <v>6426982</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Игровые манипуляторы</t>
+          <t>Звуковые карты</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GAMEPRO</t>
+          <t>UGREEN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MG111 Black</t>
+          <t>USB AUX jack, TRS(Mic + Ear) ALC4042 Black US205 (30724)</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>108.7%</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3.58</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="K30" t="n">
-        <v>135</v>
+        <v>1216</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>FuaCM</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="O30" t="n">
-        <v>6578224</v>
+        <v>820035</v>
       </c>
       <c r="P30" t="n">
-        <v>6540545</v>
+        <v>8568970</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Клавиатуры</t>
+          <t>Игровые манипуляторы</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A-4 TECH</t>
+          <t>GAMEPRO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>B760 Bloody Black Green Switches</t>
+          <t>MG111 Black</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1999</v>
+        <v>99</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2214,17 +2218,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>41.4%</t>
+          <t>-26.7%</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>38.19</v>
+        <v>3.58</v>
       </c>
       <c r="J31" t="n">
-        <v>1414</v>
+        <v>135</v>
       </c>
       <c r="K31" t="n">
-        <v>1414</v>
+        <v>135</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
@@ -2233,13 +2237,13 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="O31" t="n">
-        <v>1604693</v>
+        <v>6578224</v>
       </c>
       <c r="P31" t="n">
-        <v>5433267</v>
+        <v>6540545</v>
       </c>
     </row>
     <row r="32">
@@ -2250,16 +2254,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>A-4 TECH</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Клавіатура безпровідна Defender Element HB-195 UA, чорна, мультимедіа (45189)</t>
+          <t>B760 Bloody Black Green Switches</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>259</v>
+        <v>1999</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2270,17 +2274,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>12.9%</t>
+          <t>41.4%</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>6.2</v>
+        <v>38.19</v>
       </c>
       <c r="J32" t="n">
-        <v>230</v>
+        <v>1414</v>
       </c>
       <c r="K32" t="n">
-        <v>230</v>
+        <v>1414</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
@@ -2289,13 +2293,13 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="O32" t="n">
-        <v>824394</v>
+        <v>1604693</v>
       </c>
       <c r="P32" t="n">
-        <v>8533394</v>
+        <v>5433267</v>
       </c>
     </row>
     <row r="33">
@@ -2306,16 +2310,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ERGO</t>
+          <t>DARK PROJECT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>KB-510 Keyboard ENG/RUS/UKR Black (KB-510)</t>
+          <t>Клавиатура игровая KD87A (DPO-KD-87A-400300-GMT) gray/purple</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>369</v>
+        <v>1649</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2326,32 +2330,34 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>18.5%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>8.41</v>
+        <v>43.07</v>
       </c>
       <c r="J33" t="n">
-        <v>312</v>
+        <v>1624</v>
       </c>
       <c r="K33" t="n">
-        <v>312</v>
+        <v>1624</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>35</v>
-      </c>
-      <c r="O33" t="n">
-        <v>6678966</v>
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>7076671|0e4795f9-b427-11ed-90f9-b4a9fc43a3f9</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>8124659</v>
+        <v>-9774357</v>
       </c>
     </row>
     <row r="34">
@@ -2362,16 +2368,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Клавиатура Ornata V3 (RZ03-04460100-R3M1)</t>
+          <t>Клавіатура безпровідна Defender Element HB-195 UA, чорна, мультимедіа (45189)</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2999</v>
+        <v>259</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2382,17 +2388,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>12.9%</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>77.17</v>
+        <v>6.2</v>
       </c>
       <c r="J34" t="n">
-        <v>2910</v>
+        <v>230</v>
       </c>
       <c r="K34" t="n">
-        <v>2910</v>
+        <v>230</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
@@ -2401,13 +2407,13 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="O34" t="n">
-        <v>66172</v>
+        <v>824394</v>
       </c>
       <c r="P34" t="n">
-        <v>9382884</v>
+        <v>8533394</v>
       </c>
     </row>
     <row r="35">
@@ -2418,16 +2424,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRUST</t>
+          <t>ERGO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ODY WRL Keyboard &amp;amp; Mouse RU (24159)</t>
+          <t>KB-510 Keyboard ENG/RUS/UKR Black (KB-510)</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>449</v>
+        <v>369</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2438,17 +2444,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-19.8%</t>
+          <t>18.5%</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>15.12</v>
+        <v>8.41</v>
       </c>
       <c r="J35" t="n">
-        <v>560</v>
+        <v>312</v>
       </c>
       <c r="K35" t="n">
-        <v>560</v>
+        <v>312</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
@@ -2457,13 +2463,13 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="O35" t="n">
-        <v>3713515</v>
+        <v>6678966</v>
       </c>
       <c r="P35" t="n">
-        <v>7205162</v>
+        <v>8124659</v>
       </c>
     </row>
     <row r="36">
@@ -2474,16 +2480,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VINGA</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Клавиатура Vinga KBGM-110 87 key LED Blue Switch USB Black (KBGM-110 Black)</t>
+          <t>Клавиатура Ornata V3 (RZ03-04460100-R3M1)</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>999</v>
+        <v>2999</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2494,17 +2500,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>25.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>21.11</v>
+        <v>77.17</v>
       </c>
       <c r="J36" t="n">
-        <v>796</v>
+        <v>2910</v>
       </c>
       <c r="K36" t="n">
-        <v>796</v>
+        <v>2910</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -2513,91 +2519,89 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>6</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>U0566268</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="O36" t="n">
+        <v>66172</v>
       </c>
       <c r="P36" t="n">
-        <v>8494217</v>
+        <v>9382884</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Клавиатуры</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COOLING BABY</t>
+          <t>TRUST</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>7015 3PS</t>
+          <t>ODY WRL Keyboard &amp;amp; Mouse RU (24159)</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>49</v>
+        <v>449</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>-19.8%</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1.14</v>
+        <v>15.12</v>
       </c>
       <c r="J37" t="n">
-        <v>45</v>
+        <v>560</v>
       </c>
       <c r="K37" t="n">
-        <v>90</v>
+        <v>560</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="O37" t="n">
-        <v>45131</v>
+        <v>3713515</v>
       </c>
       <c r="P37" t="n">
-        <v>2184075</v>
+        <v>7205162</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Клавиатуры</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DEEPCOOL</t>
+          <t>VINGA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AG200 (R-AG200-BKNNMN-G)</t>
+          <t>Клавиатура Vinga KBGM-110 87 key LED Blue Switch USB Black (KBGM-110 Black)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>479</v>
+        <v>999</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -2608,17 +2612,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>17.6%</t>
+          <t>25.5%</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>10.8</v>
+        <v>21.11</v>
       </c>
       <c r="J38" t="n">
-        <v>408</v>
+        <v>796</v>
       </c>
       <c r="K38" t="n">
-        <v>408</v>
+        <v>796</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
@@ -2627,13 +2631,15 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>16</v>
-      </c>
-      <c r="O38" t="n">
-        <v>52968</v>
+        <v>9</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>U0566268</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>9940479</v>
+        <v>8494217</v>
       </c>
     </row>
     <row r="39">
@@ -2644,37 +2650,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DEEPCOOL</t>
+          <t>COOLING BABY</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GAMMAXX 300 (DP-MCH3-GMX300)</t>
+          <t>7015 3PS</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>739</v>
+        <v>49</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>18.1%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>16.59</v>
+        <v>1.14</v>
       </c>
       <c r="J39" t="n">
-        <v>626</v>
+        <v>45</v>
       </c>
       <c r="K39" t="n">
-        <v>626</v>
+        <v>90</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
@@ -2683,11 +2689,13 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>122</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
+        <v>166</v>
+      </c>
+      <c r="O39" t="n">
+        <v>45131</v>
+      </c>
       <c r="P39" t="n">
-        <v>359663</v>
+        <v>2184075</v>
       </c>
     </row>
     <row r="40">
@@ -2703,11 +2711,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GAMMAXX 300 B (DP-MCH3-GMX300-BL)</t>
+          <t>AG200 (R-AG200-BKNNMN-G)</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>789</v>
+        <v>479</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -2718,32 +2726,32 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>19.1%</t>
+          <t>17.6%</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>17.81</v>
+        <v>10.8</v>
       </c>
       <c r="J40" t="n">
-        <v>663</v>
+        <v>408</v>
       </c>
       <c r="K40" t="n">
-        <v>663</v>
+        <v>408</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="O40" t="n">
-        <v>47936</v>
+        <v>52968</v>
       </c>
       <c r="P40" t="n">
-        <v>4311907</v>
+        <v>9940479</v>
       </c>
     </row>
     <row r="41">
@@ -2759,11 +2767,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GAMMAXX 300 FURY (DP-MCH3-GMX300F)</t>
+          <t>GAMMAXX 300 B (DP-MCH3-GMX300-BL)</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>729</v>
+        <v>789</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -2774,17 +2782,17 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>17.3%</t>
+          <t>19.1%</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>16.8</v>
+        <v>17.81</v>
       </c>
       <c r="J41" t="n">
-        <v>622</v>
+        <v>663</v>
       </c>
       <c r="K41" t="n">
-        <v>622</v>
+        <v>663</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
@@ -2793,13 +2801,13 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="O41" t="n">
-        <v>427337</v>
+        <v>47936</v>
       </c>
       <c r="P41" t="n">
-        <v>10031050</v>
+        <v>4311907</v>
       </c>
     </row>
     <row r="42">
@@ -2815,32 +2823,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>XFAN 80 (DP-FDC-XF80)</t>
+          <t>GAMMAXX 300 FURY (DP-MCH3-GMX300F)</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>89</v>
+        <v>729</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>29.9%</t>
+          <t>17.3%</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1.81</v>
+        <v>16.8</v>
       </c>
       <c r="J42" t="n">
-        <v>69</v>
+        <v>622</v>
       </c>
       <c r="K42" t="n">
-        <v>552</v>
+        <v>622</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
@@ -2849,11 +2857,13 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>122</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="O42" t="n">
+        <v>427337</v>
+      </c>
       <c r="P42" t="n">
-        <v>262689</v>
+        <v>10031050</v>
       </c>
     </row>
     <row r="43">
@@ -2869,32 +2879,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>XFan 120 (DP-FDC-XF120)</t>
+          <t>XFAN 80 (DP-FDC-XF80)</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>25.8%</t>
+          <t>29.9%</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3.2</v>
+        <v>1.81</v>
       </c>
       <c r="J43" t="n">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="K43" t="n">
-        <v>238</v>
+        <v>552</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
@@ -2903,11 +2913,11 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
-        <v>371011</v>
+        <v>262689</v>
       </c>
     </row>
     <row r="44">
@@ -2918,52 +2928,50 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EKWB</t>
+          <t>DEEPCOOL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EK-Quantum Vector TUF RTX 3080 3090 Backplate-Nickel</t>
+          <t>XFan 120 (DP-FDC-XF120)</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-85.2%</t>
+          <t>25.8%</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>60.64</v>
+        <v>3.2</v>
       </c>
       <c r="J44" t="n">
-        <v>1686</v>
+        <v>119</v>
       </c>
       <c r="K44" t="n">
-        <v>1686</v>
+        <v>238</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>842</v>
-      </c>
-      <c r="O44" t="n">
-        <v>3831109832639</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>-6363959</v>
+        <v>371011</v>
       </c>
     </row>
     <row r="45">
@@ -2974,52 +2982,52 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRIME</t>
+          <t>EKWB</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Вентилятор Frime (FF7015.40) 70x70x15мм, Black</t>
+          <t>EK-Quantum Vector TUF RTX 3080 3090 Backplate-Nickel</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>14.9%</t>
+          <t>-88.2%</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1.15</v>
+        <v>60.64</v>
       </c>
       <c r="J45" t="n">
-        <v>43</v>
+        <v>1686</v>
       </c>
       <c r="K45" t="n">
-        <v>86</v>
+        <v>1686</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>8</v>
+        <v>845</v>
       </c>
       <c r="O45" t="n">
-        <v>459285</v>
+        <v>3831109832639</v>
       </c>
       <c r="P45" t="n">
-        <v>10093211</v>
+        <v>-6363959</v>
       </c>
     </row>
     <row r="46">
@@ -3030,16 +3038,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GAMEMAX</t>
+          <t>FRIME</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GMX-WFBK-WT</t>
+          <t>Вентилятор Frime (FF7015.40) 70x70x15мм, Black</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3050,17 +3058,17 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-7.3%</t>
+          <t>14.9%</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2.57</v>
+        <v>1.15</v>
       </c>
       <c r="J46" t="n">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="K46" t="n">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
@@ -3069,13 +3077,13 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>3688449</v>
+        <v>459285</v>
       </c>
       <c r="P46" t="n">
-        <v>4463224</v>
+        <v>10093211</v>
       </c>
     </row>
     <row r="47">
@@ -3086,16 +3094,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>GAMEMAX</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TFD-4010 M 12 Z (0400097)</t>
+          <t>GMX-WFBK-WT</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3106,17 +3114,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>10.1%</t>
+          <t>-7.3%</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2.9</v>
+        <v>2.57</v>
       </c>
       <c r="J47" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K47" t="n">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
@@ -3125,35 +3133,33 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>88</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>0400097</t>
-        </is>
+        <v>89</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3688449</v>
       </c>
       <c r="P47" t="n">
-        <v>9249871</v>
+        <v>4463224</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры - аксессуары</t>
+          <t>Компьютерные кулеры</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ID-COOLING</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Разветвитель питания вентиляторов ID-Cooling FS-04 ARGB Splitter 1-4</t>
+          <t>TFD-4010 M 12 Z (0400097)</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3164,17 +3170,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>28.2%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J48" t="n">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="K48" t="n">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
@@ -3183,54 +3189,56 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>140</v>
-      </c>
-      <c r="O48" t="n">
-        <v>444082</v>
+        <v>91</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0400097</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>9436713</v>
+        <v>9249871</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Корпуса</t>
+          <t>Компьютерные кулеры - аксессуары</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GAMEMAX</t>
+          <t>ID-COOLING</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Abyss-TR</t>
+          <t>Разветвитель питания вентиляторов ID-Cooling FS-04 ARGB Splitter 1-4</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3649</v>
+        <v>159</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>28.2%</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>94.65000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="J49" t="n">
-        <v>3569</v>
+        <v>124</v>
       </c>
       <c r="K49" t="n">
-        <v>3569</v>
+        <v>248</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -3239,13 +3247,13 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="O49" t="n">
-        <v>37491</v>
+        <v>444082</v>
       </c>
       <c r="P49" t="n">
-        <v>7513003</v>
+        <v>9436713</v>
       </c>
     </row>
     <row r="50">
@@ -3261,14 +3269,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pardo Black </t>
+          <t>Abyss-TR</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1700</v>
+        <v>3649</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
@@ -3276,17 +3284,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>9.0%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>40.26</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>1561</v>
+        <v>3569</v>
       </c>
       <c r="K50" t="n">
-        <v>1561</v>
+        <v>3569</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
@@ -3295,13 +3303,13 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="O50" t="n">
-        <v>2973145</v>
+        <v>37491</v>
       </c>
       <c r="P50" t="n">
-        <v>2783798</v>
+        <v>7513003</v>
       </c>
     </row>
     <row r="51">
@@ -3317,11 +3325,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ST-610G</t>
+          <t xml:space="preserve">Pardo Black </t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1449</v>
+        <v>1599</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -3332,17 +3340,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>38.99</v>
+        <v>40.26</v>
       </c>
       <c r="J51" t="n">
-        <v>1443</v>
+        <v>1561</v>
       </c>
       <c r="K51" t="n">
-        <v>1443</v>
+        <v>1561</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
@@ -3351,13 +3359,13 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="O51" t="n">
-        <v>44016</v>
+        <v>2973145</v>
       </c>
       <c r="P51" t="n">
-        <v>7732390</v>
+        <v>2783798</v>
       </c>
     </row>
     <row r="52">
@@ -3368,16 +3376,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VINGA</t>
+          <t>GAMEMAX</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pillar Black Radiation</t>
+          <t>ST-610G</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2599</v>
+        <v>1449</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -3388,54 +3396,52 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-11.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>79</v>
+        <v>38.99</v>
       </c>
       <c r="J52" t="n">
-        <v>2923</v>
+        <v>1443</v>
       </c>
       <c r="K52" t="n">
-        <v>2923</v>
+        <v>1443</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>42</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>U0747285</t>
-        </is>
+        <v>68</v>
+      </c>
+      <c r="O52" t="n">
+        <v>44016</v>
       </c>
       <c r="P52" t="n">
-        <v>-9577112</v>
+        <v>7732390</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Корпуса - аксессуары</t>
+          <t>Корпуса</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CABLEXPERT</t>
+          <t>VINGA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>USB 20-pin - Type-A 0.4m (CC-USB3-RECEPTACLE)</t>
+          <t>Pillar Black Radiation</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>119</v>
+        <v>2549</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -3446,52 +3452,54 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>-12.8%</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3.07</v>
+        <v>79</v>
       </c>
       <c r="J53" t="n">
-        <v>125</v>
+        <v>2923</v>
       </c>
       <c r="K53" t="n">
-        <v>125</v>
+        <v>2923</v>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>220</v>
-      </c>
-      <c r="O53" t="n">
-        <v>252144</v>
+        <v>45</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>U0747285</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>5325742</v>
+        <v>-9577112</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Материнские платы</t>
+          <t>Корпуса - аксессуары</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ASROCK</t>
+          <t>CABLEXPERT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>B760M PG Lightning</t>
+          <t>USB 20-pin - Type-A 0.4m (CC-USB3-RECEPTACLE)</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5299</v>
+        <v>119</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -3502,17 +3510,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>137.03</v>
+        <v>3.07</v>
       </c>
       <c r="J54" t="n">
-        <v>5167</v>
+        <v>125</v>
       </c>
       <c r="K54" t="n">
-        <v>5167</v>
+        <v>125</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
@@ -3521,13 +3529,13 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="O54" t="n">
-        <v>3703814</v>
+        <v>252144</v>
       </c>
       <c r="P54" t="n">
-        <v>10610047</v>
+        <v>5325742</v>
       </c>
     </row>
     <row r="55">
@@ -3538,16 +3546,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIOSTAR</t>
+          <t>ASROCK</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TZ590-BTC DUO</t>
+          <t>B760M PG Lightning</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4999</v>
+        <v>5299</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -3558,17 +3566,17 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-33.9%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>270</v>
+        <v>137.03</v>
       </c>
       <c r="J55" t="n">
-        <v>7560</v>
+        <v>5167</v>
       </c>
       <c r="K55" t="n">
-        <v>7560</v>
+        <v>5167</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
@@ -3577,15 +3585,13 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>471</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>TZ590-BTC_DUO</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3703814</v>
       </c>
       <c r="P55" t="n">
-        <v>8199628</v>
+        <v>10610047</v>
       </c>
     </row>
     <row r="56">
@@ -3596,16 +3602,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>BIOSTAR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>N4120I H</t>
+          <t>TZ590-BTC DUO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3899</v>
+        <v>4999</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -3616,17 +3622,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-33.9%</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>100.99</v>
+        <v>270</v>
       </c>
       <c r="J56" t="n">
-        <v>3737</v>
+        <v>7560</v>
       </c>
       <c r="K56" t="n">
-        <v>3737</v>
+        <v>7560</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
@@ -3635,13 +3641,15 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>44</v>
-      </c>
-      <c r="O56" t="n">
-        <v>3703020</v>
+        <v>474</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>TZ590-BTC_DUO</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>10040970</v>
+        <v>8199628</v>
       </c>
     </row>
     <row r="57">
@@ -3652,16 +3660,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NZXT</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>N5 Z690 D4 Matte White (N5-Z69XT-W1)</t>
+          <t>N4120I H</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>7199</v>
+        <v>3899</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -3672,17 +3680,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>185.03</v>
+        <v>100.99</v>
       </c>
       <c r="J57" t="n">
-        <v>6976</v>
+        <v>3737</v>
       </c>
       <c r="K57" t="n">
-        <v>6976</v>
+        <v>3737</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
@@ -3691,35 +3699,33 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>24</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>N5-Z69XT-W1</t>
-        </is>
+        <v>47</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3703020</v>
       </c>
       <c r="P57" t="n">
-        <v>10216528</v>
+        <v>10040970</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Микрофоны</t>
+          <t>Материнские платы</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SENNHEISER</t>
+          <t>NZXT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>E 609</t>
+          <t>N5 Z690 D4 Matte White (N5-Z69XT-W1)</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2999</v>
+        <v>7199</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -3730,17 +3736,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-22.2%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>146.19</v>
+        <v>185.03</v>
       </c>
       <c r="J58" t="n">
-        <v>3853</v>
+        <v>6976</v>
       </c>
       <c r="K58" t="n">
-        <v>3853</v>
+        <v>6976</v>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
@@ -3749,13 +3755,15 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>647</v>
-      </c>
-      <c r="O58" t="n">
-        <v>4522</v>
+        <v>27</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>N5-Z69XT-W1</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>6599676</v>
+        <v>10216528</v>
       </c>
     </row>
     <row r="59">
@@ -3771,11 +3779,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MD 431-II</t>
+          <t>E 609</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>9499</v>
+        <v>2999</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -3790,13 +3798,13 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>447.85</v>
+        <v>146.19</v>
       </c>
       <c r="J59" t="n">
-        <v>12204</v>
+        <v>3853</v>
       </c>
       <c r="K59" t="n">
-        <v>12204</v>
+        <v>3853</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
@@ -3805,35 +3813,33 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>777</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>MD 431-II</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="O59" t="n">
+        <v>4522</v>
       </c>
       <c r="P59" t="n">
-        <v>3235478</v>
+        <v>6599676</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Микрофоны</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>G.SKILL</t>
+          <t>SENNHEISER</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SODIMM 16G DDR4 2666MHz G.SKILL Ripjaws 1.2V CL19 (box) (F4-2666C19S-16GRS)</t>
+          <t>MD 431-II</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1129</v>
+        <v>9499</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -3844,17 +3850,17 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>-22.2%</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>32</v>
+        <v>447.85</v>
       </c>
       <c r="J60" t="n">
-        <v>1184</v>
+        <v>12204</v>
       </c>
       <c r="K60" t="n">
-        <v>1184</v>
+        <v>12204</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
@@ -3863,15 +3869,15 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>66</v>
+        <v>780</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>F4-2666C19S-16GRS</t>
+          <t>MD 431-II</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>7258586</v>
+        <v>3235478</v>
       </c>
     </row>
     <row r="61">
@@ -3887,32 +3893,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SODIMM DDR3L 8GB, 1866MHz, PC3-15000, Ripjaws (F3-1866C11S-8GRSL)</t>
+          <t>SODIMM 16G DDR4 2666MHz G.SKILL Ripjaws 1.2V CL19 (box) (F4-2666C19S-16GRS)</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>699</v>
+        <v>1129</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>11.1%</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J61" t="n">
-        <v>629</v>
+        <v>1184</v>
       </c>
       <c r="K61" t="n">
-        <v>1258</v>
+        <v>1184</v>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
@@ -3921,15 +3927,15 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>U0103402</t>
+          <t>F4-2666C19S-16GRS</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1857277</v>
+        <v>7258586</v>
       </c>
     </row>
     <row r="62">
@@ -3940,37 +3946,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GOLDEN MEMORY</t>
+          <t>G.SKILL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DDR3L 8GB, 1600MHz, PC3-12800 (GM16LN11/8)</t>
+          <t>SODIMM DDR3L 8GB, 1866MHz, PC3-15000, Ripjaws (F3-1866C11S-8GRSL)</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>459</v>
+        <v>699</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-25.2%</t>
+          <t>11.1%</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>15.73</v>
+        <v>17</v>
       </c>
       <c r="J62" t="n">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="K62" t="n">
-        <v>614</v>
+        <v>1258</v>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
@@ -3979,15 +3985,15 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>U0306694</t>
+          <t>U0103402</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3301188</v>
+        <v>1857277</v>
       </c>
     </row>
     <row r="63">
@@ -4037,7 +4043,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -4095,7 +4101,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O64" t="n">
         <v>3309121</v>
@@ -4151,7 +4157,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O65" t="n">
         <v>6329811</v>
@@ -4207,7 +4213,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
@@ -4231,7 +4237,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -4242,7 +4248,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-78.6%</t>
+          <t>-80.2%</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -4261,7 +4267,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -4289,7 +4295,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1299</v>
+        <v>1199</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -4300,7 +4306,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-74.3%</t>
+          <t>-76.3%</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -4319,7 +4325,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -4377,7 +4383,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4435,7 +4441,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4493,7 +4499,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O71" t="n">
         <v>3701564</v>
@@ -4549,7 +4555,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O72" t="n">
         <v>372109</v>
@@ -4575,7 +4581,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3209</v>
+        <v>2349</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -4586,7 +4592,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>19.6%</t>
+          <t>-12.4%</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -4605,7 +4611,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O73" t="n">
         <v>49207</v>
@@ -4661,7 +4667,7 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4719,7 +4725,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4777,7 +4783,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4835,7 +4841,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="O77" t="n">
         <v>155764</v>
@@ -4891,7 +4897,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4949,7 +4955,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O79" t="n">
         <v>1384165</v>
@@ -5005,7 +5011,7 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O80" t="n">
         <v>6814832</v>
@@ -5061,7 +5067,7 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -5119,7 +5125,7 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
@@ -5173,7 +5179,7 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -5231,7 +5237,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -5289,7 +5295,7 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -5347,7 +5353,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
@@ -5371,10 +5377,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
@@ -5382,7 +5388,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>22.0%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -5401,7 +5407,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O87" t="n">
         <v>620102</v>
@@ -5427,10 +5433,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="E88" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
@@ -5438,7 +5444,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>17.7%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -5457,7 +5463,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O88" t="n">
         <v>207633</v>
@@ -5513,7 +5519,7 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O89" t="n">
         <v>164179</v>
@@ -5569,7 +5575,7 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O90" t="n">
         <v>1605654</v>
@@ -5595,10 +5601,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
@@ -5606,7 +5612,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -5625,7 +5631,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5683,7 +5689,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O92" t="n">
         <v>6261261</v>
@@ -5709,10 +5715,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
@@ -5720,7 +5726,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>14.1%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -5739,7 +5745,7 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O93" t="n">
         <v>31030024400</v>
@@ -5795,7 +5801,7 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O94" t="n">
         <v>64374</v>
@@ -5851,7 +5857,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O95" t="n">
         <v>66042</v>
@@ -5907,7 +5913,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O96" t="n">
         <v>66038</v>
@@ -5963,7 +5969,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O97" t="n">
         <v>810643</v>
@@ -6019,7 +6025,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -6077,7 +6083,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O99" t="n">
         <v>3717833</v>
@@ -6103,7 +6109,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1999</v>
+        <v>1949</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -6114,7 +6120,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -6133,7 +6139,7 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O100" t="n">
         <v>246576</v>
@@ -6189,7 +6195,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O101" t="n">
         <v>435525</v>
@@ -6245,7 +6251,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O102" t="n">
         <v>150729</v>
@@ -6271,10 +6277,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1215</v>
+        <v>1179</v>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
@@ -6282,7 +6288,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>-29.9%</t>
+          <t>-31.9%</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -6301,7 +6307,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -6359,7 +6365,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O104" t="n">
         <v>65637</v>
@@ -6415,7 +6421,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="O105" t="n">
         <v>65785</v>
@@ -6471,7 +6477,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="O106" t="n">
         <v>65549</v>
@@ -6497,10 +6503,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
@@ -6508,7 +6514,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>-17.6%</t>
+          <t>-18.7%</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -6527,7 +6533,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O107" t="n">
         <v>6378232</v>
@@ -6583,7 +6589,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -6641,7 +6647,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O109" t="n">
         <v>132815</v>
@@ -6697,7 +6703,7 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
@@ -6712,16 +6718,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GEMBIRD</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MP-GAMEPRO-L</t>
+          <t>LOGITECH G840 XL Gaming Mouse Pad-LOL-KDA2.0-EER2-#933 (L943-000457)</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>249</v>
+        <v>1749</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -6732,17 +6738,17 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>75.4%</t>
+          <t>-14.7%</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>3.76</v>
+        <v>55.14</v>
       </c>
       <c r="J111" t="n">
-        <v>142</v>
+        <v>2052</v>
       </c>
       <c r="K111" t="n">
-        <v>142</v>
+        <v>2052</v>
       </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
@@ -6751,15 +6757,15 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>0101193</t>
+          <t>L943-000457</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>2008125</v>
+        <v>7515973</v>
       </c>
     </row>
     <row r="112">
@@ -6770,19 +6776,19 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>LOGITECH G840 XL Gaming Mouse Pad-LOL-KDA2.0-EER2-#933 (L943-000457)</t>
+          <t>Goliathus Chroma Extended Quartz (RZ02-02500316-R3M1)</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1823</v>
+        <v>2799</v>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
@@ -6790,17 +6796,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>-11.1%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>55.14</v>
+        <v>69.23</v>
       </c>
       <c r="J112" t="n">
-        <v>2052</v>
+        <v>1890</v>
       </c>
       <c r="K112" t="n">
-        <v>2052</v>
+        <v>1890</v>
       </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
@@ -6809,35 +6815,33 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>87</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>L943-000457</t>
-        </is>
+        <v>775</v>
+      </c>
+      <c r="O112" t="n">
+        <v>64013</v>
       </c>
       <c r="P112" t="n">
-        <v>7515973</v>
+        <v>4161739</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Мыши - коврики</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>BASEUS</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Goliathus Chroma Extended Quartz (RZ02-02500316-R3M1)</t>
+          <t>Encok C17 White (NGCR010002)</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2799</v>
+        <v>199</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -6848,17 +6852,17 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>48.1%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>69.23</v>
+        <v>4.91</v>
       </c>
       <c r="J113" t="n">
-        <v>1890</v>
+        <v>182</v>
       </c>
       <c r="K113" t="n">
-        <v>1890</v>
+        <v>182</v>
       </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
@@ -6867,13 +6871,13 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>772</v>
+        <v>32</v>
       </c>
       <c r="O113" t="n">
-        <v>64013</v>
+        <v>352750003</v>
       </c>
       <c r="P113" t="n">
-        <v>4161739</v>
+        <v>9112337</v>
       </c>
     </row>
     <row r="114">
@@ -6889,11 +6893,11 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Encok C17 White (NGCR010002)</t>
+          <t>Навушники Baseus (NGTW230002)</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>199</v>
+        <v>2699</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -6904,17 +6908,17 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>80.1%</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>4.91</v>
+        <v>40.5</v>
       </c>
       <c r="J114" t="n">
-        <v>182</v>
+        <v>1499</v>
       </c>
       <c r="K114" t="n">
-        <v>182</v>
+        <v>1499</v>
       </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
@@ -6923,13 +6927,15 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>29</v>
-      </c>
-      <c r="O114" t="n">
-        <v>352750003</v>
+        <v>59</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>NGTW230002</t>
+        </is>
       </c>
       <c r="P114" t="n">
-        <v>9112337</v>
+        <v>9239460</v>
       </c>
     </row>
     <row r="115">
@@ -6940,16 +6946,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>BASEUS</t>
+          <t>BLUEDIO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Навушники Baseus (NGTW230002)</t>
+          <t>T2 Plus Black</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2699</v>
+        <v>1049</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -6960,34 +6966,34 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>80.1%</t>
+          <t>-25.4%</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="J115" t="n">
-        <v>1499</v>
+        <v>1406</v>
       </c>
       <c r="K115" t="n">
-        <v>1499</v>
+        <v>1406</v>
       </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>NGTW230002</t>
+          <t>hpblt2plusbl</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>9239460</v>
+        <v>-2862459</v>
       </c>
     </row>
     <row r="116">
@@ -6998,16 +7004,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BLUEDIO</t>
+          <t>BOROFONE</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>T2 Plus Black</t>
+          <t>BW26 White (BW26W)</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1099</v>
+        <v>339</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -7018,34 +7024,32 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>-21.9%</t>
+          <t>14.5%</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="J116" t="n">
-        <v>1406</v>
+        <v>296</v>
       </c>
       <c r="K116" t="n">
-        <v>1406</v>
+        <v>296</v>
       </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>51</v>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>hpblt2plusbl</t>
-        </is>
+        <v>56</v>
+      </c>
+      <c r="O116" t="n">
+        <v>24160</v>
       </c>
       <c r="P116" t="n">
-        <v>-2862459</v>
+        <v>9599567</v>
       </c>
     </row>
     <row r="117">
@@ -7056,16 +7060,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BOROFONE</t>
+          <t>CANYON</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BW26 White (BW26W)</t>
+          <t>CNE-CEPM01B Black</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>339</v>
+        <v>179</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -7076,32 +7080,32 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>14.5%</t>
+          <t>33.6%</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>8</v>
+        <v>3.55</v>
       </c>
       <c r="J117" t="n">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="K117" t="n">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="O117" t="n">
-        <v>24160</v>
+        <v>53945</v>
       </c>
       <c r="P117" t="n">
-        <v>9599567</v>
+        <v>5221340</v>
       </c>
     </row>
     <row r="118">
@@ -7117,11 +7121,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CNE-CEPM01B Black</t>
+          <t>TWS-6 Black (CNS-TWS6B)</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>179</v>
+        <v>649</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -7132,17 +7136,17 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>33.6%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>3.55</v>
+        <v>16.84</v>
       </c>
       <c r="J118" t="n">
-        <v>134</v>
+        <v>624</v>
       </c>
       <c r="K118" t="n">
-        <v>134</v>
+        <v>624</v>
       </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
@@ -7151,13 +7155,15 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>112</v>
-      </c>
-      <c r="O118" t="n">
-        <v>53945</v>
+        <v>19</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>CNS-TWS6B</t>
+        </is>
       </c>
       <c r="P118" t="n">
-        <v>5221340</v>
+        <v>9793596</v>
       </c>
     </row>
     <row r="119">
@@ -7168,16 +7174,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CANYON</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TWS-6 Black (CNS-TWS6B)</t>
+          <t>Hypergang 7.1 USB Black (HTA-840)</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>649</v>
+        <v>2199</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -7188,34 +7194,32 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>30.2%</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>16.84</v>
+        <v>45.66</v>
       </c>
       <c r="J119" t="n">
-        <v>624</v>
+        <v>1690</v>
       </c>
       <c r="K119" t="n">
-        <v>624</v>
+        <v>1690</v>
       </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>16</v>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>CNS-TWS6B</t>
-        </is>
+        <v>47</v>
+      </c>
+      <c r="O119" t="n">
+        <v>453818</v>
       </c>
       <c r="P119" t="n">
-        <v>9793596</v>
+        <v>9769963</v>
       </c>
     </row>
     <row r="120">
@@ -7231,11 +7235,11 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Hypergang 7.1 USB Black (HTA-840)</t>
+          <t>Hypergang EVO (HTA-810)</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2199</v>
+        <v>1699</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -7246,17 +7250,17 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>30.2%</t>
+          <t>30.7%</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>45.66</v>
+        <v>35.12</v>
       </c>
       <c r="J120" t="n">
-        <v>1690</v>
+        <v>1300</v>
       </c>
       <c r="K120" t="n">
-        <v>1690</v>
+        <v>1300</v>
       </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
@@ -7265,13 +7269,13 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O120" t="n">
-        <v>453818</v>
+        <v>294440</v>
       </c>
       <c r="P120" t="n">
-        <v>9769963</v>
+        <v>4205308</v>
       </c>
     </row>
     <row r="121">
@@ -7287,11 +7291,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Hypergang EVO (HTA-810)</t>
+          <t>Hypergang EVO Elite Black (HTA-830)</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1699</v>
+        <v>1999</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -7302,17 +7306,17 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>30.7%</t>
+          <t>33.7%</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>35.12</v>
+        <v>40.39</v>
       </c>
       <c r="J121" t="n">
-        <v>1300</v>
+        <v>1495</v>
       </c>
       <c r="K121" t="n">
-        <v>1300</v>
+        <v>1495</v>
       </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
@@ -7321,13 +7325,13 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O121" t="n">
-        <v>294440</v>
+        <v>65623</v>
       </c>
       <c r="P121" t="n">
-        <v>4205308</v>
+        <v>8355541</v>
       </c>
     </row>
     <row r="122">
@@ -7338,16 +7342,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>HOCO</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Hypergang EVO Elite Black (HTA-830)</t>
+          <t>EW29 White</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1999</v>
+        <v>499</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -7358,32 +7362,32 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>33.7%</t>
+          <t>14.6%</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>40.39</v>
+        <v>11.55</v>
       </c>
       <c r="J122" t="n">
-        <v>1495</v>
+        <v>436</v>
       </c>
       <c r="K122" t="n">
-        <v>1495</v>
+        <v>436</v>
       </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="O122" t="n">
-        <v>65623</v>
+        <v>24602</v>
       </c>
       <c r="P122" t="n">
-        <v>8355541</v>
+        <v>10660638</v>
       </c>
     </row>
     <row r="123">
@@ -7433,7 +7437,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -7491,7 +7495,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O124" t="n">
         <v>275085</v>
@@ -7547,7 +7551,7 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O125" t="n">
         <v>268085</v>
@@ -7603,7 +7607,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -7627,11 +7631,11 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Tune 510BT White (JBLT510BTWHTEU)</t>
+          <t>Tune 520BT Blue (JBLT520BTBLUEU)</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1599</v>
+        <v>1699</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -7642,17 +7646,17 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>33.2%</t>
+          <t>24.5%</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>32.43</v>
+        <v>36.2</v>
       </c>
       <c r="J127" t="n">
-        <v>1200</v>
+        <v>1365</v>
       </c>
       <c r="K127" t="n">
-        <v>1200</v>
+        <v>1365</v>
       </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
@@ -7661,15 +7665,13 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>32</v>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>JBLT510BTWHTEU</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1392907</v>
       </c>
       <c r="P127" t="n">
-        <v>6067602</v>
+        <v>9865027</v>
       </c>
     </row>
     <row r="128">
@@ -7680,16 +7682,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>LENOVO</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tune 520BT Blue (JBLT520BTBLUEU)</t>
+          <t>Essential Stereo Headset (4XD0K25030)</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1699</v>
+        <v>999</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -7700,17 +7702,17 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>24.5%</t>
+          <t>13.6%</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>36.2</v>
+        <v>23.76</v>
       </c>
       <c r="J128" t="n">
-        <v>1365</v>
+        <v>880</v>
       </c>
       <c r="K128" t="n">
-        <v>1365</v>
+        <v>880</v>
       </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
@@ -7719,13 +7721,13 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="O128" t="n">
-        <v>1392907</v>
+        <v>3712243</v>
       </c>
       <c r="P128" t="n">
-        <v>9865027</v>
+        <v>6907039</v>
       </c>
     </row>
     <row r="129">
@@ -7736,16 +7738,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>LENOVO</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Essential Stereo Headset (4XD0K25030)</t>
+          <t>RP-HJE118GU Black</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>999</v>
+        <v>199</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -7756,32 +7758,30 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>-16.2%</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>23.76</v>
+        <v>6.29</v>
       </c>
       <c r="J129" t="n">
-        <v>880</v>
+        <v>238</v>
       </c>
       <c r="K129" t="n">
-        <v>880</v>
+        <v>238</v>
       </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>42</v>
-      </c>
-      <c r="O129" t="n">
-        <v>3712243</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="O129" t="inlineStr"/>
       <c r="P129" t="n">
-        <v>6907039</v>
+        <v>584692</v>
       </c>
     </row>
     <row r="130">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>RP-HJE118GU Black</t>
+          <t>RP-HJE125E Blue</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -7812,30 +7812,30 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>-16.2%</t>
+          <t>-19.8%</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>6.29</v>
+        <v>6.66</v>
       </c>
       <c r="J130" t="n">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K130" t="n">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="n">
-        <v>584692</v>
+        <v>571150</v>
       </c>
     </row>
     <row r="131">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>RP-HJE125E Blue</t>
+          <t>RP-HJE125E Pink</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -7866,30 +7866,32 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>-19.8%</t>
+          <t>-23.0%</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>6.66</v>
       </c>
       <c r="J131" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="K131" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>80</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
+        <v>146</v>
+      </c>
+      <c r="O131" t="n">
+        <v>6040397</v>
+      </c>
       <c r="P131" t="n">
-        <v>571150</v>
+        <v>571148</v>
       </c>
     </row>
     <row r="132">
@@ -7905,7 +7907,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>RP-HJE125E Pink</t>
+          <t>RP-HJE125E Red</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -7939,13 +7941,11 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>143</v>
-      </c>
-      <c r="O132" t="n">
-        <v>6040397</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O132" t="inlineStr"/>
       <c r="P132" t="n">
-        <v>571148</v>
+        <v>572643</v>
       </c>
     </row>
     <row r="133">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>RP-HJE125E Red</t>
+          <t>RP-HJE125E Violet</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -7976,30 +7976,30 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>-23.0%</t>
+          <t>-20.9%</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>6.66</v>
       </c>
       <c r="J133" t="n">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K133" t="n">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="n">
-        <v>572643</v>
+        <v>571147</v>
       </c>
     </row>
     <row r="134">
@@ -8015,11 +8015,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>RP-HJE125E Violet</t>
+          <t>RP-TCM115GC-K Black (RP-TCM115GCK)</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -8030,11 +8030,11 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>-20.9%</t>
+          <t>18.6%</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>6.66</v>
+        <v>6.81</v>
       </c>
       <c r="J134" t="n">
         <v>252</v>
@@ -8045,15 +8045,17 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="O134" t="n">
+        <v>93705</v>
+      </c>
       <c r="P134" t="n">
-        <v>571147</v>
+        <v>9194307</v>
       </c>
     </row>
     <row r="135">
@@ -8064,16 +8066,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PANASONIC</t>
+          <t>PHILIPS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>RP-TCM115GC-K Black (RP-TCM115GCK)</t>
+          <t>SHP2500/10</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>299</v>
+        <v>999</v>
       </c>
       <c r="E135" t="n">
         <v>9</v>
@@ -8084,17 +8086,17 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>18.6%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>6.81</v>
+        <v>22</v>
       </c>
       <c r="J135" t="n">
-        <v>252</v>
+        <v>814</v>
       </c>
       <c r="K135" t="n">
-        <v>252</v>
+        <v>814</v>
       </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
@@ -8103,13 +8105,11 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>74</v>
-      </c>
-      <c r="O135" t="n">
-        <v>93705</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="O135" t="inlineStr"/>
       <c r="P135" t="n">
-        <v>9194307</v>
+        <v>198674</v>
       </c>
     </row>
     <row r="136">
@@ -8120,16 +8120,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PHILIPS</t>
+          <t>PROMATE</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SHP2500/10</t>
+          <t>Panda Bubblegum (panda.bubblegum)</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>999</v>
+        <v>1449</v>
       </c>
       <c r="E136" t="n">
         <v>9</v>
@@ -8140,17 +8140,17 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>22.7%</t>
+          <t>18.4%</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>22</v>
+        <v>32.47</v>
       </c>
       <c r="J136" t="n">
-        <v>814</v>
+        <v>1225</v>
       </c>
       <c r="K136" t="n">
-        <v>814</v>
+        <v>1225</v>
       </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
@@ -8159,11 +8159,15 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>43</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>6468271|168605e7-5f07-11ec-90f8-b4a9fc43a3f9</t>
+        </is>
+      </c>
       <c r="P136" t="n">
-        <v>198674</v>
+        <v>8741538</v>
       </c>
     </row>
     <row r="137">
@@ -8183,10 +8187,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>810</v>
+        <v>749</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
@@ -8194,7 +8198,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>-10.0%</t>
+          <t>-16.8%</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -8213,7 +8217,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -8271,7 +8275,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O138" t="n">
         <v>414802</v>
@@ -8297,7 +8301,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4249</v>
+        <v>4199</v>
       </c>
       <c r="E139" t="n">
         <v>9</v>
@@ -8308,7 +8312,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>-23.8%</t>
+          <t>-24.7%</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -8327,7 +8331,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O139" t="n">
         <v>505582</v>
@@ -8353,7 +8357,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1399</v>
+        <v>1349</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
@@ -8364,7 +8368,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>-45.8%</t>
+          <t>-47.7%</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -8383,7 +8387,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="n">
@@ -8407,7 +8411,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1149</v>
+        <v>1099</v>
       </c>
       <c r="E141" t="n">
         <v>9</v>
@@ -8418,7 +8422,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>-22.4%</t>
+          <t>-25.8%</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -8437,7 +8441,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O141" t="n">
         <v>33592</v>
@@ -8463,7 +8467,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
@@ -8474,7 +8478,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>97.7%</t>
+          <t>72.8%</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -8493,7 +8497,7 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O142" t="n">
         <v>113920</v>
@@ -8549,7 +8553,7 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -8584,7 +8588,7 @@
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -8598,7 +8602,7 @@
         <v>1351</v>
       </c>
       <c r="K144" t="n">
-        <v>2702</v>
+        <v>1351</v>
       </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
@@ -8607,7 +8611,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O144" t="n">
         <v>851916</v>
@@ -8640,30 +8644,30 @@
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>16.8%</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>17</v>
       </c>
       <c r="J145" t="n">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="K145" t="n">
-        <v>1270</v>
+        <v>1923</v>
       </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="O145" t="n">
         <v>975751</v>
@@ -8719,7 +8723,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -8743,11 +8747,11 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Pad 5 6/256GB Cosmic Gray Global Version</t>
+          <t>Redmi Pad 3/64GB Mint Green</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>12499</v>
+        <v>6549</v>
       </c>
       <c r="E147" t="n">
         <v>9</v>
@@ -8758,57 +8762,55 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>-10.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>375.68</v>
+        <v>173</v>
       </c>
       <c r="J147" t="n">
-        <v>13901</v>
+        <v>6401</v>
       </c>
       <c r="K147" t="n">
-        <v>13901</v>
+        <v>6401</v>
       </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>58</v>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>STH0008837</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="O147" t="n">
+        <v>954472</v>
       </c>
       <c r="P147" t="n">
-        <v>-7848321</v>
+        <v>9166825</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Планшетные ПК</t>
+          <t>Процессоры</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Redmi Pad 3/64GB Mint Green</t>
+          <t>Pro A8-8670E (AD867BAHM44AB)</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>7455</v>
+        <v>879</v>
       </c>
       <c r="E148" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="n">
@@ -8816,17 +8818,17 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>16.5%</t>
+          <t>-24.2%</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="J148" t="n">
-        <v>6401</v>
+        <v>1160</v>
       </c>
       <c r="K148" t="n">
-        <v>6401</v>
+        <v>1160</v>
       </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
@@ -8835,13 +8837,13 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="O148" t="n">
-        <v>954472</v>
+        <v>383083</v>
       </c>
       <c r="P148" t="n">
-        <v>9166825</v>
+        <v>8143539</v>
       </c>
     </row>
     <row r="149">
@@ -8857,14 +8859,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Pro A8-8670E (AD867BAHM44AB)</t>
+          <t>Ryzen 5 3600 (100-100000031AWOF)</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>901</v>
+        <v>2999</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="n">
@@ -8872,17 +8874,17 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>-22.3%</t>
+          <t>-32.5%</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>29</v>
+        <v>113.85</v>
       </c>
       <c r="J149" t="n">
-        <v>1160</v>
+        <v>4441</v>
       </c>
       <c r="K149" t="n">
-        <v>1160</v>
+        <v>4441</v>
       </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
@@ -8891,13 +8893,15 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>179</v>
-      </c>
-      <c r="O149" t="n">
-        <v>383083</v>
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>100-100000031AWOF</t>
+        </is>
       </c>
       <c r="P149" t="n">
-        <v>8143539</v>
+        <v>8744158</v>
       </c>
     </row>
     <row r="150">
@@ -8908,16 +8912,16 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>INTEL</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Ryzen 5 3600 (100-100000031AWOF)</t>
+          <t>Core i3-13100 (BX8071513100)</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2999</v>
+        <v>5749</v>
       </c>
       <c r="E150" t="n">
         <v>9</v>
@@ -8928,17 +8932,17 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>-32.5%</t>
+          <t>8.7%</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>113.85</v>
+        <v>140.34</v>
       </c>
       <c r="J150" t="n">
-        <v>4441</v>
+        <v>5291</v>
       </c>
       <c r="K150" t="n">
-        <v>4441</v>
+        <v>5291</v>
       </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
@@ -8947,35 +8951,33 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>100-100000031AWOF</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="O150" t="n">
+        <v>444209</v>
       </c>
       <c r="P150" t="n">
-        <v>8744158</v>
+        <v>9463788</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Процессоры</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>INTEL</t>
+          <t>BLACKVIEW</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Core i3-13100 (BX8071513100)</t>
+          <t>A55 Pro 4/64GB Cloud White</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>5749</v>
+        <v>3719</v>
       </c>
       <c r="E151" t="n">
         <v>9</v>
@@ -8986,17 +8988,17 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>140.34</v>
+        <v>94.2</v>
       </c>
       <c r="J151" t="n">
-        <v>5291</v>
+        <v>3486</v>
       </c>
       <c r="K151" t="n">
-        <v>5291</v>
+        <v>3486</v>
       </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr">
@@ -9005,13 +9007,15 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>17</v>
-      </c>
-      <c r="O151" t="n">
-        <v>444209</v>
+        <v>20</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>STH0012050</t>
+        </is>
       </c>
       <c r="P151" t="n">
-        <v>9463788</v>
+        <v>8785221</v>
       </c>
     </row>
     <row r="152">
@@ -9022,16 +9026,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BLACKVIEW</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>A55 Pro 4/64GB Cloud White</t>
+          <t>S60 Black</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>3719</v>
+        <v>11999</v>
       </c>
       <c r="E152" t="n">
         <v>9</v>
@@ -9042,34 +9046,32 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-29.9%</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>94.2</v>
+        <v>439</v>
       </c>
       <c r="J152" t="n">
-        <v>3486</v>
+        <v>17121</v>
       </c>
       <c r="K152" t="n">
-        <v>3486</v>
+        <v>17121</v>
       </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>17</v>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>STH0012050</t>
-        </is>
+        <v>172</v>
+      </c>
+      <c r="O152" t="n">
+        <v>47732</v>
       </c>
       <c r="P152" t="n">
-        <v>8785221</v>
+        <v>-1908276</v>
       </c>
     </row>
     <row r="153">
@@ -9080,16 +9082,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>CUBOT</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>S60 Black</t>
+          <t>J10 1/32GB Green</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>12249</v>
+        <v>1949</v>
       </c>
       <c r="E153" t="n">
         <v>9</v>
@@ -9100,32 +9102,34 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>-28.5%</t>
+          <t>7.7%</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>439</v>
+        <v>48</v>
       </c>
       <c r="J153" t="n">
-        <v>17121</v>
+        <v>1810</v>
       </c>
       <c r="K153" t="n">
-        <v>17121</v>
+        <v>1810</v>
       </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>169</v>
-      </c>
-      <c r="O153" t="n">
-        <v>47732</v>
+        <v>19</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>STH0010228</t>
+        </is>
       </c>
       <c r="P153" t="n">
-        <v>-1908276</v>
+        <v>8477076</v>
       </c>
     </row>
     <row r="154">
@@ -9141,14 +9145,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>J10 1/32GB Green</t>
+          <t>Note 9 3/32GB Black</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2017</v>
+        <v>3399</v>
       </c>
       <c r="E154" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
@@ -9156,34 +9160,32 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>-10.8%</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="J154" t="n">
-        <v>1810</v>
+        <v>3811</v>
       </c>
       <c r="K154" t="n">
-        <v>1810</v>
+        <v>3811</v>
       </c>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>16</v>
-      </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>STH0010228</t>
-        </is>
+        <v>63</v>
+      </c>
+      <c r="O154" t="n">
+        <v>747835</v>
       </c>
       <c r="P154" t="n">
-        <v>8477076</v>
+        <v>-7601530</v>
       </c>
     </row>
     <row r="155">
@@ -9194,16 +9196,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CUBOT</t>
+          <t>INFINIX</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Note 9 3/32GB Black</t>
+          <t>Hot 11 4/128GB Blue Global Version</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>3499</v>
+        <v>3999</v>
       </c>
       <c r="E155" t="n">
         <v>9</v>
@@ -9214,17 +9216,17 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>-8.2%</t>
+          <t>-14.9%</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>103</v>
+        <v>127.03</v>
       </c>
       <c r="J155" t="n">
-        <v>3811</v>
+        <v>4701</v>
       </c>
       <c r="K155" t="n">
-        <v>3811</v>
+        <v>4701</v>
       </c>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr">
@@ -9233,13 +9235,13 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="O155" t="n">
-        <v>747835</v>
+        <v>409959</v>
       </c>
       <c r="P155" t="n">
-        <v>-7601530</v>
+        <v>-8782537</v>
       </c>
     </row>
     <row r="156">
@@ -9250,16 +9252,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>INFINIX</t>
+          <t>LAND ROVER</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Hot 11 4/128GB Blue Global Version</t>
+          <t>T3 Black</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>4149</v>
+        <v>1149</v>
       </c>
       <c r="E156" t="n">
         <v>9</v>
@@ -9270,17 +9272,17 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>-11.7%</t>
+          <t>-8.7%</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>127.03</v>
+        <v>34</v>
       </c>
       <c r="J156" t="n">
-        <v>4701</v>
+        <v>1258</v>
       </c>
       <c r="K156" t="n">
-        <v>4701</v>
+        <v>1258</v>
       </c>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
@@ -9289,13 +9291,15 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>69</v>
-      </c>
-      <c r="O156" t="n">
-        <v>409959</v>
+        <v>7</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>6009b371fc0d3022243dde9c</t>
+        </is>
       </c>
       <c r="P156" t="n">
-        <v>-8782537</v>
+        <v>-6002172</v>
       </c>
     </row>
     <row r="157">
@@ -9306,16 +9310,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LAND ROVER</t>
+          <t>MAXCOM</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>T3 Black</t>
+          <t>Classic MM142 Gray</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1199</v>
+        <v>689</v>
       </c>
       <c r="E157" t="n">
         <v>9</v>
@@ -9326,34 +9330,34 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>15.8%</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>34</v>
+        <v>15.78</v>
       </c>
       <c r="J157" t="n">
-        <v>1258</v>
+        <v>595</v>
       </c>
       <c r="K157" t="n">
-        <v>1258</v>
+        <v>595</v>
       </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>6009b371fc0d3022243dde9c</t>
+          <t>00-00039645</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>-6002172</v>
+        <v>3243072</v>
       </c>
     </row>
     <row r="158">
@@ -9364,16 +9368,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MAXCOM</t>
+          <t>NOKIA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Classic MM142 Gray</t>
+          <t>105 Dual Sim 2019 Pink</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>689</v>
+        <v>849</v>
       </c>
       <c r="E158" t="n">
         <v>9</v>
@@ -9384,17 +9388,17 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>15.8%</t>
+          <t>12.4%</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>15.78</v>
+        <v>20.41</v>
       </c>
       <c r="J158" t="n">
-        <v>595</v>
+        <v>756</v>
       </c>
       <c r="K158" t="n">
-        <v>595</v>
+        <v>756</v>
       </c>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
@@ -9403,15 +9407,13 @@
         </is>
       </c>
       <c r="N158" t="n">
-        <v>15</v>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>00-00039645</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="O158" t="n">
+        <v>118861</v>
       </c>
       <c r="P158" t="n">
-        <v>3243072</v>
+        <v>3551676</v>
       </c>
     </row>
     <row r="159">
@@ -9427,11 +9429,11 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>105 Dual Sim 2019 Pink</t>
+          <t>105 Dual Sim 2023 Red</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>849</v>
+        <v>929</v>
       </c>
       <c r="E159" t="n">
         <v>9</v>
@@ -9442,17 +9444,17 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>12.4%</t>
+          <t>17.6%</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>20.41</v>
+        <v>21.34</v>
       </c>
       <c r="J159" t="n">
-        <v>756</v>
+        <v>790</v>
       </c>
       <c r="K159" t="n">
-        <v>756</v>
+        <v>790</v>
       </c>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
@@ -9461,13 +9463,13 @@
         </is>
       </c>
       <c r="N159" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O159" t="n">
-        <v>118861</v>
+        <v>464897</v>
       </c>
       <c r="P159" t="n">
-        <v>3551676</v>
+        <v>10295775</v>
       </c>
     </row>
     <row r="160">
@@ -9483,11 +9485,11 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>105 Dual Sim 2023 Red</t>
+          <t>105 Single Sim 2019 Black (без зарядного пристрою)</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>929</v>
+        <v>579</v>
       </c>
       <c r="E160" t="n">
         <v>9</v>
@@ -9498,17 +9500,17 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>17.6%</t>
+          <t>9.0%</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>21.34</v>
+        <v>14.08</v>
       </c>
       <c r="J160" t="n">
-        <v>790</v>
+        <v>531</v>
       </c>
       <c r="K160" t="n">
-        <v>790</v>
+        <v>531</v>
       </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
@@ -9517,13 +9519,13 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O160" t="n">
-        <v>464897</v>
+        <v>145721</v>
       </c>
       <c r="P160" t="n">
-        <v>10295775</v>
+        <v>5543424</v>
       </c>
     </row>
     <row r="161">
@@ -9573,7 +9575,7 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -9631,7 +9633,7 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O162" t="n">
         <v>6872881</v>
@@ -9657,7 +9659,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>14999</v>
+        <v>14899</v>
       </c>
       <c r="E163" t="n">
         <v>9</v>
@@ -9668,7 +9670,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="I163" t="n">
@@ -9687,7 +9689,7 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -9745,7 +9747,7 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O164" t="n">
         <v>79230</v>
@@ -9771,10 +9773,10 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>11405</v>
+        <v>10699</v>
       </c>
       <c r="E165" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
@@ -9782,7 +9784,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>7.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="I165" t="n">
@@ -9801,7 +9803,7 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O165" t="n">
         <v>743646</v>
@@ -9827,7 +9829,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>9749</v>
+        <v>9599</v>
       </c>
       <c r="E166" t="n">
         <v>9</v>
@@ -9838,7 +9840,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>-19.4%</t>
+          <t>-20.6%</t>
         </is>
       </c>
       <c r="I166" t="n">
@@ -9857,7 +9859,7 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -9876,19 +9878,19 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>SIGMA MOBILE</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE SM-G780G 6/128GB Cloud White Global Open Box</t>
+          <t>X-Style 31 Power Type-C Black</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>12943</v>
+        <v>849</v>
       </c>
       <c r="E167" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
@@ -9896,34 +9898,34 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>310</v>
+        <v>22.02</v>
       </c>
       <c r="J167" t="n">
-        <v>11842</v>
+        <v>831</v>
       </c>
       <c r="K167" t="n">
-        <v>11842</v>
+        <v>831</v>
       </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>STH0010052</t>
+          <t>ТЛГ057350</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>-8821051</v>
+        <v>9622881</v>
       </c>
     </row>
     <row r="168">
@@ -9939,11 +9941,11 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Comfort 50 Hit 2020 Red</t>
+          <t>X-style 31 Power TYPE-C Purple</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>579</v>
+        <v>849</v>
       </c>
       <c r="E168" t="n">
         <v>9</v>
@@ -9954,17 +9956,17 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>15.56</v>
+        <v>22.43</v>
       </c>
       <c r="J168" t="n">
-        <v>576</v>
+        <v>846</v>
       </c>
       <c r="K168" t="n">
-        <v>576</v>
+        <v>846</v>
       </c>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr">
@@ -9973,13 +9975,13 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="O168" t="n">
-        <v>169001</v>
+        <v>448250</v>
       </c>
       <c r="P168" t="n">
-        <v>7172387</v>
+        <v>9532108</v>
       </c>
     </row>
     <row r="169">
@@ -9995,14 +9997,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>X-Style 31 Power Type-C Black</t>
+          <t>X-style 31 Power Type-C Grey</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>975</v>
+        <v>849</v>
       </c>
       <c r="E169" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
@@ -10010,17 +10012,17 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>17.4%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>22.02</v>
+        <v>22.12</v>
       </c>
       <c r="J169" t="n">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="K169" t="n">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
@@ -10029,15 +10031,15 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>ТЛГ057350</t>
+          <t>U0760879</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>9622881</v>
+        <v>9529055</v>
       </c>
     </row>
     <row r="170">
@@ -10048,19 +10050,19 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SIGMA MOBILE</t>
+          <t>TECNO</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>X-style 31 Power TYPE-C Purple</t>
+          <t>Spark 8C KG5j 2/64GB Diamond Grey (4895180777677)</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>988</v>
+        <v>2999</v>
       </c>
       <c r="E170" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
@@ -10068,32 +10070,32 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>16.8%</t>
+          <t>-12.9%</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>22.43</v>
+        <v>93</v>
       </c>
       <c r="J170" t="n">
-        <v>846</v>
+        <v>3441</v>
       </c>
       <c r="K170" t="n">
-        <v>846</v>
+        <v>3441</v>
       </c>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="O170" t="n">
-        <v>448250</v>
+        <v>4895180777677</v>
       </c>
       <c r="P170" t="n">
-        <v>9532108</v>
+        <v>-9150395</v>
       </c>
     </row>
     <row r="171">
@@ -10104,19 +10106,19 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SIGMA MOBILE</t>
+          <t>UMIDIGI</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>X-style 31 Power Type-C Grey</t>
+          <t>A11 3/64Gb Grey</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>975</v>
+        <v>3299</v>
       </c>
       <c r="E171" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
@@ -10124,17 +10126,17 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>16.9%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>22.12</v>
+        <v>84</v>
       </c>
       <c r="J171" t="n">
-        <v>834</v>
+        <v>3167</v>
       </c>
       <c r="K171" t="n">
-        <v>834</v>
+        <v>3167</v>
       </c>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
@@ -10143,15 +10145,13 @@
         </is>
       </c>
       <c r="N171" t="n">
-        <v>15</v>
-      </c>
-      <c r="O171" t="inlineStr">
-        <is>
-          <t>U0760879</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>747654</v>
       </c>
       <c r="P171" t="n">
-        <v>9529055</v>
+        <v>7148373</v>
       </c>
     </row>
     <row r="172">
@@ -10162,16 +10162,16 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TECNO</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Spark 8C KG5j 2/64GB Diamond Grey (4895180777677)</t>
+          <t>Redmi 10C 4/128GB Ocean Blue</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>3099</v>
+        <v>5799</v>
       </c>
       <c r="E172" t="n">
         <v>9</v>
@@ -10182,32 +10182,34 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>-9.9%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>93</v>
+        <v>135.81</v>
       </c>
       <c r="J172" t="n">
-        <v>3441</v>
+        <v>5121</v>
       </c>
       <c r="K172" t="n">
-        <v>3441</v>
+        <v>5121</v>
       </c>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>63</v>
-      </c>
-      <c r="O172" t="n">
-        <v>4895180777677</v>
+        <v>6</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>ТЛГ056420</t>
+        </is>
       </c>
       <c r="P172" t="n">
-        <v>-9150395</v>
+        <v>8706237</v>
       </c>
     </row>
     <row r="173">
@@ -10223,11 +10225,11 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Redmi 10C 4/128GB Ocean Blue</t>
+          <t>Redmi Note 10 5G 4/64GB Blue NFC Global Version</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>5799</v>
+        <v>5449</v>
       </c>
       <c r="E173" t="n">
         <v>9</v>
@@ -10238,17 +10240,17 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>13.3%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>135.81</v>
+        <v>142</v>
       </c>
       <c r="J173" t="n">
-        <v>5121</v>
+        <v>5254</v>
       </c>
       <c r="K173" t="n">
-        <v>5121</v>
+        <v>5254</v>
       </c>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr">
@@ -10257,70 +10259,12 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3</v>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>ТЛГ056420</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="O173" t="n">
+        <v>747544</v>
       </c>
       <c r="P173" t="n">
-        <v>8706237</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>XIAOMI</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Redmi Note 10 5G 4/64GB Blue NFC Global Version</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>5449</v>
-      </c>
-      <c r="E174" t="n">
-        <v>9</v>
-      </c>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="n">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="I174" t="n">
-        <v>142</v>
-      </c>
-      <c r="J174" t="n">
-        <v>5254</v>
-      </c>
-      <c r="K174" t="n">
-        <v>5254</v>
-      </c>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="N174" t="n">
-        <v>28</v>
-      </c>
-      <c r="O174" t="n">
-        <v>747544</v>
-      </c>
-      <c r="P174" t="n">
         <v>6889368</v>
       </c>
     </row>
@@ -10834,7 +10778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10917,21 +10861,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Видео адаптеры</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOCO</t>
+          <t>AFOX</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EW29 White</t>
+          <t>GT 610 (AF610-2048D3L7-V5)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>499</v>
+        <v>1589</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -10939,14 +10883,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>11.55</v>
+        <v>42</v>
       </c>
       <c r="I2" t="n">
-        <v>436</v>
+        <v>1584</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
@@ -10955,13 +10899,321 @@
         </is>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>AF610-2048D3L7-V5</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>8425795</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Жесткие диски SSD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>970 EVO Plus 250GB M.2 PCIe 3.0 (MZ-V7S250BW)</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1259</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>28.4%</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>26</v>
+      </c>
+      <c r="I3" t="n">
+        <v>981</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ФОТ60</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>MZ-V7S250BW</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>3099631</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Клавиатуры</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DARK PROJECT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Клавиатура игровая KD87A (DPO-KD-87A-400300-GMT) gray/purple</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1649</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>43.07</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1624</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ФотУц</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>7076671|0e4795f9-b427-11ed-90f9-b4a9fc43a3f9</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>-9774357</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Наушники</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HOCO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EW29 White</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>499</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>14.6%</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>436</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Фот</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M5" t="n">
         <v>24602</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N5" t="n">
         <v>10660638</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Наушники</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PROMATE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Panda Bubblegum (panda.bubblegum)</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1449</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>18.4%</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1225</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Фот</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>6468271|168605e7-5f07-11ec-90f8-b4a9fc43a3f9</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>8741538</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Телефоны мобильные</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NOKIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>105 Single Sim 2019 Black (без зарядного пристрою)</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>579</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9.0%</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="I7" t="n">
+        <v>531</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Фот</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>145721</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5543424</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Телефоны мобильные</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UMIDIGI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A11 3/64Gb Grey</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3299</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>84</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3167</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Фот</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>747654</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7148373</v>
       </c>
     </row>
   </sheetData>
@@ -10975,7 +11227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11058,21 +11310,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Жесткие диски SSD</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HEWLETT PACKARD</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S700 250GB 2.5 SATA III (2DP98AA)</t>
+          <t>Мишка Defender Accura MM-295, бездротова,6 кн. до 1600 dpi, чорна (52295)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>607</v>
+        <v>185</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -11080,14 +11332,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16.3</v>
+        <v>4.8</v>
       </c>
       <c r="I2" t="n">
-        <v>604</v>
+        <v>178</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
@@ -11096,881 +11348,13 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>44</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2DP98AA#ABB</t>
-        </is>
+        <v>63</v>
+      </c>
+      <c r="M2" t="n">
+        <v>207633</v>
       </c>
       <c r="N2" t="n">
-        <v>6902289</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Игровые манипуляторы</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GAMEPRO</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MG111 Black</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>135</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="I3" t="n">
-        <v>135</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>17</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6578224</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6540545</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Корпуса</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GAMEMAX</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pardo Black </t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1700</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>9.0%</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>40.26</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1561</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>148</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2973145</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2783798</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Мыши</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DEFENDER</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Point MM-756 Black (52756)</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>104</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>22.0%</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I5" t="n">
-        <v>86</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>18</v>
-      </c>
-      <c r="M5" t="n">
-        <v>620102</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4085857</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Мыши</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GEMBIRD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Мышка Gembird MUS-6B-02 USB Black (MUS-6B-02)</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>212</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>204</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>30</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>U0720798</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>10063053</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Мыши</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GENIUS</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Мышь Genius NX-8006 Silent WL Black (31030024400)</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>250</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>14.1%</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="I7" t="n">
-        <v>220</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>15</v>
-      </c>
-      <c r="M7" t="n">
-        <v>31030024400</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8736599</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Мыши</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MSI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Clutch GM41 Lightweight Wireless V2 (S12-0400D20-C54)</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1215</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-29.9%</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1733</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>142</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>S12-0400D20-C54</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>8517305</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Мыши</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TRUST</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Mydo Silent Click Wireless Mouse Red (21871)</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>202</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-17.6%</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>245</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>35</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6378232</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2810008</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Мыши - коврики</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>LOGITECH</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>LOGITECH G840 XL Gaming Mouse Pad-LOL-KDA2.0-EER2-#933 (L943-000457)</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1823</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-11.1%</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>55.14</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2052</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>87</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>L943-000457</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>7515973</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Наушники</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PROMATE</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Наушники Terra red (terra.maroon)</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>810</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-10.0%</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="I11" t="n">
-        <v>900</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>234</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>6468257|10781dd4-5f07-11ec-90f8-b4a9fc43a3f9</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>9099706</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Планшетные ПК</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>XIAOMI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Redmi Pad 3/64GB Mint Green</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>7455</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>16.5%</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>173</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6401</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>17</v>
-      </c>
-      <c r="M12" t="n">
-        <v>954472</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9166825</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Процессоры</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Pro A8-8670E (AD867BAHM44AB)</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>901</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-22.3%</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>29</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1160</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>179</v>
-      </c>
-      <c r="M13" t="n">
-        <v>383083</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8143539</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CUBOT</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>J10 1/32GB Green</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>48</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1810</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>16</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>STH0010228</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>8477076</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Galaxy Note 10 N970U Single Sim US Snapdragon 10/256GB Black</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>11405</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>7.4%</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>287</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10619</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>17</v>
-      </c>
-      <c r="M15" t="n">
-        <v>743646</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4143358</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Galaxy S20 FE SM-G780G 6/128GB Cloud White Global Open Box</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>12943</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>9.3%</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>310</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11842</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ФотУц</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>2</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>STH0010052</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>-8821051</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SIGMA MOBILE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>X-Style 31 Power Type-C Black</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>975</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>17.4%</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="I17" t="n">
-        <v>831</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>11</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>ТЛГ057350</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>9622881</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SIGMA MOBILE</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>X-style 31 Power TYPE-C Purple</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>988</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>16.8%</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="I18" t="n">
-        <v>846</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>448250</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9532108</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SIGMA MOBILE</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>X-style 31 Power Type-C Grey</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>975</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>16.9%</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="I19" t="n">
-        <v>834</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>15</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>U0760879</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>9529055</v>
+        <v>2823917</v>
       </c>
     </row>
   </sheetData>

--- a/files/результат.xlsx
+++ b/files/результат.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P134"/>
+  <dimension ref="A1:P127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -546,7 +546,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-10.4%</t>
+          <t>-21.5%</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,7 +604,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-11.3%</t>
+          <t>-29.9%</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -651,18 +651,18 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -672,7 +672,7 @@
         <v>76</v>
       </c>
       <c r="K4" t="n">
-        <v>4180</v>
+        <v>4104</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2549</v>
+        <v>2499</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -720,7 +720,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-8.2%</t>
+          <t>-10.0%</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O5" t="n">
         <v>432291</v>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O6" t="n">
         <v>48612</v>
@@ -807,21 +807,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Блоки питания для ПК</t>
+          <t>Видео адаптеры</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>AFOX</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Блок питания GIGABYTE P450B (650W) 80&amp;#043; Bronze (GP-P450B)</t>
+          <t>GT 240 (AF240-1024D3L2)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1499</v>
+        <v>1399</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -832,17 +832,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>40.3</v>
+        <v>38.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1520</v>
+        <v>1471</v>
       </c>
       <c r="K7" t="n">
-        <v>1520</v>
+        <v>1471</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
@@ -851,15 +851,13 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>35</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>GP-P450B</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6771854</v>
       </c>
       <c r="P7" t="n">
-        <v>7204205</v>
+        <v>8351827</v>
       </c>
     </row>
     <row r="8">
@@ -879,7 +877,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1579</v>
+        <v>1499</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -890,7 +888,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-5.3%</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -909,7 +907,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -923,21 +921,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Видео адаптеры</t>
+          <t>Жесткие диски - карманы</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PNY</t>
+          <t>GRAND-X</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GeForce GTX 1660 Ti XLR8 (VCG1660T6SFPPB-O)</t>
+          <t>HDE21</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7249</v>
+        <v>179</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -948,52 +946,54 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-71.0%</t>
+          <t>-6.3%</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>675.3200000000001</v>
+        <v>5.16</v>
       </c>
       <c r="J9" t="n">
-        <v>24987</v>
+        <v>191</v>
       </c>
       <c r="K9" t="n">
-        <v>24987</v>
+        <v>191</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>69</v>
-      </c>
-      <c r="O9" t="n">
-        <v>17050086</v>
+        <v>53</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>U0100199</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>-4682109</v>
+        <v>1287887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Жесткие диски - карманы</t>
+          <t>Жесткие диски SSD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GEMBIRD</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MF-95-02</t>
+          <t>LEGEND 710 2TB M.2 PCIe 3.0 (ALEG-710-2TCS)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>179</v>
+        <v>3099</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1004,17 +1004,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>78.8</v>
       </c>
       <c r="J10" t="n">
-        <v>166</v>
+        <v>3011</v>
       </c>
       <c r="K10" t="n">
-        <v>166</v>
+        <v>3011</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
@@ -1025,33 +1025,31 @@
       <c r="N10" t="n">
         <v>7</v>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0307002</t>
-        </is>
+      <c r="O10" t="n">
+        <v>1390703</v>
       </c>
       <c r="P10" t="n">
-        <v>1763548</v>
+        <v>9712749</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Жесткие диски - карманы</t>
+          <t>Жесткие диски SSD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GRAND-X</t>
+          <t>CRUCIAL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HDE21</t>
+          <t>BX500 500GB 2.5 SATA III (CT500BX500SSD1)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>189</v>
+        <v>949</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1062,17 +1060,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5.16</v>
+        <v>25.02</v>
       </c>
       <c r="J11" t="n">
-        <v>191</v>
+        <v>949</v>
       </c>
       <c r="K11" t="n">
-        <v>191</v>
+        <v>949</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
@@ -1081,15 +1079,15 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>U0100199</t>
+          <t>U0666404</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1287887</v>
+        <v>9077313</v>
       </c>
     </row>
     <row r="12">
@@ -1100,52 +1098,58 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>KINGSTON</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LEGEND 710 2TB M.2 PCIe 3.0 (ALEG-710-2TCS)</t>
+          <t>A400 960GB 2.5 SATA III (SA400S37/960G)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3129</v>
+        <v>1539</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Строгач</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>78.8</v>
+        <v>39</v>
       </c>
       <c r="J12" t="n">
-        <v>3011</v>
+        <v>1482</v>
       </c>
       <c r="K12" t="n">
-        <v>3011</v>
+        <v>45942</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1390703</v>
+        <v>16</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>SA400S37/960G</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>9712749</v>
+        <v>2662168</v>
       </c>
     </row>
     <row r="13">
@@ -1161,32 +1165,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A400 240GB 2.5 SATA III (SA400S37/240G)</t>
+          <t>KC3000 1TB M.2 PCIe 4.0 (SKC3000S/1024G)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>659</v>
+        <v>2739</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Строгач</t>
+        </is>
+      </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12.7%</t>
+          <t>-3.1%</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>15.3</v>
+        <v>74</v>
       </c>
       <c r="J13" t="n">
-        <v>585</v>
+        <v>2827</v>
       </c>
       <c r="K13" t="n">
-        <v>585</v>
+        <v>2827</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
@@ -1195,11 +1203,13 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>378364</v>
+      </c>
       <c r="P13" t="n">
-        <v>2231016</v>
+        <v>7948150</v>
       </c>
     </row>
     <row r="14">
@@ -1215,11 +1225,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A400 960GB 2.5 SATA III (SA400S37/960G)</t>
+          <t>XS2000 1TB USB 3.2 Gen 2x2 Type-C (SXS2000/1000G)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1569</v>
+        <v>3129</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1230,21 +1240,21 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>78.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1482</v>
+        <v>2983</v>
       </c>
       <c r="K14" t="n">
-        <v>68172</v>
+        <v>20881</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
@@ -1253,15 +1263,13 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>12</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>SA400S37/960G</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="O14" t="n">
+        <v>372922</v>
       </c>
       <c r="P14" t="n">
-        <v>2662168</v>
+        <v>7494920</v>
       </c>
     </row>
     <row r="15">
@@ -1272,16 +1280,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>KINGSTON FURY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>KC3000 1TB M.2 PCIe 4.0 (SKC3000S/1024G)</t>
+          <t>Renegade 1TB M.2 PCIe 4.0 (SFYRS/1000G)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2749</v>
+        <v>2999</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1292,21 +1300,21 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J15" t="n">
-        <v>2790</v>
+        <v>2849</v>
       </c>
       <c r="K15" t="n">
-        <v>2790</v>
+        <v>5698</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
@@ -1315,215 +1323,203 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="O15" t="n">
-        <v>378364</v>
+        <v>378355</v>
       </c>
       <c r="P15" t="n">
-        <v>7948150</v>
+        <v>7948148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Жесткие диски SSD</t>
+          <t>Звуковые карты</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>UGREEN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NV2 1TB M.2 PCIe 4.0 (SNV2S/1000G)</t>
+          <t>USB AUX jack, TRS(Mic + Ear) ALC4042 Black US205 (30724)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1589</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Строгач</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-23.6%</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1586</v>
+        <v>38</v>
       </c>
       <c r="K16" t="n">
-        <v>47580</v>
+        <v>38</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>FuaCM</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>25</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>SNV2S/1000G</t>
-        </is>
+        <v>139</v>
+      </c>
+      <c r="O16" t="n">
+        <v>820035</v>
       </c>
       <c r="P16" t="n">
-        <v>9134218</v>
+        <v>8568970</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Жесткие диски SSD</t>
+          <t>Игровые манипуляторы</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>GAMEPRO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>XS2000 1TB USB 3.2 Gen 2x2 Type-C (SXS2000/1000G)</t>
+          <t>MG111 Black</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3139</v>
+        <v>89</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Строгач</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>-34.3%</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>78.5</v>
+        <v>3.58</v>
       </c>
       <c r="J17" t="n">
-        <v>2983</v>
+        <v>135</v>
       </c>
       <c r="K17" t="n">
-        <v>35796</v>
+        <v>135</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="O17" t="n">
-        <v>372922</v>
+        <v>6578224</v>
       </c>
       <c r="P17" t="n">
-        <v>7494920</v>
+        <v>6540545</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Жесткие диски SSD</t>
+          <t>Игровые манипуляторы</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KINGSTON FURY</t>
+          <t>IPEGA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Renegade 1TB M.2 PCIe 4.0 (SFYRS/1000G)</t>
+          <t>iPega PG-9156 Batman 3 in 1 Bluetooth PC/Android/iOS Black (SGWGCP9156)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2939</v>
+        <v>999</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Строгач</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>77</v>
+        <v>25.3</v>
       </c>
       <c r="J18" t="n">
-        <v>2849</v>
+        <v>954</v>
       </c>
       <c r="K18" t="n">
-        <v>8547</v>
+        <v>954</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>32</v>
-      </c>
-      <c r="O18" t="n">
-        <v>378355</v>
+        <v>11</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>PG-9156</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>7948148</v>
+        <v>7691607</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Жесткие диски SSD</t>
+          <t>Клавиатуры</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LEXAR</t>
+          <t>A-4 TECH</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NS100 256GB 2.5 SATA III (LNS100-256RB)</t>
+          <t>B760 Bloody Black Green Switches</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>509</v>
+        <v>1449</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1534,17 +1530,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-13.5%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>15.89</v>
+        <v>38.19</v>
       </c>
       <c r="J19" t="n">
-        <v>588</v>
+        <v>1414</v>
       </c>
       <c r="K19" t="n">
-        <v>588</v>
+        <v>1414</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
@@ -1553,91 +1549,89 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>55</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>LNS100-256RB</t>
-        </is>
+        <v>85</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1604693</v>
       </c>
       <c r="P19" t="n">
-        <v>7183425</v>
+        <v>5433267</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Звуковые карты</t>
+          <t>Клавиатуры</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UGREEN</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>USB AUX jack, TRS(Mic + Ear) ALC4042 Black US205 (30724)</t>
+          <t>Element HB-195 UA Black (45189)</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>56.0%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="J20" t="n">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>237</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>FuaCM</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="O20" t="n">
-        <v>820035</v>
+        <v>824394</v>
       </c>
       <c r="P20" t="n">
-        <v>8568970</v>
+        <v>8533394</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Игровые манипуляторы</t>
+          <t>Клавиатуры</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GAMEPRO</t>
+          <t>ERGO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MG111 Black</t>
+          <t>KB-510 Keyboard ENG/RUS/UKR Black (KB-510)</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>89</v>
+        <v>319</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1648,52 +1642,52 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-34.3%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3.58</v>
+        <v>8.41</v>
       </c>
       <c r="J21" t="n">
-        <v>135</v>
+        <v>322</v>
       </c>
       <c r="K21" t="n">
-        <v>135</v>
+        <v>322</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>6578224</v>
+        <v>6678966</v>
       </c>
       <c r="P21" t="n">
-        <v>6540545</v>
+        <v>8124659</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Игровые манипуляторы</t>
+          <t>Клавиатуры</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IPEGA</t>
+          <t>GEMBIRD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>iPega PG-9156 Batman 3 in 1 Bluetooth PC/Android/iOS Black (SGWGCP9156)</t>
+          <t>KBS-WM-03-UA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>999</v>
+        <v>379</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1704,17 +1698,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>25.3</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>954</v>
+        <v>368</v>
       </c>
       <c r="K22" t="n">
-        <v>954</v>
+        <v>368</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
@@ -1723,15 +1717,13 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>PG-9156</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1604021</v>
       </c>
       <c r="P22" t="n">
-        <v>7691607</v>
+        <v>3340270</v>
       </c>
     </row>
     <row r="23">
@@ -1742,16 +1734,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A-4 TECH</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B760 Bloody Black Green Switches</t>
+          <t>Клавиатура Ornata V3 (RZ03-04460100-R3M1)</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1499</v>
+        <v>2949</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -1762,17 +1754,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>38.19</v>
+        <v>77.17</v>
       </c>
       <c r="J23" t="n">
-        <v>1414</v>
+        <v>2910</v>
       </c>
       <c r="K23" t="n">
-        <v>1414</v>
+        <v>2910</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
@@ -1781,13 +1773,13 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="O23" t="n">
-        <v>1604693</v>
+        <v>66172</v>
       </c>
       <c r="P23" t="n">
-        <v>5433267</v>
+        <v>9382884</v>
       </c>
     </row>
     <row r="24">
@@ -1798,16 +1790,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>VINGA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Element HB-195 UA Black (45189)</t>
+          <t>Клавиатура Vinga KBGM-110 87 key LED Blue Switch USB Black (KBGM-110 Black)</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>239</v>
+        <v>809</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -1818,17 +1810,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>6.2</v>
+        <v>21.11</v>
       </c>
       <c r="J24" t="n">
-        <v>237</v>
+        <v>807</v>
       </c>
       <c r="K24" t="n">
-        <v>237</v>
+        <v>807</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
@@ -1837,89 +1829,91 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>12</v>
-      </c>
-      <c r="O24" t="n">
-        <v>824394</v>
+        <v>16</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>U0566268</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>8533394</v>
+        <v>8494217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Клавиатуры</t>
+          <t>Компьютерные кулеры</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ERGO</t>
+          <t>COOLING BABY</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>KB-510 Keyboard ENG/RUS/UKR Black (KB-510)</t>
+          <t>7015 3PS</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>359</v>
+        <v>49</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8.41</v>
+        <v>1.14</v>
       </c>
       <c r="J25" t="n">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="K25" t="n">
-        <v>322</v>
+        <v>90</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="O25" t="n">
-        <v>6678966</v>
+        <v>45131</v>
       </c>
       <c r="P25" t="n">
-        <v>8124659</v>
+        <v>2184075</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Клавиатуры</t>
+          <t>Компьютерные кулеры</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GEMBIRD</t>
+          <t>DEEPCOOL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>KBS-WM-03-UA</t>
+          <t>GAMMAXX 300 FURY (DP-MCH3-GMX300F)</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>379</v>
+        <v>629</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -1930,110 +1924,106 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>9.609999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="J26" t="n">
-        <v>368</v>
+        <v>622</v>
       </c>
       <c r="K26" t="n">
-        <v>368</v>
+        <v>622</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="O26" t="n">
-        <v>1604021</v>
+        <v>427337</v>
       </c>
       <c r="P26" t="n">
-        <v>3340270</v>
+        <v>10031050</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Клавиатуры</t>
+          <t>Компьютерные кулеры</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>DEEPCOOL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MX Keys Advanced Wireless Illuminated Graphite (920-009417)</t>
+          <t>XFAN 80 (DP-FDC-XF80)</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3849</v>
+        <v>89</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>99.45</v>
+        <v>1.81</v>
       </c>
       <c r="J27" t="n">
-        <v>3799</v>
+        <v>69</v>
       </c>
       <c r="K27" t="n">
-        <v>3799</v>
+        <v>483</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>U0386946</t>
-        </is>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>4531972</v>
+        <v>262689</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Клавиатуры</t>
+          <t>Компьютерные кулеры</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>EKWB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Клавиатура Ornata V3 (RZ03-04460100-R3M1)</t>
+          <t>EK-Quantum Vector TUF RTX 3080 3090 Backplate-Nickel</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2999</v>
+        <v>99</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2044,330 +2034,334 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-94.1%</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>77.17</v>
+        <v>60.64</v>
       </c>
       <c r="J28" t="n">
-        <v>2910</v>
+        <v>1686</v>
       </c>
       <c r="K28" t="n">
-        <v>2910</v>
+        <v>1686</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>21</v>
+        <v>863</v>
       </c>
       <c r="O28" t="n">
-        <v>66172</v>
+        <v>3831109832639</v>
       </c>
       <c r="P28" t="n">
-        <v>9382884</v>
+        <v>-6363959</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Клавиатуры</t>
+          <t>Компьютерные кулеры</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VINGA</t>
+          <t>FRIME</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Клавиатура Vinga KBGM-110 87 key LED Blue Switch USB Black (KBGM-110 Black)</t>
+          <t>Вентилятор Frime (FF7015.40) 70x70x15мм, Black</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>829</v>
+        <v>39</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-9.1%</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>21.11</v>
+        <v>1.15</v>
       </c>
       <c r="J29" t="n">
-        <v>807</v>
+        <v>43</v>
       </c>
       <c r="K29" t="n">
-        <v>807</v>
+        <v>86</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>12</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>U0566268</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="O29" t="n">
+        <v>459285</v>
       </c>
       <c r="P29" t="n">
-        <v>8494217</v>
+        <v>10093211</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Компьютерные кулеры - аксессуары</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COOLING BABY</t>
+          <t>GEMBIRD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>7015 3PS</t>
+          <t>TG-G1.5-01</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-12.4%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="J30" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>180</v>
-      </c>
-      <c r="O30" t="n">
-        <v>45131</v>
+        <v>9</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>U0114834</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>2184075</v>
+        <v>1291737</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Компьютерные кулеры - аксессуары</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DEEPCOOL</t>
+          <t>ID-COOLING</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GAMMAXX 300 FURY (DP-MCH3-GMX300F)</t>
+          <t>Разветвитель питания вентиляторов ID-Cooling FS-04 ARGB Splitter 1-4</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>639</v>
+        <v>159</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>28.1%</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>16.8</v>
+        <v>3.2</v>
       </c>
       <c r="J31" t="n">
-        <v>622</v>
+        <v>124</v>
       </c>
       <c r="K31" t="n">
-        <v>622</v>
+        <v>248</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="O31" t="n">
-        <v>427337</v>
+        <v>444082</v>
       </c>
       <c r="P31" t="n">
-        <v>10031050</v>
+        <v>9436713</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Корпуса</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DEEPCOOL</t>
+          <t>GAMEMAX</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>XFAN 80 (DP-FDC-XF80)</t>
+          <t>Abyss-TR</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>89</v>
+        <v>3399</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>29.9%</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1.81</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>69</v>
+        <v>3569</v>
       </c>
       <c r="K32" t="n">
-        <v>483</v>
+        <v>3569</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>139</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
+        <v>136</v>
+      </c>
+      <c r="O32" t="n">
+        <v>37491</v>
+      </c>
       <c r="P32" t="n">
-        <v>262689</v>
+        <v>7513003</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Корпуса</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DEEPCOOL</t>
+          <t>GAMEMAX</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>XFan 120 (DP-FDC-XF120)</t>
+          <t xml:space="preserve">Pardo Black </t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>149</v>
+        <v>1449</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>25.8%</t>
+          <t>-7.1%</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>40.26</v>
       </c>
       <c r="J33" t="n">
-        <v>119</v>
+        <v>1561</v>
       </c>
       <c r="K33" t="n">
-        <v>238</v>
+        <v>1561</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>48</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
+        <v>169</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2973145</v>
+      </c>
       <c r="P33" t="n">
-        <v>371011</v>
+        <v>2783798</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Корпуса</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EKWB</t>
+          <t>GAMEMAX</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EK-Quantum Vector TUF RTX 3080 3090 Backplate-Nickel</t>
+          <t>ST-610G</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>299</v>
+        <v>1299</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2378,73 +2372,73 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-82.3%</t>
+          <t>-10.0%</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>60.64</v>
+        <v>38.99</v>
       </c>
       <c r="J34" t="n">
-        <v>1686</v>
+        <v>1443</v>
       </c>
       <c r="K34" t="n">
-        <v>1686</v>
+        <v>1443</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>859</v>
+        <v>86</v>
       </c>
       <c r="O34" t="n">
-        <v>3831109832639</v>
+        <v>44016</v>
       </c>
       <c r="P34" t="n">
-        <v>-6363959</v>
+        <v>7732390</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Корпуса - аксессуары</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRIME</t>
+          <t>CABLEXPERT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Вентилятор Frime (FF7015.40) 70x70x15мм, Black</t>
+          <t>USB 20-pin - Type-A 0.4m (CC-USB3-RECEPTACLE)</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-8.4%</t>
+          <t>-36.9%</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1.15</v>
+        <v>3.07</v>
       </c>
       <c r="J35" t="n">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="K35" t="n">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
@@ -2453,54 +2447,54 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="O35" t="n">
-        <v>459285</v>
+        <v>252144</v>
       </c>
       <c r="P35" t="n">
-        <v>10093211</v>
+        <v>5325742</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Материнские платы</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GAMEMAX</t>
+          <t>BIOSTAR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GMX-WFBK-WT</t>
+          <t>TZ590-BTC DUO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>89</v>
+        <v>3499</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-7.3%</t>
+          <t>-53.7%</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2.57</v>
+        <v>270</v>
       </c>
       <c r="J36" t="n">
-        <v>96</v>
+        <v>7560</v>
       </c>
       <c r="K36" t="n">
-        <v>192</v>
+        <v>7560</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -2509,33 +2503,35 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>103</v>
-      </c>
-      <c r="O36" t="n">
-        <v>3688449</v>
+        <v>492</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>TZ590-BTC_DUO</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>4463224</v>
+        <v>8199628</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Материнские платы</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TFD-4010 M 12 Z (0400097)</t>
+          <t>N4120I H</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>99</v>
+        <v>3499</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -2546,17 +2542,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-8.3%</t>
+          <t>-6.4%</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2.9</v>
+        <v>100.99</v>
       </c>
       <c r="J37" t="n">
-        <v>108</v>
+        <v>3737</v>
       </c>
       <c r="K37" t="n">
-        <v>108</v>
+        <v>3737</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
@@ -2565,35 +2561,33 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>105</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0400097</t>
-        </is>
+        <v>65</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3703020</v>
       </c>
       <c r="P37" t="n">
-        <v>9249871</v>
+        <v>10040970</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры - аксессуары</t>
+          <t>Материнские платы</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GEMBIRD</t>
+          <t>NZXT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TG-G1.5-01</t>
+          <t>N5 Z690 D4 Matte White (N5-Z69XT-W1)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>59</v>
+        <v>6799</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -2604,17 +2598,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1.12</v>
+        <v>185.03</v>
       </c>
       <c r="J38" t="n">
-        <v>43</v>
+        <v>6976</v>
       </c>
       <c r="K38" t="n">
-        <v>43</v>
+        <v>6976</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
@@ -2623,35 +2617,35 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>U0114834</t>
+          <t>N5-Z69XT-W1</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1291737</v>
+        <v>10216528</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры - аксессуары</t>
+          <t>Микрофоны</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ID-COOLING</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Разветвитель питания вентиляторов ID-Cooling FS-04 ARGB Splitter 1-4</t>
+          <t>Микрофоны JBL Wireless MIC for PartyBox On-The-Go/310/1000 (JBLWIRELESSMIC)</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>129</v>
+        <v>3899</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -2662,17 +2656,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>22.2%</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3.2</v>
+        <v>83.53</v>
       </c>
       <c r="J39" t="n">
-        <v>124</v>
+        <v>3191</v>
       </c>
       <c r="K39" t="n">
-        <v>248</v>
+        <v>6382</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
@@ -2681,33 +2675,35 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>157</v>
-      </c>
-      <c r="O39" t="n">
-        <v>444082</v>
+        <v>3</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>JBLWIRELESSMIC</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>9436713</v>
+        <v>6078717</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Корпуса</t>
+          <t>Микрофоны</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GAMEMAX</t>
+          <t>SENNHEISER</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Abyss-TR</t>
+          <t>E 609</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3449</v>
+        <v>2449</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -2718,17 +2714,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>-36.4%</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>94.65000000000001</v>
+        <v>146.19</v>
       </c>
       <c r="J40" t="n">
-        <v>3569</v>
+        <v>3853</v>
       </c>
       <c r="K40" t="n">
-        <v>3569</v>
+        <v>3853</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
@@ -2737,33 +2733,33 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>132</v>
+        <v>668</v>
       </c>
       <c r="O40" t="n">
-        <v>37491</v>
+        <v>4522</v>
       </c>
       <c r="P40" t="n">
-        <v>7513003</v>
+        <v>6599676</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Корпуса</t>
+          <t>Микрофоны</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GAMEMAX</t>
+          <t>SENNHEISER</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pardo Black </t>
+          <t>MD 431-II</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1499</v>
+        <v>7499</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -2774,17 +2770,17 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>-38.6%</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>40.26</v>
+        <v>447.85</v>
       </c>
       <c r="J41" t="n">
-        <v>1561</v>
+        <v>12204</v>
       </c>
       <c r="K41" t="n">
-        <v>1561</v>
+        <v>12204</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
@@ -2793,33 +2789,35 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>165</v>
-      </c>
-      <c r="O41" t="n">
-        <v>2973145</v>
+        <v>798</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>MD 431-II</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>2783798</v>
+        <v>3235478</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Корпуса</t>
+          <t>Модули памяти</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GAMEMAX</t>
+          <t>G.SKILL</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ST-610G</t>
+          <t>SODIMM 16G DDR4 2666MHz G.SKILL Ripjaws 1.2V CL19 (box) (F4-2666C19S-16GRS)</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1299</v>
+        <v>979</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -2830,17 +2828,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-10.0%</t>
+          <t>-17.3%</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>38.99</v>
+        <v>32</v>
       </c>
       <c r="J42" t="n">
-        <v>1443</v>
+        <v>1184</v>
       </c>
       <c r="K42" t="n">
-        <v>1443</v>
+        <v>1184</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
@@ -2849,91 +2847,93 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>82</v>
-      </c>
-      <c r="O42" t="n">
-        <v>44016</v>
+        <v>87</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>F4-2666C19S-16GRS</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>7732390</v>
+        <v>7258586</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Корпуса</t>
+          <t>Модули памяти</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>VINGA</t>
+          <t>G.SKILL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pillar Black Radiation</t>
+          <t>SODIMM DDR3L 8GB, 1866MHz, PC3-15000, Ripjaws (F3-1866C11S-8GRSL)</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1999</v>
+        <v>569</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-31.6%</t>
+          <t>-9.6%</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="J43" t="n">
-        <v>2923</v>
+        <v>629</v>
       </c>
       <c r="K43" t="n">
-        <v>2923</v>
+        <v>1258</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>U0747285</t>
+          <t>U0103402</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>-9577112</v>
+        <v>1857277</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Корпуса - аксессуары</t>
+          <t>Модули памяти</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CABLEXPERT</t>
+          <t>GOLDEN MEMORY</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>USB 20-pin - Type-A 0.4m (CC-USB3-RECEPTACLE)</t>
+          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GM16S11/8)</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>89</v>
+        <v>439</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -2944,17 +2944,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-29.1%</t>
+          <t>-8.8%</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3.07</v>
+        <v>13</v>
       </c>
       <c r="J44" t="n">
-        <v>125</v>
+        <v>481</v>
       </c>
       <c r="K44" t="n">
-        <v>125</v>
+        <v>481</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
@@ -2963,54 +2963,56 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>237</v>
-      </c>
-      <c r="O44" t="n">
-        <v>252144</v>
+        <v>42</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>U0275940</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>5325742</v>
+        <v>2630535</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Материнские платы</t>
+          <t>Модули памяти</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIOSTAR</t>
+          <t>GOODRAM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TZ590-BTC DUO</t>
+          <t>DDR4 8GB, 2400MHz, PC4-19200 (GR2400D464L17S/8G)</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3999</v>
+        <v>549</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-47.1%</t>
+          <t>-13.8%</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>270</v>
+        <v>17.2</v>
       </c>
       <c r="J45" t="n">
-        <v>7560</v>
+        <v>637</v>
       </c>
       <c r="K45" t="n">
-        <v>7560</v>
+        <v>1274</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
@@ -3019,35 +3021,33 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>488</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>TZ590-BTC_DUO</t>
-        </is>
+        <v>81</v>
+      </c>
+      <c r="O45" t="n">
+        <v>6329811</v>
       </c>
       <c r="P45" t="n">
-        <v>8199628</v>
+        <v>2124692</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Материнские платы</t>
+          <t>Модули памяти</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>GOODRAM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>N4120I H</t>
+          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GR1600S364L11/8G)</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3699</v>
+        <v>519</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3058,17 +3058,17 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>-18.1%</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>100.99</v>
+        <v>16.8</v>
       </c>
       <c r="J46" t="n">
-        <v>3737</v>
+        <v>634</v>
       </c>
       <c r="K46" t="n">
-        <v>3737</v>
+        <v>634</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
@@ -3077,33 +3077,31 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>61</v>
-      </c>
-      <c r="O46" t="n">
-        <v>3703020</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>10040970</v>
+        <v>542951</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Материнские платы</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>GOLON</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>RX-X8BT Black</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11849</v>
+        <v>239</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3114,52 +3112,54 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-41.7%</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>314.06</v>
+        <v>10.37</v>
       </c>
       <c r="J47" t="n">
-        <v>11841</v>
+        <v>410</v>
       </c>
       <c r="K47" t="n">
-        <v>11841</v>
+        <v>410</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>7</v>
-      </c>
-      <c r="O47" t="n">
-        <v>3702223</v>
+        <v>276</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>606ba31258e1d3016e42cbfd</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>9387866</v>
+        <v>7262515</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Материнские платы</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NZXT</t>
+          <t>HARMAN-KARDON</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>N5 Z690 D4 Matte White (N5-Z69XT-W1)</t>
+          <t>Citation 300 MKII Gray (HKCITATION300GRYEU)</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6999</v>
+        <v>12499</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3170,17 +3170,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-2.0%</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>185.03</v>
+        <v>326.92</v>
       </c>
       <c r="J48" t="n">
-        <v>6976</v>
+        <v>12750</v>
       </c>
       <c r="K48" t="n">
-        <v>6976</v>
+        <v>12750</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
@@ -3189,35 +3189,35 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>N5-Z69XT-W1</t>
+          <t>HKCITATION300GRYEU</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>10216528</v>
+        <v>4307073</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Микрофоны</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SENNHEISER</t>
+          <t>IDANCE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>E 609</t>
+          <t>Beat Dude Mini 5W Фиолетовая (IBDM-100-PURPLE)</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2449</v>
+        <v>129</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3228,17 +3228,17 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-36.4%</t>
+          <t>-46.2%</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>146.19</v>
+        <v>8.73</v>
       </c>
       <c r="J49" t="n">
-        <v>3853</v>
+        <v>240</v>
       </c>
       <c r="K49" t="n">
-        <v>3853</v>
+        <v>240</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -3247,33 +3247,33 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>664</v>
+        <v>604</v>
       </c>
       <c r="O49" t="n">
-        <v>4522</v>
+        <v>155764</v>
       </c>
       <c r="P49" t="n">
-        <v>6599676</v>
+        <v>3299547</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Микрофоны</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SENNHEISER</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MD 431-II</t>
+          <t>Clip 4 Eco White (JBLCLIP4ECOWHT)</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>7899</v>
+        <v>2499</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3284,17 +3284,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-35.3%</t>
+          <t>34.3%</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>447.85</v>
+        <v>50</v>
       </c>
       <c r="J50" t="n">
-        <v>12204</v>
+        <v>1861</v>
       </c>
       <c r="K50" t="n">
-        <v>12204</v>
+        <v>1861</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
@@ -3303,35 +3303,35 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>794</v>
+        <v>115</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>MD 431-II</t>
+          <t>JBLCLIP4ECOWHT</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3235478</v>
+        <v>9760781</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>G.SKILL</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SODIMM 16G DDR4 2666MHz G.SKILL Ripjaws 1.2V CL19 (box) (F4-2666C19S-16GRS)</t>
+          <t>Flip Essential 2 (JBLFLIPES2)</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>999</v>
+        <v>3499</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -3342,17 +3342,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-15.6%</t>
+          <t>13.7%</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>32</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>1184</v>
+        <v>3078</v>
       </c>
       <c r="K51" t="n">
-        <v>1184</v>
+        <v>3078</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
@@ -3361,56 +3361,54 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>83</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>F4-2666C19S-16GRS</t>
-        </is>
+        <v>115</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1384165</v>
       </c>
       <c r="P51" t="n">
-        <v>7258586</v>
+        <v>9151222</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>G.SKILL</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SODIMM DDR3L 8GB, 1866MHz, PC3-15000, Ripjaws (F3-1866C11S-8GRSL)</t>
+          <t>Go 3 Red (JBLGO3RED)</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>579</v>
+        <v>1499</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-8.0%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>17</v>
+        <v>38.25</v>
       </c>
       <c r="J52" t="n">
-        <v>629</v>
+        <v>1462</v>
       </c>
       <c r="K52" t="n">
-        <v>1258</v>
+        <v>1462</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
@@ -3419,35 +3417,35 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>U0103402</t>
+          <t>JBLGO3RED</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1857277</v>
+        <v>5590190</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GOLDEN MEMORY</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GM16S11/8)</t>
+          <t>Go Essential Black (JBLGOESBLK)</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>449</v>
+        <v>999</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -3458,75 +3456,73 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-6.7%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>13</v>
+        <v>22.6</v>
       </c>
       <c r="J53" t="n">
-        <v>481</v>
+        <v>853</v>
       </c>
       <c r="K53" t="n">
-        <v>481</v>
+        <v>853</v>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>38</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>U0275940</t>
-        </is>
+        <v>46</v>
+      </c>
+      <c r="O53" t="n">
+        <v>6814832</v>
       </c>
       <c r="P53" t="n">
-        <v>2630535</v>
+        <v>8962442</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GOODRAM</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DDR4 8GB, 2400MHz, PC4-19200 (GR2400D464L17S/8G)</t>
+          <t>Pulse 5 Black (JBLPULSE5BLK)</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>579</v>
+        <v>9499</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-9.1%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>17.2</v>
+        <v>201.64</v>
       </c>
       <c r="J54" t="n">
-        <v>637</v>
+        <v>7602</v>
       </c>
       <c r="K54" t="n">
-        <v>1274</v>
+        <v>7602</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
@@ -3535,33 +3531,35 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>77</v>
-      </c>
-      <c r="O54" t="n">
-        <v>6329811</v>
+        <v>144</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>JBLPULSE5BLK</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>2124692</v>
+        <v>9648680</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GOODRAM</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GR1600S364L11/8G)</t>
+          <t>Акустика JBL Link Portable Gray (JBLLINKPORGRY)</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>529</v>
+        <v>5499</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -3572,17 +3570,17 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-16.5%</t>
+          <t>28.2%</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>16.8</v>
+        <v>113.79</v>
       </c>
       <c r="J55" t="n">
-        <v>634</v>
+        <v>4290</v>
       </c>
       <c r="K55" t="n">
-        <v>634</v>
+        <v>4290</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
@@ -3591,31 +3589,35 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>138</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
+        <v>123</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>5f4d44b0ea159163986f0b8d</t>
+        </is>
+      </c>
       <c r="P55" t="n">
-        <v>542951</v>
+        <v>5408227</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>MICROLAB</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DDR4 32GB, 2666MHz, PC4-21300, ECC Reg 2R (KSM26RD4/32MEI)</t>
+          <t>M-100 Black</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>699</v>
+        <v>749</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -3626,17 +3628,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-86.2%</t>
+          <t>-28.7%</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>181.9</v>
+        <v>27.48</v>
       </c>
       <c r="J56" t="n">
-        <v>5057</v>
+        <v>1050</v>
       </c>
       <c r="K56" t="n">
-        <v>5057</v>
+        <v>1050</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
@@ -3645,35 +3647,31 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>846</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>KSM26RD4/32MEI</t>
-        </is>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>-3392440</v>
+        <v>-224185</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>KINGSTON FURY</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DRAM 64GB 5200MT/s DDR5 CL40 DIMM (Kit of 2) FURY Beast Black EAN: 740617326550 (KF552C40BBK2-64)</t>
+          <t>Mi Portable Bluetooth Speaker mini (BHR4802GL, XMYX04WM)</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>7249</v>
+        <v>739</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -3684,54 +3682,54 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-46.7%</t>
+          <t>-2.7%</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>344.3</v>
+        <v>20.14</v>
       </c>
       <c r="J57" t="n">
-        <v>13600</v>
+        <v>760</v>
       </c>
       <c r="K57" t="n">
-        <v>13600</v>
+        <v>760</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>KF552C40BBK2-64</t>
+          <t>BHR4802GL</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>8803411</v>
+        <v>6126020</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KINGSTON FURY</t>
+          <t>A-4 TECH</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SO-DIMM 16GB/3200 DDR4 Kingston Fury Impact (KF432S20IB/16)</t>
+          <t>G3-200N Black</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1279</v>
+        <v>249</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -3742,52 +3740,54 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>34.5</v>
+        <v>7.02</v>
       </c>
       <c r="J58" t="n">
-        <v>1277</v>
+        <v>260</v>
       </c>
       <c r="K58" t="n">
-        <v>1277</v>
+        <v>260</v>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>68</v>
-      </c>
-      <c r="O58" t="n">
-        <v>372109</v>
+        <v>59</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>0202631</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>7451189</v>
+        <v>711316</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GOLON</t>
+          <t>A-4 TECH</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RX-X8BT Black</t>
+          <t>OP-620D USB Black</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>289</v>
+        <v>199</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -3798,54 +3798,50 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-29.5%</t>
+          <t>33.0%</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>10.37</v>
+        <v>3.94</v>
       </c>
       <c r="J59" t="n">
-        <v>410</v>
+        <v>150</v>
       </c>
       <c r="K59" t="n">
-        <v>410</v>
+        <v>150</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>272</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>606ba31258e1d3016e42cbfd</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>7262515</v>
+        <v>48972</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GOLON</t>
+          <t>A-4 TECH</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>RX-X8BT Red</t>
+          <t>OP-720 USB Black</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>289</v>
+        <v>149</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -3856,54 +3852,50 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-26.1%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>10.37</v>
+        <v>3.74</v>
       </c>
       <c r="J60" t="n">
-        <v>391</v>
+        <v>143</v>
       </c>
       <c r="K60" t="n">
-        <v>391</v>
+        <v>143</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>ФотПз</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>138</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>606ba19f58e1d3016e42cb61</t>
-        </is>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
-        <v>7262499</v>
+        <v>83150</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HARMAN-KARDON</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Citation 300 MKII Gray (HKCITATION300GRYEU)</t>
+          <t>Point MM-756 Black (52756)</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>12499</v>
+        <v>89</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -3914,54 +3906,52 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-2.0%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>326.92</v>
+        <v>2.26</v>
       </c>
       <c r="J61" t="n">
-        <v>12750</v>
+        <v>87</v>
       </c>
       <c r="K61" t="n">
-        <v>12750</v>
+        <v>87</v>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>192</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>HKCITATION300GRYEU</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="O61" t="n">
+        <v>620102</v>
       </c>
       <c r="P61" t="n">
-        <v>4307073</v>
+        <v>4085857</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>IDANCE</t>
+          <t>GEMBIRD</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Beat Dude Mini 5W Фиолетовая (IBDM-100-PURPLE)</t>
+          <t>Мышка Gembird MUS-6B-02 USB Black (MUS-6B-02)</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -3972,17 +3962,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-42.1%</t>
+          <t>-17.1%</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>8.73</v>
+        <v>5.5</v>
       </c>
       <c r="J62" t="n">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="K62" t="n">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
@@ -3991,33 +3981,35 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>600</v>
-      </c>
-      <c r="O62" t="n">
-        <v>155764</v>
+        <v>51</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>U0720798</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>3299547</v>
+        <v>10063053</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>GLORIOUS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Clip 4 Eco White (JBLCLIP4ECOWHT)</t>
+          <t>Model O Matte White (GO-White)</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2499</v>
+        <v>1999</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4028,54 +4020,52 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>34.3%</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>50</v>
+        <v>48.06</v>
       </c>
       <c r="J63" t="n">
-        <v>1861</v>
+        <v>1836</v>
       </c>
       <c r="K63" t="n">
-        <v>1861</v>
+        <v>1836</v>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>111</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>JBLCLIP4ECOWHT</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="O63" t="n">
+        <v>64374</v>
       </c>
       <c r="P63" t="n">
-        <v>9760781</v>
+        <v>4212244</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Flip Essential 2 (JBLFLIPES2)</t>
+          <t>Мышь Pulsar Essential (HTM-308) Yellow</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3499</v>
+        <v>799</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4086,52 +4076,52 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>13.7%</t>
+          <t>29.1%</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>82.73999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="J64" t="n">
-        <v>3078</v>
+        <v>619</v>
       </c>
       <c r="K64" t="n">
-        <v>3078</v>
+        <v>619</v>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="O64" t="n">
-        <v>1384165</v>
+        <v>66042</v>
       </c>
       <c r="P64" t="n">
-        <v>9151222</v>
+        <v>9400866</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Go Essential Black (JBLGOESBLK)</t>
+          <t>Мышь беспроводная Pulsar Wireless (HTM-317) Lilac</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>999</v>
+        <v>1799</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -4142,52 +4132,52 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>22.6</v>
+        <v>32.42</v>
       </c>
       <c r="J65" t="n">
-        <v>853</v>
+        <v>1200</v>
       </c>
       <c r="K65" t="n">
-        <v>853</v>
+        <v>1200</v>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O65" t="n">
-        <v>6814832</v>
+        <v>66038</v>
       </c>
       <c r="P65" t="n">
-        <v>8962442</v>
+        <v>9303637</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>HEWLETT PACKARD</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pulse 5 Black (JBLPULSE5BLK)</t>
+          <t>Мишка HP 125 Wired, 3кн., 1200 dpi, чорна (265A9AA)</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>9499</v>
+        <v>239</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -4198,112 +4188,110 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>-13.7%</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>201.64</v>
+        <v>7.24</v>
       </c>
       <c r="J66" t="n">
-        <v>7602</v>
+        <v>277</v>
       </c>
       <c r="K66" t="n">
-        <v>7602</v>
+        <v>277</v>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>140</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>JBLPULSE5BLK</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="O66" t="n">
+        <v>810643</v>
       </c>
       <c r="P66" t="n">
-        <v>9648680</v>
+        <v>6899120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>IMICE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Акустика JBL Link Portable Gray (JBLLINKPORGRY)</t>
+          <t>E-1800 Black</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5499</v>
+        <v>79</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>28.2%</t>
+          <t>-34.9%</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>113.79</v>
+        <v>4.5</v>
       </c>
       <c r="J67" t="n">
-        <v>4290</v>
+        <v>122</v>
       </c>
       <c r="K67" t="n">
-        <v>4290</v>
+        <v>8662</v>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>FuaCM</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>119</v>
+        <v>765</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>5f4d44b0ea159163986f0b8d</t>
+          <t>5dd3b30f5ca49a0052a3ff8e</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>5408227</v>
+        <v>5044681</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MICROLAB</t>
+          <t>LENOVO</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>M-100 Black</t>
+          <t>Legion M600s Wireless GM (GY51H47354)</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>899</v>
+        <v>2449</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -4314,50 +4302,52 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-14.4%</t>
+          <t>-15.0%</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>27.48</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>1050</v>
+        <v>2880</v>
       </c>
       <c r="K68" t="n">
-        <v>1050</v>
+        <v>2880</v>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>7</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
+        <v>78</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3717833</v>
+      </c>
       <c r="P68" t="n">
-        <v>-224185</v>
+        <v>9367262</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mi Portable Bluetooth Speaker mini (BHR4802GL, XMYX04WM)</t>
+          <t>G502 Hero USB Black</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>749</v>
+        <v>1449</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -4368,34 +4358,32 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>-27.5%</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>20.14</v>
+        <v>53</v>
       </c>
       <c r="J69" t="n">
-        <v>760</v>
+        <v>1999</v>
       </c>
       <c r="K69" t="n">
-        <v>760</v>
+        <v>1999</v>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>42</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>BHR4802GL</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="O69" t="n">
+        <v>246576</v>
       </c>
       <c r="P69" t="n">
-        <v>6126020</v>
+        <v>-3143597</v>
       </c>
     </row>
     <row r="70">
@@ -4406,12 +4394,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A-4 TECH</t>
+          <t>MEDIA-TECH</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>G3-200N Black</t>
+          <t>COBRA PRO (MT1115)</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -4426,17 +4414,17 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>7.02</v>
+        <v>6.09</v>
       </c>
       <c r="J70" t="n">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="K70" t="n">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
@@ -4445,15 +4433,13 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>55</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>0202631</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="O70" t="n">
+        <v>150729</v>
       </c>
       <c r="P70" t="n">
-        <v>711316</v>
+        <v>2449527</v>
       </c>
     </row>
     <row r="71">
@@ -4464,16 +4450,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A-4 TECH</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>OP-720 USB Black</t>
+          <t>Clutch GM41 Lightweight Wireless V2 (S12-0400D20-C54)</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>149</v>
+        <v>1049</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -4484,30 +4470,34 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-39.5%</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>3.74</v>
+        <v>44.7</v>
       </c>
       <c r="J71" t="n">
-        <v>143</v>
+        <v>1733</v>
       </c>
       <c r="K71" t="n">
-        <v>143</v>
+        <v>1733</v>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>12</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
+        <v>163</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>S12-0400D20-C54</t>
+        </is>
+      </c>
       <c r="P71" t="n">
-        <v>83150</v>
+        <v>8517305</v>
       </c>
     </row>
     <row r="72">
@@ -4518,16 +4508,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>PROMATE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Point MM-756 Black (52756)</t>
+          <t>Мышь Kitt Wireless white (kitt.white)</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>89</v>
+        <v>449</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -4538,32 +4528,34 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>12.9%</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2.26</v>
+        <v>10.49</v>
       </c>
       <c r="J72" t="n">
-        <v>87</v>
+        <v>398</v>
       </c>
       <c r="K72" t="n">
-        <v>87</v>
+        <v>398</v>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>12</v>
-      </c>
-      <c r="O72" t="n">
-        <v>620102</v>
+        <v>1</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>7099995|84d1e622-bd92-11ed-9105-a4bf014d67ab</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>4085857</v>
+        <v>9934165</v>
       </c>
     </row>
     <row r="73">
@@ -4574,16 +4566,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>STEELSERIES</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Мишка Defender Accura MM-295, бездротова,6 кн. до 1600 dpi, чорна (52295)</t>
+          <t>Rival 5 (62551)</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>159</v>
+        <v>1799</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -4594,17 +4586,17 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-10.5%</t>
+          <t>11.8%</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4.8</v>
+        <v>58.63</v>
       </c>
       <c r="J73" t="n">
-        <v>178</v>
+        <v>1610</v>
       </c>
       <c r="K73" t="n">
-        <v>178</v>
+        <v>1610</v>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
@@ -4613,13 +4605,13 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>77</v>
+        <v>634</v>
       </c>
       <c r="O73" t="n">
-        <v>207633</v>
+        <v>65549</v>
       </c>
       <c r="P73" t="n">
-        <v>2823917</v>
+        <v>7128903</v>
       </c>
     </row>
     <row r="74">
@@ -4630,16 +4622,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GEMBIRD</t>
+          <t>VERTUX</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Мышка Gembird MUS-6B-02 USB Black (MUS-6B-02)</t>
+          <t>Dominator USB Grey (dominator.grey)</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>179</v>
+        <v>499</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -4650,34 +4642,34 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>-12.1%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5.5</v>
+        <v>12.26</v>
       </c>
       <c r="J74" t="n">
-        <v>204</v>
+        <v>464</v>
       </c>
       <c r="K74" t="n">
-        <v>204</v>
+        <v>464</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>U0720798</t>
+          <t>4072486|75dc153b-f936-11eb-90f5-b4a9fc43a3f9</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>10063053</v>
+        <v>7309538</v>
       </c>
     </row>
     <row r="75">
@@ -4688,16 +4680,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GLORIOUS</t>
+          <t>VINGA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Model O Matte White (GO-White)</t>
+          <t>MS-680 Black</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1849</v>
+        <v>109</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -4708,108 +4700,108 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>48.06</v>
+        <v>2.72</v>
       </c>
       <c r="J75" t="n">
-        <v>1836</v>
+        <v>104</v>
       </c>
       <c r="K75" t="n">
-        <v>1836</v>
+        <v>104</v>
       </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O75" t="n">
-        <v>64374</v>
+        <v>63571</v>
       </c>
       <c r="P75" t="n">
-        <v>4212244</v>
+        <v>3114114</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Мыши - коврики</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Мышь Pulsar Essential (HTM-308) Yellow</t>
+          <t>Journey 6шт. (50415)</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>799</v>
+        <v>49</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>29.1%</t>
+          <t>-32.2%</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>16.2</v>
+        <v>1.95</v>
       </c>
       <c r="J76" t="n">
-        <v>619</v>
+        <v>73</v>
       </c>
       <c r="K76" t="n">
-        <v>619</v>
+        <v>146</v>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="O76" t="n">
-        <v>66042</v>
+        <v>132815</v>
       </c>
       <c r="P76" t="n">
-        <v>9400866</v>
+        <v>1714050</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Мыши - коврики</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Мышь беспроводная Pulsar Wireless (HTM-317) Lilac</t>
+          <t>Notebook Microfiber</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1599</v>
+        <v>39</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -4820,17 +4812,17 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>-34.7%</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>32.42</v>
+        <v>1.57</v>
       </c>
       <c r="J77" t="n">
-        <v>1200</v>
+        <v>60</v>
       </c>
       <c r="K77" t="n">
-        <v>1200</v>
+        <v>60</v>
       </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
@@ -4839,33 +4831,33 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O77" t="n">
-        <v>66038</v>
+        <v>5780304</v>
       </c>
       <c r="P77" t="n">
-        <v>9303637</v>
+        <v>752893</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Мыши - коврики</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HEWLETT PACKARD</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Мишка HP 125 Wired, 3кн., 1200 dpi, чорна (265A9AA)</t>
+          <t>Игровой коврик Desk Mat Studio Series-Darker Rose (956-000053)</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>239</v>
+        <v>899</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -4876,110 +4868,108 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>-13.7%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>7.24</v>
+        <v>23.48</v>
       </c>
       <c r="J78" t="n">
-        <v>277</v>
+        <v>886</v>
       </c>
       <c r="K78" t="n">
-        <v>277</v>
+        <v>886</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3</v>
-      </c>
-      <c r="O78" t="n">
-        <v>810643</v>
+        <v>16</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>6514865|84ceb238-785e-11ec-90f8-b4a9fc43a3f9</t>
+        </is>
       </c>
       <c r="P78" t="n">
-        <v>6899120</v>
+        <v>8452967</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Мыши - коврики</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>IMICE</t>
+          <t>PODMЫSHKU</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>E-1800 Black</t>
+          <t>Ferrari</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>13.7%</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4.5</v>
+        <v>0.89</v>
       </c>
       <c r="J79" t="n">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="K79" t="n">
-        <v>9028</v>
+        <v>34</v>
       </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>FuaCM</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>761</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>5dd3b30f5ca49a0052a3ff8e</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
-        <v>5044681</v>
+        <v>393844</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Мыши - коврики</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LENOVO</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Legion M600s Wireless GM (GY51H47354)</t>
+          <t>Goliathus Chroma Extended Quartz (RZ02-02500316-R3M1)</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2499</v>
+        <v>2799</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -4990,17 +4980,17 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>-13.2%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>77.81999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="J80" t="n">
-        <v>2880</v>
+        <v>1890</v>
       </c>
       <c r="K80" t="n">
-        <v>2880</v>
+        <v>1890</v>
       </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
@@ -5009,33 +4999,33 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>74</v>
+        <v>793</v>
       </c>
       <c r="O80" t="n">
-        <v>3717833</v>
+        <v>64013</v>
       </c>
       <c r="P80" t="n">
-        <v>9367262</v>
+        <v>4161739</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>BOROFONE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>G502 Hero USB Black</t>
+          <t>BW26 White (BW26W)</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1699</v>
+        <v>299</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -5046,52 +5036,52 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-15.0%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="J81" t="n">
-        <v>1999</v>
+        <v>296</v>
       </c>
       <c r="K81" t="n">
-        <v>1999</v>
+        <v>296</v>
       </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="O81" t="n">
-        <v>246576</v>
+        <v>24160</v>
       </c>
       <c r="P81" t="n">
-        <v>-3143597</v>
+        <v>9599567</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>CANYON</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Мышь POP Mouse with emoji pink (910-006548)</t>
+          <t>CNE-CEPM01B Black</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1269</v>
+        <v>139</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -5102,54 +5092,52 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>33.91</v>
+        <v>3.55</v>
       </c>
       <c r="J82" t="n">
-        <v>1279</v>
+        <v>136</v>
       </c>
       <c r="K82" t="n">
-        <v>1279</v>
+        <v>136</v>
       </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>12</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>6467675|78c976bc-5e63-11ec-90f8-b4a9fc43a3f9</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="O82" t="n">
+        <v>53945</v>
       </c>
       <c r="P82" t="n">
-        <v>8452961</v>
+        <v>5221340</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MEDIA-TECH</t>
+          <t>GAMEPRO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>COBRA PRO (MT1115)</t>
+          <t>HS382 Black</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>259</v>
+        <v>499</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -5160,52 +5148,54 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>11.3%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>6.09</v>
+        <v>12.8</v>
       </c>
       <c r="J83" t="n">
-        <v>233</v>
+        <v>489</v>
       </c>
       <c r="K83" t="n">
-        <v>233</v>
+        <v>489</v>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N83" t="n">
         <v>4</v>
       </c>
-      <c r="O83" t="n">
-        <v>150729</v>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>7163893|399af365-cf0e-11ed-9105-a4bf014d67ab</t>
+        </is>
       </c>
       <c r="P83" t="n">
-        <v>2449527</v>
+        <v>10180375</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Clutch GM41 Lightweight Wireless V2 (S12-0400D20-C54)</t>
+          <t>Hypergang 7.1 USB Black (HTA-840)</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1049</v>
+        <v>2199</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -5216,54 +5206,52 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>-39.4%</t>
+          <t>30.2%</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>44.7</v>
+        <v>45.66</v>
       </c>
       <c r="J84" t="n">
-        <v>1733</v>
+        <v>1690</v>
       </c>
       <c r="K84" t="n">
-        <v>1733</v>
+        <v>1690</v>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>159</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>S12-0400D20-C54</t>
-        </is>
+        <v>65</v>
+      </c>
+      <c r="O84" t="n">
+        <v>453818</v>
       </c>
       <c r="P84" t="n">
-        <v>8517305</v>
+        <v>9769963</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>STEELSERIES</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Rival 5 (62551)</t>
+          <t>Hypergang EVO (HTA-810)</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2999</v>
+        <v>1699</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -5274,52 +5262,52 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>86.3%</t>
+          <t>30.7%</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>58.63</v>
+        <v>35.12</v>
       </c>
       <c r="J85" t="n">
-        <v>1610</v>
+        <v>1300</v>
       </c>
       <c r="K85" t="n">
-        <v>1610</v>
+        <v>1300</v>
       </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>630</v>
+        <v>65</v>
       </c>
       <c r="O85" t="n">
-        <v>65549</v>
+        <v>294440</v>
       </c>
       <c r="P85" t="n">
-        <v>7128903</v>
+        <v>4205308</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>VERTUX</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Dominator USB Grey (dominator.grey)</t>
+          <t>Hypergang EVO Elite Black (HTA-830)</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>499</v>
+        <v>1999</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -5330,54 +5318,52 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>33.8%</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>12.26</v>
+        <v>40.39</v>
       </c>
       <c r="J86" t="n">
-        <v>463</v>
+        <v>1495</v>
       </c>
       <c r="K86" t="n">
-        <v>463</v>
+        <v>1495</v>
       </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>117</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>4072486|75dc153b-f936-11eb-90f5-b4a9fc43a3f9</t>
-        </is>
+        <v>65</v>
+      </c>
+      <c r="O86" t="n">
+        <v>65623</v>
       </c>
       <c r="P86" t="n">
-        <v>7309538</v>
+        <v>8355541</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>VINGA</t>
+          <t>HYPERX</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MS-680 Black</t>
+          <t>Cloud Core 7.1 Black (4P4F2AA)</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>119</v>
+        <v>3499</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -5388,17 +5374,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>34.6%</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2.72</v>
+        <v>68.03</v>
       </c>
       <c r="J87" t="n">
-        <v>104</v>
+        <v>2599</v>
       </c>
       <c r="K87" t="n">
-        <v>104</v>
+        <v>2599</v>
       </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
@@ -5407,54 +5393,56 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3</v>
-      </c>
-      <c r="O87" t="n">
-        <v>63571</v>
+        <v>9</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>U0455426</t>
+        </is>
       </c>
       <c r="P87" t="n">
-        <v>3114114</v>
+        <v>5299847</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Мыши - коврики</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Journey 6шт. (50415)</t>
+          <t>Live Flex Black (JBLLIVEFLEXBLK)</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>69</v>
+        <v>4999</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1.95</v>
+        <v>102.65</v>
       </c>
       <c r="J88" t="n">
-        <v>73</v>
+        <v>3799</v>
       </c>
       <c r="K88" t="n">
-        <v>146</v>
+        <v>3799</v>
       </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
@@ -5463,33 +5451,35 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>61</v>
-      </c>
-      <c r="O88" t="n">
-        <v>132815</v>
+        <v>53</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>JBLLIVEFLEXBLK</t>
+        </is>
       </c>
       <c r="P88" t="n">
-        <v>1714050</v>
+        <v>10160854</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Мыши - коврики</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Notebook Microfiber</t>
+          <t>Live Flex Silver (JBLLIVEFLEXSVR)</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>59</v>
+        <v>4999</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -5500,17 +5490,17 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1.57</v>
+        <v>100.21</v>
       </c>
       <c r="J89" t="n">
-        <v>60</v>
+        <v>3798</v>
       </c>
       <c r="K89" t="n">
-        <v>60</v>
+        <v>3798</v>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
@@ -5519,33 +5509,35 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>10</v>
-      </c>
-      <c r="O89" t="n">
-        <v>5780304</v>
+        <v>1</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>JBLLIVEFLEXSVR</t>
+        </is>
       </c>
       <c r="P89" t="n">
-        <v>752893</v>
+        <v>10160857</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Мыши - коврики</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Игровой коврик Desk Mat Studio Series-Darker Rose (956-000053)</t>
+          <t>T110 Black (JBLT110BLK)</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>899</v>
+        <v>299</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -5556,54 +5548,52 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>34.5%</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>23.48</v>
+        <v>6</v>
       </c>
       <c r="J90" t="n">
-        <v>886</v>
+        <v>222</v>
       </c>
       <c r="K90" t="n">
-        <v>886</v>
+        <v>222</v>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>12</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>6514865|84ceb238-785e-11ec-90f8-b4a9fc43a3f9</t>
-        </is>
+        <v>53</v>
+      </c>
+      <c r="O90" t="n">
+        <v>275085</v>
       </c>
       <c r="P90" t="n">
-        <v>8452967</v>
+        <v>2085204</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Мыши - коврики</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Goliathus Chroma Extended Quartz (RZ02-02500316-R3M1)</t>
+          <t>T110 White (JBLT110WHT)</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2799</v>
+        <v>299</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -5614,32 +5604,32 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>48.1%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>69.23</v>
+        <v>5.73</v>
       </c>
       <c r="J91" t="n">
-        <v>1890</v>
+        <v>218</v>
       </c>
       <c r="K91" t="n">
-        <v>1890</v>
+        <v>218</v>
       </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>789</v>
+        <v>2</v>
       </c>
       <c r="O91" t="n">
-        <v>64013</v>
+        <v>268085</v>
       </c>
       <c r="P91" t="n">
-        <v>4161739</v>
+        <v>2085272</v>
       </c>
     </row>
     <row r="92">
@@ -5650,16 +5640,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BOROFONE</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BW26 White (BW26W)</t>
+          <t>Tune 520BT Blue (JBLT520BTBLUEU)</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>329</v>
+        <v>1699</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -5670,32 +5660,32 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>11.1%</t>
+          <t>24.5%</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>8</v>
+        <v>36.2</v>
       </c>
       <c r="J92" t="n">
-        <v>296</v>
+        <v>1365</v>
       </c>
       <c r="K92" t="n">
-        <v>296</v>
+        <v>1365</v>
       </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="O92" t="n">
-        <v>24160</v>
+        <v>1392907</v>
       </c>
       <c r="P92" t="n">
-        <v>9599567</v>
+        <v>9865027</v>
       </c>
     </row>
     <row r="93">
@@ -5706,16 +5696,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CANYON</t>
+          <t>JVC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CNE-CEPM01B Black</t>
+          <t>GG-01 Black (GG01BQ)</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>139</v>
+        <v>3699</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -5726,32 +5716,32 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>35.6%</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3.55</v>
+        <v>73.7</v>
       </c>
       <c r="J93" t="n">
-        <v>136</v>
+        <v>2727</v>
       </c>
       <c r="K93" t="n">
-        <v>136</v>
+        <v>2727</v>
       </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O93" t="n">
-        <v>53945</v>
+        <v>53408</v>
       </c>
       <c r="P93" t="n">
-        <v>5221340</v>
+        <v>10504769</v>
       </c>
     </row>
     <row r="94">
@@ -5762,16 +5752,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>LENOVO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Hypergang 7.1 USB Black (HTA-840)</t>
+          <t>Essential Stereo Headset (4XD0K25030)</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2199</v>
+        <v>529</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -5782,32 +5772,32 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>30.2%</t>
+          <t>-39.9%</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>45.66</v>
+        <v>23.76</v>
       </c>
       <c r="J94" t="n">
-        <v>1690</v>
+        <v>880</v>
       </c>
       <c r="K94" t="n">
-        <v>1690</v>
+        <v>880</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O94" t="n">
-        <v>453818</v>
+        <v>3712243</v>
       </c>
       <c r="P94" t="n">
-        <v>9769963</v>
+        <v>6907039</v>
       </c>
     </row>
     <row r="95">
@@ -5818,16 +5808,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Hypergang EVO (HTA-810)</t>
+          <t>RP-HJE125E Pink</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1699</v>
+        <v>199</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -5838,32 +5828,32 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>30.7%</t>
+          <t>-21.8%</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>35.12</v>
+        <v>6.66</v>
       </c>
       <c r="J95" t="n">
-        <v>1300</v>
+        <v>255</v>
       </c>
       <c r="K95" t="n">
-        <v>1300</v>
+        <v>255</v>
       </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="O95" t="n">
-        <v>294440</v>
+        <v>6040397</v>
       </c>
       <c r="P95" t="n">
-        <v>4205308</v>
+        <v>571148</v>
       </c>
     </row>
     <row r="96">
@@ -5874,16 +5864,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Hypergang EVO Elite Black (HTA-830)</t>
+          <t>RP-HJE125E Red</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1999</v>
+        <v>199</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -5894,32 +5884,30 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>33.7%</t>
+          <t>-21.8%</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>40.39</v>
+        <v>6.66</v>
       </c>
       <c r="J96" t="n">
-        <v>1495</v>
+        <v>255</v>
       </c>
       <c r="K96" t="n">
-        <v>1495</v>
+        <v>255</v>
       </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>61</v>
-      </c>
-      <c r="O96" t="n">
-        <v>65623</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
       <c r="P96" t="n">
-        <v>8355541</v>
+        <v>572643</v>
       </c>
     </row>
     <row r="97">
@@ -5930,16 +5918,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HOCO</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EW29 White</t>
+          <t>RP-HJE125E Violet</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>459</v>
+        <v>199</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -5950,17 +5938,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>-20.8%</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>11.55</v>
+        <v>6.66</v>
       </c>
       <c r="J97" t="n">
-        <v>442</v>
+        <v>252</v>
       </c>
       <c r="K97" t="n">
-        <v>442</v>
+        <v>252</v>
       </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
@@ -5969,13 +5957,11 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>12</v>
-      </c>
-      <c r="O97" t="n">
-        <v>24602</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
-        <v>10660638</v>
+        <v>571147</v>
       </c>
     </row>
     <row r="98">
@@ -5986,16 +5972,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HYPERX</t>
+          <t>PHILIPS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cloud Core 7.1 Black (4P4F2AA)</t>
+          <t>SHP2500/10</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3499</v>
+        <v>799</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -6006,17 +5992,17 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>34.6%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>68.03</v>
+        <v>22</v>
       </c>
       <c r="J98" t="n">
-        <v>2599</v>
+        <v>814</v>
       </c>
       <c r="K98" t="n">
-        <v>2599</v>
+        <v>814</v>
       </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
@@ -6025,15 +6011,11 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>5</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>U0455426</t>
-        </is>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
-        <v>5299847</v>
+        <v>198674</v>
       </c>
     </row>
     <row r="99">
@@ -6044,16 +6026,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>PROMATE</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Live Flex Black (JBLLIVEFLEXBLK)</t>
+          <t>Наушники Terra red (terra.maroon)</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4999</v>
+        <v>529</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -6064,17 +6046,17 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>-41.2%</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>102.65</v>
+        <v>22.78</v>
       </c>
       <c r="J99" t="n">
-        <v>3799</v>
+        <v>900</v>
       </c>
       <c r="K99" t="n">
-        <v>3799</v>
+        <v>900</v>
       </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
@@ -6083,15 +6065,15 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>JBLLIVEFLEXBLK</t>
+          <t>6468257|10781dd4-5f07-11ec-90f8-b4a9fc43a3f9</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>10160854</v>
+        <v>9099706</v>
       </c>
     </row>
     <row r="100">
@@ -6102,16 +6084,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>T110 Black (JBLT110BLK)</t>
+          <t>EO-IC100BBEGRU Black</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>299</v>
+        <v>549</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -6122,32 +6104,32 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>34.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J100" t="n">
-        <v>222</v>
+        <v>535</v>
       </c>
       <c r="K100" t="n">
-        <v>222</v>
+        <v>535</v>
       </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="O100" t="n">
-        <v>275085</v>
+        <v>6537049</v>
       </c>
       <c r="P100" t="n">
-        <v>2085204</v>
+        <v>4102014</v>
       </c>
     </row>
     <row r="101">
@@ -6158,16 +6140,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>WUW</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Tune 520BT Blue (JBLT520BTBLUEU)</t>
+          <t>R24 type-C with mic white (WUW-R24)</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1699</v>
+        <v>39</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -6178,17 +6160,17 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>24.5%</t>
+          <t>-2.9%</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>36.2</v>
+        <v>0.99</v>
       </c>
       <c r="J101" t="n">
-        <v>1365</v>
+        <v>40</v>
       </c>
       <c r="K101" t="n">
-        <v>1365</v>
+        <v>40</v>
       </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
@@ -6197,13 +6179,13 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="O101" t="n">
-        <v>1392907</v>
+        <v>113920</v>
       </c>
       <c r="P101" t="n">
-        <v>9865027</v>
+        <v>6810524</v>
       </c>
     </row>
     <row r="102">
@@ -6214,16 +6196,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>LENOVO</t>
+          <t>WUW</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Essential Stereo Headset (4XD0K25030)</t>
+          <t>R31 with mic white (WUW-R31)</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>539</v>
+        <v>49</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -6234,17 +6216,17 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>-38.7%</t>
+          <t>10.4%</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>23.76</v>
+        <v>1.15</v>
       </c>
       <c r="J102" t="n">
-        <v>880</v>
+        <v>44</v>
       </c>
       <c r="K102" t="n">
-        <v>880</v>
+        <v>44</v>
       </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
@@ -6253,13 +6235,13 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O102" t="n">
-        <v>3712243</v>
+        <v>113918</v>
       </c>
       <c r="P102" t="n">
-        <v>6907039</v>
+        <v>6810525</v>
       </c>
     </row>
     <row r="103">
@@ -6270,16 +6252,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PANASONIC</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>RP-HJE125E Blue</t>
+          <t>Mi Piston Fresh Bloom Black (ZBW4308GL)</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -6290,30 +6272,34 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>-19.8%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>6.66</v>
+        <v>8</v>
       </c>
       <c r="J103" t="n">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="K103" t="n">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>97</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Р26839</t>
+        </is>
+      </c>
       <c r="P103" t="n">
-        <v>571150</v>
+        <v>1821073</v>
       </c>
     </row>
     <row r="104">
@@ -6324,16 +6310,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PANASONIC</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>RP-HJE125E Pink</t>
+          <t>Redmi Buds 4 Lite White (BHR6919GL)</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>199</v>
+        <v>779</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -6344,17 +6330,17 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>-21.9%</t>
+          <t>19.9%</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>6.66</v>
+        <v>17</v>
       </c>
       <c r="J104" t="n">
-        <v>255</v>
+        <v>650</v>
       </c>
       <c r="K104" t="n">
-        <v>255</v>
+        <v>650</v>
       </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
@@ -6363,87 +6349,91 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O104" t="n">
-        <v>6040397</v>
+        <v>975751</v>
       </c>
       <c r="P104" t="n">
-        <v>571148</v>
+        <v>9759843</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Планшетные ПК</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PANASONIC</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>RP-HJE125E Red</t>
+          <t>Galaxy Tab A8 10.5 3/32GB LTE Dark Grey (SM-X205NZAA) Open Box</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>199</v>
+        <v>5999</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>-21.9%</t>
+          <t>-17.3%</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>6.66</v>
+        <v>196</v>
       </c>
       <c r="J105" t="n">
-        <v>255</v>
+        <v>7252</v>
       </c>
       <c r="K105" t="n">
-        <v>255</v>
+        <v>43512</v>
       </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>5</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
+        <v>46</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>STH0010456</t>
+        </is>
+      </c>
       <c r="P105" t="n">
-        <v>572643</v>
+        <v>8673211</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Планшетные ПК</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PANASONIC</t>
+          <t>TECLAST</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>RP-HJE125E Violet</t>
+          <t>P40HD 4/64GB Gray</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>199</v>
+        <v>4849</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -6454,50 +6444,52 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>-20.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>6.66</v>
+        <v>125.92</v>
       </c>
       <c r="J106" t="n">
-        <v>252</v>
+        <v>4811</v>
       </c>
       <c r="K106" t="n">
-        <v>252</v>
+        <v>4811</v>
       </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>21</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="O106" t="n">
+        <v>6940709684672</v>
+      </c>
       <c r="P106" t="n">
-        <v>571147</v>
+        <v>9398019</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Процессоры</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PHILIPS</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SHP2500/10</t>
+          <t>Pro A8-8670E (AD867BAHM44AB)</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>819</v>
+        <v>699</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -6508,17 +6500,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>-39.8%</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J107" t="n">
-        <v>814</v>
+        <v>1160</v>
       </c>
       <c r="K107" t="n">
-        <v>814</v>
+        <v>1160</v>
       </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
@@ -6527,31 +6519,33 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>60</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="O107" t="n">
+        <v>383083</v>
+      </c>
       <c r="P107" t="n">
-        <v>198674</v>
+        <v>8143539</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PROMATE</t>
+          <t>BLACKVIEW</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Наушники Terra red (terra.maroon)</t>
+          <t>A55 Pro 4/64GB Cloud White</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>549</v>
+        <v>3199</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -6562,17 +6556,17 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>-39.0%</t>
+          <t>-8.2%</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>22.78</v>
+        <v>94.2</v>
       </c>
       <c r="J108" t="n">
-        <v>900</v>
+        <v>3486</v>
       </c>
       <c r="K108" t="n">
-        <v>900</v>
+        <v>3486</v>
       </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
@@ -6581,35 +6575,35 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>6468257|10781dd4-5f07-11ec-90f8-b4a9fc43a3f9</t>
+          <t>STH0012050</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>9099706</v>
+        <v>8785221</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>WUW</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>R24 type-C with mic white (WUW-R24)</t>
+          <t>S60 Black</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>39</v>
+        <v>7499</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -6620,52 +6614,52 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>-2.1%</t>
+          <t>-56.2%</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0.99</v>
+        <v>439</v>
       </c>
       <c r="J109" t="n">
-        <v>40</v>
+        <v>17121</v>
       </c>
       <c r="K109" t="n">
-        <v>40</v>
+        <v>17121</v>
       </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="O109" t="n">
-        <v>113920</v>
+        <v>47732</v>
       </c>
       <c r="P109" t="n">
-        <v>6810524</v>
+        <v>-1908276</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>GOOGLE</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Mi Piston Fresh Bloom Black (ZBW4308GL)</t>
+          <t>Pixel 6 8/128GB Stormy Black</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>299</v>
+        <v>14549</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -6676,17 +6670,17 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="J110" t="n">
-        <v>306</v>
+        <v>13834</v>
       </c>
       <c r="K110" t="n">
-        <v>306</v>
+        <v>13834</v>
       </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
@@ -6695,38 +6689,38 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Р26839</t>
+          <t>STH0010126</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1821073</v>
+        <v>8217466</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Mi Piston Fresh Bloom Matte Silver (ZBW4355TY)</t>
+          <t>20 Pro 8/256GB Green</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>199</v>
+        <v>10915</v>
       </c>
       <c r="E111" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
@@ -6734,54 +6728,54 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>14.8%</t>
+          <t>-6.0%</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>4.59</v>
+        <v>304</v>
       </c>
       <c r="J111" t="n">
-        <v>174</v>
+        <v>11613</v>
       </c>
       <c r="K111" t="n">
-        <v>174</v>
+        <v>11613</v>
       </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Р29346</t>
+          <t>STH0003652</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>2078649</v>
+        <v>9199476</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>MAXCOM</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Redmi Buds 3 Pro Graphite Black (BHR5244GL)</t>
+          <t>Classic MM142 Gray</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1389</v>
+        <v>549</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -6792,73 +6786,75 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-7.8%</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>36.5</v>
+        <v>15.78</v>
       </c>
       <c r="J112" t="n">
-        <v>1351</v>
+        <v>595</v>
       </c>
       <c r="K112" t="n">
-        <v>1351</v>
+        <v>595</v>
       </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>62</v>
-      </c>
-      <c r="O112" t="n">
-        <v>851916</v>
+        <v>36</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>00-00039645</t>
+        </is>
       </c>
       <c r="P112" t="n">
-        <v>7537064</v>
+        <v>3243072</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Планшетные ПК</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>NOKIA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8 10.5 3/32GB LTE Dark Grey (SM-X205NZAA) Open Box</t>
+          <t>105 Dual Sim 2023 Red</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6249</v>
+        <v>749</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>-13.8%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>196</v>
+        <v>21.34</v>
       </c>
       <c r="J113" t="n">
-        <v>7252</v>
+        <v>790</v>
       </c>
       <c r="K113" t="n">
-        <v>43512</v>
+        <v>790</v>
       </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
@@ -6867,35 +6863,33 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>42</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>STH0010456</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="O113" t="n">
+        <v>464897</v>
       </c>
       <c r="P113" t="n">
-        <v>8673211</v>
+        <v>10295775</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Планшетные ПК</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TECLAST</t>
+          <t>REALME</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>P40HD 4/64GB Gray</t>
+          <t>9 Pro 6/128GB Midnight Black Global Version</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>4899</v>
+        <v>9649</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -6906,17 +6900,17 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>125.92</v>
+        <v>242</v>
       </c>
       <c r="J114" t="n">
-        <v>4811</v>
+        <v>9245</v>
       </c>
       <c r="K114" t="n">
-        <v>4811</v>
+        <v>9245</v>
       </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
@@ -6925,33 +6919,35 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>5</v>
-      </c>
-      <c r="O114" t="n">
-        <v>6940709684672</v>
+        <v>7</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>STH0011440</t>
+        </is>
       </c>
       <c r="P114" t="n">
-        <v>9398019</v>
+        <v>8751666</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Процессоры</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Pro A8-8670E (AD867BAHM44AB)</t>
+          <t>Galaxy A73 5G 6/128GB White (SM-A736BZWDSEK)</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>799</v>
+        <v>14849</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -6962,17 +6958,17 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>-31.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>29</v>
+        <v>386.9</v>
       </c>
       <c r="J115" t="n">
-        <v>1160</v>
+        <v>14780</v>
       </c>
       <c r="K115" t="n">
-        <v>1160</v>
+        <v>14780</v>
       </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
@@ -6981,13 +6977,13 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="O115" t="n">
-        <v>383083</v>
+        <v>79230</v>
       </c>
       <c r="P115" t="n">
-        <v>8143539</v>
+        <v>8690907</v>
       </c>
     </row>
     <row r="116">
@@ -6998,16 +6994,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BLACKVIEW</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>A55 Pro 4/64GB Cloud White</t>
+          <t>Galaxy Note 9 N960U 8/512Gb Ocean Blue 1 SIM USA Open Box</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3249</v>
+        <v>12999</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -7018,17 +7014,17 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>-6.8%</t>
+          <t>5.7%</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>94.2</v>
+        <v>322</v>
       </c>
       <c r="J116" t="n">
-        <v>3486</v>
+        <v>12301</v>
       </c>
       <c r="K116" t="n">
-        <v>3486</v>
+        <v>12301</v>
       </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
@@ -7037,15 +7033,15 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>STH0012050</t>
+          <t>STH0010445</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>8785221</v>
+        <v>8487029</v>
       </c>
     </row>
     <row r="117">
@@ -7056,16 +7052,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>S60 Black</t>
+          <t>Galaxy S10 128GB Green 1 Sim (G973U) USA Open Box</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>8249</v>
+        <v>7749</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -7076,17 +7072,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>-51.8%</t>
+          <t>-35.9%</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>439</v>
+        <v>325</v>
       </c>
       <c r="J117" t="n">
-        <v>17121</v>
+        <v>12091</v>
       </c>
       <c r="K117" t="n">
-        <v>17121</v>
+        <v>12091</v>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
@@ -7095,13 +7091,15 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>186</v>
-      </c>
-      <c r="O117" t="n">
-        <v>47732</v>
+        <v>106</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>STH0011954</t>
+        </is>
       </c>
       <c r="P117" t="n">
-        <v>-1908276</v>
+        <v>-8771626</v>
       </c>
     </row>
     <row r="118">
@@ -7112,16 +7110,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CUBOT</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>J10 1/32GB Green</t>
+          <t>Galaxy S20 5G SM-G9810 12/128Gb Cosmic Gray Asia Open Box</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1799</v>
+        <v>17899</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -7132,17 +7130,17 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>48</v>
+        <v>450</v>
       </c>
       <c r="J118" t="n">
-        <v>1810</v>
+        <v>17190</v>
       </c>
       <c r="K118" t="n">
-        <v>1810</v>
+        <v>17190</v>
       </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
@@ -7151,15 +7149,15 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>STH0010228</t>
+          <t>STH0004390</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>8477076</v>
+        <v>8954638</v>
       </c>
     </row>
     <row r="119">
@@ -7170,16 +7168,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>LAND ROVER</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>T3 Black</t>
+          <t>Galaxy S20 8/128GB Cloud Blue (SM-G980FLBDSEK) Global Open Box</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>949</v>
+        <v>16999</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -7190,34 +7188,34 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>-24.6%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>34</v>
+        <v>430</v>
       </c>
       <c r="J119" t="n">
-        <v>1258</v>
+        <v>16426</v>
       </c>
       <c r="K119" t="n">
-        <v>1258</v>
+        <v>16426</v>
       </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>6009b371fc0d3022243dde9c</t>
+          <t>STH0004156</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>-6002172</v>
+        <v>8934916</v>
       </c>
     </row>
     <row r="120">
@@ -7228,16 +7226,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MAXCOM</t>
+          <t>SIGMA MOBILE</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Classic MM142 Gray</t>
+          <t>X-Style 31 Power Type-C Purple</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>599</v>
+        <v>849</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -7248,17 +7246,17 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>15.78</v>
+        <v>22.43</v>
       </c>
       <c r="J120" t="n">
-        <v>595</v>
+        <v>846</v>
       </c>
       <c r="K120" t="n">
-        <v>595</v>
+        <v>846</v>
       </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
@@ -7267,15 +7265,13 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>32</v>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>00-00039645</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="O120" t="n">
+        <v>448250</v>
       </c>
       <c r="P120" t="n">
-        <v>3243072</v>
+        <v>9532108</v>
       </c>
     </row>
     <row r="121">
@@ -7286,16 +7282,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NOKIA</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>105 Dual Sim 2023 Red</t>
+          <t>Xperia 5 IV 8/256GB Black</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>799</v>
+        <v>28899</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -7306,17 +7302,17 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>21.34</v>
+        <v>720</v>
       </c>
       <c r="J121" t="n">
-        <v>790</v>
+        <v>27505</v>
       </c>
       <c r="K121" t="n">
-        <v>790</v>
+        <v>27505</v>
       </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
@@ -7325,13 +7321,15 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>45</v>
-      </c>
-      <c r="O121" t="n">
-        <v>464897</v>
+        <v>3</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>STH0018824</t>
+        </is>
       </c>
       <c r="P121" t="n">
-        <v>10295775</v>
+        <v>10762833</v>
       </c>
     </row>
     <row r="122">
@@ -7342,16 +7340,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>REALME</t>
+          <t>TECNO</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>9 Pro 6/128GB Midnight Black Global Version</t>
+          <t>POP 5 BD2d 2/32GB Ice Lake Green (4895180775109)</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9699</v>
+        <v>2349</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -7362,17 +7360,17 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="J122" t="n">
-        <v>9245</v>
+        <v>2369</v>
       </c>
       <c r="K122" t="n">
-        <v>9245</v>
+        <v>2369</v>
       </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
@@ -7381,15 +7379,13 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3</v>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>STH0011440</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O122" t="n">
+        <v>4895180775109</v>
       </c>
       <c r="P122" t="n">
-        <v>8751666</v>
+        <v>8729180</v>
       </c>
     </row>
     <row r="123">
@@ -7400,16 +7396,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>REALME</t>
+          <t>UMIDIGI</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>C30s 3/64GB Stripe Blue</t>
+          <t>A11 3/64Gb Grey</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3299</v>
+        <v>3149</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -7420,17 +7416,17 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>-2.9%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>91.86</v>
+        <v>84</v>
       </c>
       <c r="J123" t="n">
-        <v>3399</v>
+        <v>3167</v>
       </c>
       <c r="K123" t="n">
-        <v>3399</v>
+        <v>3167</v>
       </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
@@ -7439,13 +7435,13 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="O123" t="n">
-        <v>6872881</v>
+        <v>747654</v>
       </c>
       <c r="P123" t="n">
-        <v>10151298</v>
+        <v>7148373</v>
       </c>
     </row>
     <row r="124">
@@ -7456,16 +7452,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G 6/128GB White (SM-A736BZWDSEK)</t>
+          <t>Redmi 12C 3/64GB Graphite Gray</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>14899</v>
+        <v>4399</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -7476,17 +7472,17 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>386.9</v>
+        <v>116.07</v>
       </c>
       <c r="J124" t="n">
-        <v>14780</v>
+        <v>4400</v>
       </c>
       <c r="K124" t="n">
-        <v>14780</v>
+        <v>4400</v>
       </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
@@ -7495,13 +7491,13 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O124" t="n">
-        <v>79230</v>
+        <v>977262</v>
       </c>
       <c r="P124" t="n">
-        <v>8690907</v>
+        <v>9799415</v>
       </c>
     </row>
     <row r="125">
@@ -7512,16 +7508,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy S10 128GB Green 1 Sim (G973U) USA Open Box</t>
+          <t>Redmi Note 10 5G 4/64GB Nighttime Blue Global Version</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>8499</v>
+        <v>4999</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -7532,34 +7528,32 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>-29.7%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>325</v>
+        <v>142</v>
       </c>
       <c r="J125" t="n">
-        <v>12091</v>
+        <v>5254</v>
       </c>
       <c r="K125" t="n">
-        <v>12091</v>
+        <v>5254</v>
       </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>102</v>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>STH0011954</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="O125" t="n">
+        <v>747544</v>
       </c>
       <c r="P125" t="n">
-        <v>-8771626</v>
+        <v>6889368</v>
       </c>
     </row>
     <row r="126">
@@ -7570,16 +7564,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy S20 5G SM-G9810 12/128Gb Cosmic Gray Asia Open Box</t>
+          <t>Redmi Note 11 Pro 5G 6/128GB Graphite Gray Global Version</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>17999</v>
+        <v>8749</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -7590,17 +7584,17 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>450</v>
+        <v>229</v>
       </c>
       <c r="J126" t="n">
-        <v>17190</v>
+        <v>8748</v>
       </c>
       <c r="K126" t="n">
-        <v>17190</v>
+        <v>8748</v>
       </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
@@ -7609,15 +7603,15 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>STH0004390</t>
+          <t>STH0011131</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>8954638</v>
+        <v>8673049</v>
       </c>
     </row>
     <row r="127">
@@ -7628,16 +7622,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>ZTE</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy S20 8/128GB Cloud Blue (SM-G980FLBDSEK) Global Open Box</t>
+          <t>Blade V40 Vita 4/128GB Black</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>17199</v>
+        <v>4799</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -7648,17 +7642,17 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>12.8%</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>430</v>
+        <v>112</v>
       </c>
       <c r="J127" t="n">
-        <v>16426</v>
+        <v>4256</v>
       </c>
       <c r="K127" t="n">
-        <v>16426</v>
+        <v>4256</v>
       </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
@@ -7667,411 +7661,13 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>7</v>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>STH0004156</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="O127" t="n">
+        <v>951876</v>
       </c>
       <c r="P127" t="n">
-        <v>8934916</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>SIGMA MOBILE</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>X-Style 31 Power Type-C Purple</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>929</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9</v>
-      </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="n">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="J128" t="n">
-        <v>846</v>
-      </c>
-      <c r="K128" t="n">
-        <v>846</v>
-      </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
-        <v>20</v>
-      </c>
-      <c r="O128" t="n">
-        <v>448250</v>
-      </c>
-      <c r="P128" t="n">
-        <v>9532108</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>TECNO</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Camon 19 Neo CH6i 6/128GB Eco Black (4895180783951)</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>5099</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9</v>
-      </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="n">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="I129" t="n">
-        <v>134</v>
-      </c>
-      <c r="J129" t="n">
-        <v>5119</v>
-      </c>
-      <c r="K129" t="n">
-        <v>5119</v>
-      </c>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>ФотУц</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
-        <v>3</v>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>U0653230</t>
-        </is>
-      </c>
-      <c r="P129" t="n">
-        <v>-8761059</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>TECNO</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>POP 5 BD2d 2/32GB Ice Lake Green (4895180775109)</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>2399</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9</v>
-      </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="n">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
-        <v>62</v>
-      </c>
-      <c r="J130" t="n">
-        <v>2369</v>
-      </c>
-      <c r="K130" t="n">
-        <v>2369</v>
-      </c>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
-        <v>6</v>
-      </c>
-      <c r="O130" t="n">
-        <v>4895180775109</v>
-      </c>
-      <c r="P130" t="n">
-        <v>8729180</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>TECNO</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Spark 8C KG5j 2/64GB Diamond Grey (4895180777677)</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>2399</v>
-      </c>
-      <c r="E131" t="n">
-        <v>9</v>
-      </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="n">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>-30.3%</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
-        <v>93</v>
-      </c>
-      <c r="J131" t="n">
-        <v>3441</v>
-      </c>
-      <c r="K131" t="n">
-        <v>3441</v>
-      </c>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>ФотУц</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
-        <v>80</v>
-      </c>
-      <c r="O131" t="n">
-        <v>4895180777677</v>
-      </c>
-      <c r="P131" t="n">
-        <v>-9150395</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>UMIDIGI</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>A11 3/64Gb Grey</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>3249</v>
-      </c>
-      <c r="E132" t="n">
-        <v>9</v>
-      </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="n">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
-        <v>84</v>
-      </c>
-      <c r="J132" t="n">
-        <v>3167</v>
-      </c>
-      <c r="K132" t="n">
-        <v>3167</v>
-      </c>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
-        <v>14</v>
-      </c>
-      <c r="O132" t="n">
-        <v>747654</v>
-      </c>
-      <c r="P132" t="n">
-        <v>7148373</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>XIAOMI</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Redmi Note 10 5G 4/64GB Blue NFC Global Version</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>5249</v>
-      </c>
-      <c r="E133" t="n">
-        <v>9</v>
-      </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="n">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="I133" t="n">
-        <v>142</v>
-      </c>
-      <c r="J133" t="n">
-        <v>5254</v>
-      </c>
-      <c r="K133" t="n">
-        <v>5254</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
-        <v>45</v>
-      </c>
-      <c r="O133" t="n">
-        <v>747544</v>
-      </c>
-      <c r="P133" t="n">
-        <v>6889368</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>XIAOMI</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Redmi Note 11 Pro 5G 6/128GB Graphite Gray Global Version</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>8899</v>
-      </c>
-      <c r="E134" t="n">
-        <v>9</v>
-      </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="n">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="I134" t="n">
-        <v>229</v>
-      </c>
-      <c r="J134" t="n">
-        <v>8748</v>
-      </c>
-      <c r="K134" t="n">
-        <v>8748</v>
-      </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
-        <v>7</v>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>STH0011131</t>
-        </is>
-      </c>
-      <c r="P134" t="n">
-        <v>8673049</v>
+        <v>9327982</v>
       </c>
     </row>
   </sheetData>
@@ -8085,7 +7681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8168,21 +7764,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Жесткие диски - карманы</t>
+          <t>Видео адаптеры</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAIWO</t>
+          <t>PNY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>K16NC</t>
+          <t>GeForce GTX 1660 Ti XLR8 (VCG1660T6SFPPB-O)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>249</v>
+        <v>6499</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -8190,14 +7786,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-51.7%</t>
+          <t>-74.0%</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13.92</v>
+        <v>675.3200000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>516</v>
+        <v>24987</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
@@ -8206,13 +7802,13 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M2" t="n">
-        <v>47136</v>
+        <v>17050086</v>
       </c>
       <c r="N2" t="n">
-        <v>-4695840</v>
+        <v>-4682109</v>
       </c>
     </row>
     <row r="3">
@@ -8228,43 +7824,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C600 256GB mSATA SATA III (SKC600MS/256G)</t>
+          <t>NV2 1TB M.2 PCIe 4.0 (SNV2S/1000G)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1029</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>1699</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Строгач</t>
+        </is>
+      </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>26.86</v>
+        <v>42</v>
       </c>
       <c r="I3" t="n">
-        <v>1027</v>
+        <v>1586</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>SKC600MS/256G</t>
+          <t>SNV2S/1000G</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>6493078</v>
+        <v>9134218</v>
       </c>
     </row>
     <row r="4">
@@ -8275,16 +7875,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>TEAM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Design-In 512 GB (OM3PDP3512B-A01)</t>
+          <t>SATA 512GB (T253X2512G0C101) GX2</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1899</v>
+        <v>789</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
@@ -8292,14 +7892,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>48.93</v>
+        <v>20.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1870</v>
+        <v>784</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
@@ -8308,87 +7908,85 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>347962</v>
+        <v>78511</v>
       </c>
       <c r="N4" t="n">
-        <v>6364772</v>
+        <v>3352005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Жесткие диски SSD</t>
+          <t>Модули памяти</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PATRIOT MEMORY</t>
+          <t>KINGSTON</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Burst Elite 480GB 2.5 SATA III (PBE480GS25SSDR)</t>
+          <t>DDR4 32GB, 2666MHz, PC4-21300, ECC Reg 2R (KSM26RD4/32MEI)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>709</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Строгач</t>
-        </is>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-89.1%</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>18.5</v>
+        <v>181.9</v>
       </c>
       <c r="I5" t="n">
-        <v>691</v>
+        <v>5057</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>37</v>
-      </c>
-      <c r="M5" t="n">
-        <v>336786</v>
+        <v>849</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>KSM26RD4/32MEI</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>5899212</v>
+        <v>-3392440</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Материнские платы</t>
+          <t>Модули памяти</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASROCK</t>
+          <t>KINGSTON FURY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B760M PG Lightning</t>
+          <t>DRAM 64GB 5200MT/s DDR5 CL40 DIMM (Kit of 2) FURY Beast Black EAN: 740617326550 (KF552C40BBK2-64)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5229</v>
+        <v>7249</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -8396,14 +7994,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-46.7%</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>137.03</v>
+        <v>344.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5167</v>
+        <v>13600</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
@@ -8412,33 +8010,35 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>32</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3703814</v>
+        <v>269</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>KF552C40BBK2-64</t>
+        </is>
       </c>
       <c r="N6" t="n">
-        <v>10610047</v>
+        <v>8803411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KINGSTON FURY</t>
+          <t>HOCO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>KF556C40BBK2-16 (KF556C40BBK2-16)</t>
+          <t>EW29 White</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2999</v>
+        <v>449</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -8446,49 +8046,49 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>77.54000000000001</v>
+        <v>11.55</v>
       </c>
       <c r="I7" t="n">
-        <v>2924</v>
+        <v>442</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M7" t="n">
-        <v>3701564</v>
+        <v>24602</v>
       </c>
       <c r="N7" t="n">
-        <v>8806743</v>
+        <v>10660638</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Xtreme 3 Black (JBLXTREME3BLKEU)</t>
+          <t>RP-HJE125E Blue</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10999</v>
+        <v>199</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -8496,47 +8096,47 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20.4%</t>
+          <t>-19.7%</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>246.81</v>
+        <v>6.66</v>
       </c>
       <c r="I8" t="n">
-        <v>9132</v>
+        <v>248</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>5668153</v>
+        <v>571150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>REAL-EL</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>S-2030 Black</t>
+          <t>Redmi Buds 3 Pro Graphite Black (BHR5244GL)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5749</v>
+        <v>1389</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -8544,49 +8144,49 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-28.1%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>209.37</v>
+        <v>36.5</v>
       </c>
       <c r="I9" t="n">
-        <v>7998</v>
+        <v>1351</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="M9" t="n">
-        <v>428453</v>
+        <v>851916</v>
       </c>
       <c r="N9" t="n">
-        <v>-9078520</v>
+        <v>7537064</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GENIUS</t>
+          <t>CUBOT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DX-125 USB Black (31010106100)</t>
+          <t>J10 1/32GB Green</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>99</v>
+        <v>1799</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
@@ -8594,49 +8194,51 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9.7%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2.36</v>
+        <v>48</v>
       </c>
       <c r="I10" t="n">
-        <v>91</v>
+        <v>1810</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>9</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6261261</v>
+        <v>36</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>STH0010228</t>
+        </is>
       </c>
       <c r="N10" t="n">
-        <v>1839100</v>
+        <v>8477076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pebble M350 Wireless Lavender Lemonade (910-006752)</t>
+          <t>Redmi Note 11 Pro 6/128GB Polar White Global Version</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>749</v>
+        <v>8699</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
@@ -8644,14 +8246,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>19.37</v>
+        <v>223</v>
       </c>
       <c r="I11" t="n">
-        <v>731</v>
+        <v>8519</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
@@ -8660,515 +8262,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>15</v>
-      </c>
-      <c r="M11" t="n">
-        <v>435525</v>
+        <v>2</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>STH0011284</t>
+        </is>
       </c>
       <c r="N11" t="n">
-        <v>9287953</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Мыши</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>RAZER</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Мышь Basilisk V3 (RZ01-04000100-R3M1)</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2499</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>19.0%</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>55.68</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2100</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>18</v>
-      </c>
-      <c r="M12" t="n">
-        <v>65637</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7721699</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Мыши</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TRUST</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mydo Silent Click Wireless Mouse Red (21871)</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>199</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-18.7%</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>245</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>49</v>
-      </c>
-      <c r="M13" t="n">
-        <v>6378232</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2810008</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Мыши - коврики</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DEFENDER</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>School (в ассортименте) (50305)</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>29</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I14" t="n">
-        <v>27</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>23</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>754119</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Наушники</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>RAZER</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Гарнитура Hammerhead True Wireless X (RZ12-03830100-R3G1)</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2299</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>9.5%</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2100</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>9</v>
-      </c>
-      <c r="M15" t="n">
-        <v>65594</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7130817</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Наушники</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SENNHEISER</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>HDR 175</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2499</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-55.2%</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5578</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ФотУц</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>290</v>
-      </c>
-      <c r="M16" t="n">
-        <v>505582</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-1282398</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Наушники</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>WUW</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>R31 with mic white (WUW-R31)</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>49</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>11.3%</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I17" t="n">
-        <v>44</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>7</v>
-      </c>
-      <c r="M17" t="n">
-        <v>113918</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6810525</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Планшетные ПК</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>XIAOMI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Redmi Pad 3/64GB Mint Green</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>6299</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>173</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6401</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>31</v>
-      </c>
-      <c r="M18" t="n">
-        <v>954472</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9166825</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CUBOT</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Note 9 3/32GB Black</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2749</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>103</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3811</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ФотУц</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>74</v>
-      </c>
-      <c r="M19" t="n">
-        <v>747835</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-7601530</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Galaxy A53 5G 8/256GB Light Blue (SM-A536ELBHSEK)</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>14299</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>398</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15005</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ФотУц</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>21</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>U0637914</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>-8732080</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>SIGMA MOBILE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>X-Style 31 Power Type-C Black</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>879</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="I21" t="n">
-        <v>831</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>25</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>ТЛГ057350</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>9622881</v>
+        <v>8757545</v>
       </c>
     </row>
   </sheetData>
@@ -9270,16 +8372,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>CRUCIAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEGEND 710 2TB M.2 PCIe 3.0 (ALEG-710-2TCS)</t>
+          <t>BX500 500GB 2.5 SATA III (CT500BX500SSD1)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3129</v>
+        <v>949</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -9287,14 +8389,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>78.8</v>
+        <v>25.02</v>
       </c>
       <c r="I2" t="n">
-        <v>3011</v>
+        <v>949</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
@@ -9303,13 +8405,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1390703</v>
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>U0666404</t>
+        </is>
       </c>
       <c r="N2" t="n">
-        <v>9712749</v>
+        <v>9077313</v>
       </c>
     </row>
     <row r="3">
@@ -9320,16 +8424,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HEWLETT PACKARD</t>
+          <t>PROMATE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Мишка HP 125 Wired, 3кн., 1200 dpi, чорна (265A9AA)</t>
+          <t>Мышь Kitt Wireless white (kitt.white)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>239</v>
+        <v>449</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
@@ -9337,49 +8441,51 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-13.7%</t>
+          <t>12.9%</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7.24</v>
+        <v>10.49</v>
       </c>
       <c r="I3" t="n">
-        <v>277</v>
+        <v>398</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>810643</v>
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>7099995|84d1e622-bd92-11ed-9105-a4bf014d67ab</t>
+        </is>
       </c>
       <c r="N3" t="n">
-        <v>6899120</v>
+        <v>9934165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VINGA</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MS-680 Black</t>
+          <t>Live Flex Silver (JBLLIVEFLEXSVR)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>119</v>
+        <v>4999</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
@@ -9387,14 +8493,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2.72</v>
+        <v>100.21</v>
       </c>
       <c r="I4" t="n">
-        <v>104</v>
+        <v>3798</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
@@ -9403,33 +8509,35 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>63571</v>
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>JBLLIVEFLEXSVR</t>
+        </is>
       </c>
       <c r="N4" t="n">
-        <v>3114114</v>
+        <v>10160857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Телефоны мобильные</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>REALME</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9 Pro 6/128GB Midnight Black Global Version</t>
+          <t>EO-IC100BBEGRU Black</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9699</v>
+        <v>549</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -9437,14 +8545,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>9245</v>
+        <v>535</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
@@ -9453,15 +8561,13 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>STH0011440</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6537049</v>
       </c>
       <c r="N5" t="n">
-        <v>8751666</v>
+        <v>4102014</v>
       </c>
     </row>
     <row r="6">
@@ -9472,16 +8578,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TECNO</t>
+          <t>GOOGLE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Camon 19 Neo CH6i 6/128GB Eco Black (4895180783951)</t>
+          <t>Pixel 6 8/128GB Stormy Black</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5099</v>
+        <v>14549</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -9489,31 +8595,31 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>134</v>
+        <v>365</v>
       </c>
       <c r="I6" t="n">
-        <v>5119</v>
+        <v>13834</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>U0653230</t>
+          <t>STH0010126</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>-8761059</v>
+        <v>8217466</v>
       </c>
     </row>
   </sheetData>
@@ -9527,7 +8633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9607,6 +8713,58 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Телефоны мобильные</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HONOR</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20 Pro 8/256GB Green</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10915</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-6.0%</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>304</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11613</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Фот</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>STH0003652</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>9199476</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/результат.xlsx
+++ b/files/результат.xlsx
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -546,7 +546,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>39.2%</t>
+          <t>27.8%</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1549</v>
+        <v>1529</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,7 +604,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1249</v>
+        <v>1199</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -662,7 +662,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-9.9%</t>
+          <t>-13.5%</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -718,7 +718,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-12.5%</t>
+          <t>-17.1%</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2112</v>
+        <v>2259</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
@@ -776,7 +776,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>16.3%</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1249</v>
+        <v>1199</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -834,7 +834,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>999</v>
+        <v>949</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -892,7 +892,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-2.1%</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>12.7%</t>
+          <t>-3.5%</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2199</v>
+        <v>2099</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>20.9%</t>
+          <t>15.4%</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1249</v>
+        <v>1199</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-15.8%</t>
+          <t>-19.2%</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-91.6%</t>
+          <t>-92.8%</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.5%</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1119</v>
+        <v>999</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>26.4%</t>
+          <t>12.9%</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>11.6%</t>
+          <t>9.5%</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-39.8%</t>
+          <t>-46.3%</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-6.5%</t>
+          <t>-13.0%</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>11499</v>
+        <v>10899</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-38.9%</t>
+          <t>-43.0%</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>80.1%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2499</v>
+        <v>2449</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-4.1%</t>
+          <t>-6.0%</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1799</v>
+        <v>1749</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-34.0%</t>
+          <t>-35.9%</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>999</v>
+        <v>949</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>15.5%</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-15.8%</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2465,7 +2465,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>45.0%</t>
+          <t>36.9%</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2499</v>
+        <v>2399</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-53.8%</t>
+          <t>-55.6%</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1899</v>
+        <v>1799</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-8.3%</t>
+          <t>-13.2%</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7699</v>
+        <v>7599</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7999</v>
+        <v>7899</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-7.2%</t>
+          <t>-8.4%</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10299</v>
+        <v>10149</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-2.0%</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>899</v>
+        <v>799</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-30.8%</t>
+          <t>-38.5%</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>9.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4349</v>
+        <v>4299</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4699</v>
+        <v>4599</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4699</v>
+        <v>4599</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13899</v>
+        <v>14499</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>11.1%</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>9499</v>
+        <v>8999</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-22.2%</t>
+          <t>-26.3%</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13999</v>
+        <v>13499</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>-9.2%</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5599</v>
+        <v>5499</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3999</v>
+        <v>3899</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>13.3%</t>
+          <t>10.4%</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4049</v>
+        <v>3999</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-4.6%</t>
+          <t>-5.8%</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4999</v>
+        <v>4899</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -3831,7 +3831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3911,58 +3911,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Жесткие диски SSD</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>KINGSTON</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NV2 1TB M.2 PCIe 4.0 (SNV2S/1000G)</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2112</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8.7%</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>50.73</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1943</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>SNV2S/1000G</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>9134218</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/результат.xlsx
+++ b/files/результат.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -546,7 +546,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>27.8%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1529</v>
+        <v>1399</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,7 +604,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-8.2%</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -637,21 +637,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Жесткие диски</t>
+          <t>Видео адаптеры</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WESTERN DIGITAL</t>
+          <t>SAPPHIRE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SAS 2.0TB Enterprise Class (WD2000FYYG)</t>
+          <t>Radeon RX 7800 XT 16GB GDDR6 Nitro+ GAMING OC (11330-01-20G)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1199</v>
+        <v>25749</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -662,52 +662,54 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-13.5%</t>
+          <t>-5.4%</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>36.3</v>
+        <v>711</v>
       </c>
       <c r="J4" t="n">
-        <v>1387</v>
+        <v>27232</v>
       </c>
       <c r="K4" t="n">
-        <v>1387</v>
+        <v>27232</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>22</v>
-      </c>
-      <c r="O4" t="n">
-        <v>367703</v>
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>11330-01-20G</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>-7173884</v>
+        <v>10879235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Жесткие диски - сумки</t>
+          <t>Видео адаптеры</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RIVACASE</t>
+          <t>SAPPHIRE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Чехол RivaCase 9101 (Blue) HDD</t>
+          <t>Radeon RX 7800 XT 16GB GDDR6 Pure GAMING OC (11330-03-20G)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>179</v>
+        <v>25149</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -718,17 +720,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-17.1%</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5.65</v>
+        <v>689</v>
       </c>
       <c r="J5" t="n">
-        <v>216</v>
+        <v>26389</v>
       </c>
       <c r="K5" t="n">
-        <v>216</v>
+        <v>26389</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
@@ -737,35 +739,35 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>U0458920</t>
+          <t>11330-03-20G</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>8668934</v>
+        <v>10879237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Жесткие диски SSD</t>
+          <t>Жесткие диски</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>WESTERN DIGITAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NV2 1TB M.2 PCIe 4.0 (SNV2S/1000G)</t>
+          <t>SAS 2.0TB Enterprise Class (WD2000FYYG)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2259</v>
+        <v>1099</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -776,54 +778,52 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>16.3%</t>
+          <t>-20.8%</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>50.73</v>
+        <v>36.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1943</v>
+        <v>1387</v>
       </c>
       <c r="K6" t="n">
-        <v>1943</v>
+        <v>1387</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>SNV2S/1000G</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>367703</v>
       </c>
       <c r="P6" t="n">
-        <v>9134218</v>
+        <v>-7173884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Жесткие диски SSD</t>
+          <t>Жесткие диски - сумки</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MYMEDIA</t>
+          <t>RIVACASE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Зовнішній накопичувач External SSD 512 GB (069285)</t>
+          <t>Чехол RivaCase 9101 (Blue) HDD</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1199</v>
+        <v>139</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -834,17 +834,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>-35.8%</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>30.91</v>
+        <v>5.65</v>
       </c>
       <c r="J7" t="n">
-        <v>1184</v>
+        <v>216</v>
       </c>
       <c r="K7" t="n">
-        <v>1184</v>
+        <v>216</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
@@ -853,35 +853,35 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>069285</t>
+          <t>U0458920</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>7957220</v>
+        <v>8668934</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Игровые манипуляторы</t>
+          <t>Жесткие диски SSD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IPEGA</t>
+          <t>KINGSTON</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>iPega PG-9156 Batman 3 in 1 Bluetooth PC/Android/iOS Black (SGWGCP9156)</t>
+          <t>NV2 1TB M.2 PCIe 4.0 (SNV2S/1000G)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>949</v>
+        <v>2049</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -892,17 +892,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-2.1%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>25.3</v>
+        <v>50.73</v>
       </c>
       <c r="J8" t="n">
-        <v>969</v>
+        <v>1943</v>
       </c>
       <c r="K8" t="n">
-        <v>969</v>
+        <v>1943</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
@@ -911,35 +911,35 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>PG-9156</t>
+          <t>SNV2S/1000G</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>7691607</v>
+        <v>9134218</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Клавиатуры</t>
+          <t>Жесткие диски SSD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A-4 TECH</t>
+          <t>MYMEDIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>KR-83 PS/2 (Black) (0200085)</t>
+          <t>Зовнішній накопичувач External SSD 512 GB (069285)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>299</v>
+        <v>1099</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -950,17 +950,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-3.5%</t>
+          <t>-7.2%</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8.08</v>
+        <v>30.91</v>
       </c>
       <c r="J9" t="n">
-        <v>310</v>
+        <v>1184</v>
       </c>
       <c r="K9" t="n">
-        <v>310</v>
+        <v>1184</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
@@ -969,35 +969,35 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0200085</t>
+          <t>069285</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>9249790</v>
+        <v>7957220</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Клавиатуры</t>
+          <t>Игровые манипуляторы</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>IPEGA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>G213 Prodigy RGB Gaming (920-008092)</t>
+          <t>iPega PG-9156 Batman 3 in 1 Bluetooth PC/Android/iOS Black (SGWGCP9156)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2099</v>
+        <v>849</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1008,17 +1008,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15.4%</t>
+          <t>-12.4%</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>47.5</v>
+        <v>25.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1820</v>
+        <v>969</v>
       </c>
       <c r="K10" t="n">
-        <v>1820</v>
+        <v>969</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
@@ -1027,11 +1027,15 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>PG-9156</t>
+        </is>
+      </c>
       <c r="P10" t="n">
-        <v>1964383</v>
+        <v>7691607</v>
       </c>
     </row>
     <row r="11">
@@ -1042,16 +1046,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OFFICEPRO</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SK1500 White (SK1500W)</t>
+          <t>G213 Prodigy RGB Gaming (920-008092)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1199</v>
+        <v>2049</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1062,52 +1066,50 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-19.2%</t>
+          <t>12.6%</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>38.74</v>
+        <v>47.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1484</v>
+        <v>1820</v>
       </c>
       <c r="K11" t="n">
-        <v>1484</v>
+        <v>1820</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>6722822</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>-7714307</v>
+        <v>1964383</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Клавиатуры</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEEPCOOL</t>
+          <t>OFFICEPRO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>XFAN 80 (DP-FDC-XF80)</t>
+          <t>SK1500 White (SK1500W)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>89</v>
+        <v>1099</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1118,50 +1120,52 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>28.2%</t>
+          <t>-25.9%</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1.81</v>
+        <v>38.74</v>
       </c>
       <c r="J12" t="n">
-        <v>70</v>
+        <v>1484</v>
       </c>
       <c r="K12" t="n">
-        <v>70</v>
+        <v>1484</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6722822</v>
+      </c>
       <c r="P12" t="n">
-        <v>262689</v>
+        <v>-7714307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры - аксессуары</t>
+          <t>Компьютерные кулеры</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COOLERMASTER</t>
+          <t>DEEPCOOL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Термопрокладка CoolerMaster Thermal Pads M.2 SSD 60x18x0.5mm 4 in 1 kit (CMA-TNCLP4XXBK1-GL)</t>
+          <t>XFAN 80 (DP-FDC-XF80)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1172,34 +1176,30 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4.91</v>
+        <v>1.81</v>
       </c>
       <c r="J13" t="n">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="K13" t="n">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>U0840910</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>10733608</v>
+        <v>262689</v>
       </c>
     </row>
     <row r="14">
@@ -1210,37 +1210,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ID-COOLING</t>
+          <t>COOLERMASTER</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Разветвитель питания вентиляторов ID-Cooling FS-04 ARGB Splitter 1-4</t>
+          <t>Термопрокладка CoolerMaster Thermal Pads M.2 SSD 60x18x0.5mm 4 in 1 kit (CMA-TNCLP4XXBK1-GL)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>28.2%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>4.91</v>
       </c>
       <c r="J14" t="n">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="K14" t="n">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
@@ -1249,69 +1249,71 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>189</v>
-      </c>
-      <c r="O14" t="n">
-        <v>444082</v>
+        <v>13</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>U0840910</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>9436713</v>
+        <v>10733608</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Компьютерные кулеры - аксессуары</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GOODRAM</t>
+          <t>ID-COOLING</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DDR3L 8Gb, 1600MHz, PC3-12800 (W-MEM1600R3D48G)</t>
+          <t>Разветвитель питания вентиляторов ID-Cooling FS-04 ARGB Splitter 1-4</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>799</v>
+        <v>135</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-12.9%</t>
+          <t>8.4%</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>24</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>917</v>
+        <v>124</v>
       </c>
       <c r="K15" t="n">
-        <v>917</v>
+        <v>248</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="O15" t="n">
-        <v>3309121</v>
+        <v>444082</v>
       </c>
       <c r="P15" t="n">
-        <v>-2775878</v>
+        <v>9436713</v>
       </c>
     </row>
     <row r="16">
@@ -1322,16 +1324,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>GOODRAM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DDR3 16GB, 1600MHz, PC3-12800, ECC (KVR16LR11D4/16)</t>
+          <t>DDR3 8GB, 1600MHz, PC3-12800 (GR1600D364L11/8G)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>299</v>
+        <v>619</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1342,54 +1344,50 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-92.8%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>109</v>
+        <v>16.63</v>
       </c>
       <c r="J16" t="n">
-        <v>4164</v>
+        <v>637</v>
       </c>
       <c r="K16" t="n">
-        <v>4164</v>
+        <v>637</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>31</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>U0102692</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>-1463462</v>
+        <v>463934</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Модули памяти</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>GOODRAM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Акустична система 1.0 Defender SPK 33, 5Вт, USB (65633)</t>
+          <t>DDR3L 8Gb, 1600MHz, PC3-12800 (W-MEM1600R3D48G)</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1400,52 +1398,52 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-4.5%</t>
+          <t>-72.8%</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3.83</v>
+        <v>24</v>
       </c>
       <c r="J17" t="n">
-        <v>146</v>
+        <v>917</v>
       </c>
       <c r="K17" t="n">
-        <v>146</v>
+        <v>917</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="O17" t="n">
-        <v>201296</v>
+        <v>3309121</v>
       </c>
       <c r="P17" t="n">
-        <v>2597187</v>
+        <v>-2775878</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Модули памяти</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>KINGSTON</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pulse 5 Black (JBLPULSE5BLK)</t>
+          <t>DDR3 16GB, 1600MHz, PC3-12800, ECC (KVR16LR11D4/16)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9499</v>
+        <v>299</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1456,34 +1454,34 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>23.5%</t>
+          <t>-92.8%</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>200.84</v>
+        <v>109</v>
       </c>
       <c r="J18" t="n">
-        <v>7693</v>
+        <v>4164</v>
       </c>
       <c r="K18" t="n">
-        <v>7693</v>
+        <v>4164</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>JBLPULSE5BLK</t>
+          <t>U0102692</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>9648680</v>
+        <v>-1463462</v>
       </c>
     </row>
     <row r="19">
@@ -1494,16 +1492,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Z-150 Black (980-000814)</t>
+          <t>Акустична система 1.0 Defender SPK 33, 5Вт, USB (65633)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>999</v>
+        <v>129</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1514,17 +1512,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12.9%</t>
+          <t>-11.3%</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>23.11</v>
+        <v>3.83</v>
       </c>
       <c r="J19" t="n">
-        <v>886</v>
+        <v>146</v>
       </c>
       <c r="K19" t="n">
-        <v>886</v>
+        <v>146</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
@@ -1533,11 +1531,13 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="O19" t="n">
+        <v>201296</v>
+      </c>
       <c r="P19" t="n">
-        <v>698501</v>
+        <v>2597187</v>
       </c>
     </row>
     <row r="20">
@@ -1548,16 +1548,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>REAL-EL</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>S-80 Black</t>
+          <t>Pulse 5 Black (JBLPULSE5BLK)</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>429</v>
+        <v>9499</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1568,17 +1568,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>23.5%</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>10.7</v>
+        <v>200.84</v>
       </c>
       <c r="J20" t="n">
-        <v>410</v>
+        <v>7693</v>
       </c>
       <c r="K20" t="n">
-        <v>410</v>
+        <v>7693</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
@@ -1587,33 +1587,35 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>151709</v>
+        <v>6</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>JBLPULSE5BLK</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>1910314</v>
+        <v>9648680</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRUST</t>
+          <t>MEDIA-TECH</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mila (16697)</t>
+          <t>COBRA PRO (MT1115)</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>519</v>
+        <v>129</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1624,30 +1626,32 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>9.5%</t>
+          <t>-44.7%</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>12.38</v>
+        <v>6.09</v>
       </c>
       <c r="J21" t="n">
-        <v>475</v>
+        <v>233</v>
       </c>
       <c r="K21" t="n">
-        <v>475</v>
+        <v>233</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="O21" t="n">
+        <v>150729</v>
+      </c>
       <c r="P21" t="n">
-        <v>304334</v>
+        <v>2449527</v>
       </c>
     </row>
     <row r="22">
@@ -1667,7 +1671,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>999</v>
+        <v>899</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1678,7 +1682,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-41.0%</t>
+          <t>-46.9%</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1697,7 +1701,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1711,21 +1715,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Мыши - коврики</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VERTUX</t>
+          <t>ESPERANZA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dominator USB Grey (dominator.grey)</t>
+          <t>Classic (EA146K)</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -1736,54 +1740,52 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-46.3%</t>
+          <t>-19.2%</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>12.26</v>
+        <v>4.16</v>
       </c>
       <c r="J23" t="n">
-        <v>464</v>
+        <v>160</v>
       </c>
       <c r="K23" t="n">
-        <v>464</v>
+        <v>160</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>30</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>4072486|75dc153b-f936-11eb-90f5-b4a9fc43a3f9</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="O23" t="n">
+        <v>174748</v>
       </c>
       <c r="P23" t="n">
-        <v>7309538</v>
+        <v>2107365</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Мыши - коврики</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ESPERANZA</t>
+          <t>AIRON</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Classic (EA146K)</t>
+          <t>Наушники AirTune PLAY (6945545521570)</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>139</v>
+        <v>699</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -1794,32 +1796,32 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-13.0%</t>
+          <t>-8.2%</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>4.16</v>
+        <v>19.87</v>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>762</v>
       </c>
       <c r="K24" t="n">
-        <v>160</v>
+        <v>762</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>174748</v>
+        <v>6945545521570</v>
       </c>
       <c r="P24" t="n">
-        <v>2107365</v>
+        <v>7995426</v>
       </c>
     </row>
     <row r="25">
@@ -1830,16 +1832,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AIRON</t>
+          <t>APPLE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Наушники AirTune PLAY (6945545521570)</t>
+          <t>AirPods Pro 2nd generation (MQD83)</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>699</v>
+        <v>11499</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -1850,17 +1852,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-8.2%</t>
+          <t>8.7%</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>19.87</v>
+        <v>276.14</v>
       </c>
       <c r="J25" t="n">
-        <v>762</v>
+        <v>10577</v>
       </c>
       <c r="K25" t="n">
-        <v>762</v>
+        <v>10577</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
@@ -1869,13 +1871,15 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>15</v>
-      </c>
-      <c r="O25" t="n">
-        <v>6945545521570</v>
+        <v>11</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>U0700262</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>7995426</v>
+        <v>9154801</v>
       </c>
     </row>
     <row r="26">
@@ -1886,16 +1890,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>APPLE</t>
+          <t>HOCO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AirPods Pro 2nd generation (MQD83)</t>
+          <t>M86 Type-C White</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10899</v>
+        <v>99</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -1906,17 +1910,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>19.4%</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>276.14</v>
+        <v>2.16</v>
       </c>
       <c r="J26" t="n">
-        <v>10577</v>
+        <v>83</v>
       </c>
       <c r="K26" t="n">
-        <v>10577</v>
+        <v>83</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
@@ -1925,15 +1929,13 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>U0700262</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>388340003</v>
       </c>
       <c r="P26" t="n">
-        <v>9154801</v>
+        <v>9534161</v>
       </c>
     </row>
     <row r="27">
@@ -1944,16 +1946,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GAMEPRO</t>
+          <t>HYPERX</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HS382 Black</t>
+          <t>Cloud Core DTS Black (4P4F2AA)</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>279</v>
+        <v>2699</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -1964,17 +1966,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-43.0%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>12.8</v>
+        <v>68.03</v>
       </c>
       <c r="J27" t="n">
-        <v>489</v>
+        <v>2606</v>
       </c>
       <c r="K27" t="n">
-        <v>489</v>
+        <v>2606</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
@@ -1983,15 +1985,15 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>7163893|399af365-cf0e-11ed-9105-a4bf014d67ab</t>
+          <t>U0455426</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>10180375</v>
+        <v>5299847</v>
       </c>
     </row>
     <row r="28">
@@ -2002,16 +2004,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HOCO</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>M86 Type-C White</t>
+          <t>Live Flex Silver (JBLLIVEFLEXSVR)</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>129</v>
+        <v>3899</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2022,32 +2024,34 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2.16</v>
+        <v>100.21</v>
       </c>
       <c r="J28" t="n">
-        <v>83</v>
+        <v>3839</v>
       </c>
       <c r="K28" t="n">
-        <v>83</v>
+        <v>3839</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
-      </c>
-      <c r="O28" t="n">
-        <v>388340003</v>
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>JBLLIVEFLEXSVR</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>9534161</v>
+        <v>-10160857</v>
       </c>
     </row>
     <row r="29">
@@ -2058,16 +2062,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HYPERX</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cloud Core 7.1 Black (4P4F2AA)</t>
+          <t>Quantum 100X Black (JBLQ100XBLKGRN)</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2449</v>
+        <v>1099</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2078,17 +2082,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-6.0%</t>
+          <t>28.1%</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>68.03</v>
+        <v>22.4</v>
       </c>
       <c r="J29" t="n">
-        <v>2606</v>
+        <v>858</v>
       </c>
       <c r="K29" t="n">
-        <v>2606</v>
+        <v>858</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
@@ -2099,13 +2103,11 @@
       <c r="N29" t="n">
         <v>4</v>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>U0455426</t>
-        </is>
+      <c r="O29" t="n">
+        <v>991894</v>
       </c>
       <c r="P29" t="n">
-        <v>5299847</v>
+        <v>10431531</v>
       </c>
     </row>
     <row r="30">
@@ -2121,11 +2123,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Live Flex Silver (JBLLIVEFLEXSVR)</t>
+          <t>T110 Black (JBLT110BLK)</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4999</v>
+        <v>279</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2136,34 +2138,32 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>20.3%</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>100.21</v>
+        <v>6.05</v>
       </c>
       <c r="J30" t="n">
-        <v>3798</v>
+        <v>232</v>
       </c>
       <c r="K30" t="n">
-        <v>3798</v>
+        <v>232</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>29</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>JBLLIVEFLEXSVR</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="O30" t="n">
+        <v>275085</v>
       </c>
       <c r="P30" t="n">
-        <v>10160857</v>
+        <v>2085204</v>
       </c>
     </row>
     <row r="31">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>T110 Black (JBLT110BLK)</t>
+          <t>T110 White (JBLT110WHT)</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -2194,17 +2194,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>20.3%</t>
+          <t>28.4%</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6.05</v>
+        <v>5.73</v>
       </c>
       <c r="J31" t="n">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K31" t="n">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="O31" t="n">
-        <v>275085</v>
+        <v>268085</v>
       </c>
       <c r="P31" t="n">
-        <v>2085204</v>
+        <v>2085272</v>
       </c>
     </row>
     <row r="32">
@@ -2235,11 +2235,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>T110 White (JBLT110WHT)</t>
+          <t>Wave Beam White (JBLWBEAMWHT)</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>279</v>
+        <v>1999</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2250,32 +2250,34 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>28.4%</t>
+          <t>17.7%</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5.73</v>
+        <v>44.36</v>
       </c>
       <c r="J32" t="n">
-        <v>218</v>
+        <v>1699</v>
       </c>
       <c r="K32" t="n">
-        <v>218</v>
+        <v>1699</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>30</v>
-      </c>
-      <c r="O32" t="n">
-        <v>268085</v>
+        <v>1</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>JBLWBEAMWHT</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>2085272</v>
+        <v>9815649</v>
       </c>
     </row>
     <row r="33">
@@ -2295,7 +2297,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1749</v>
+        <v>1699</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2306,7 +2308,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-35.9%</t>
+          <t>-37.7%</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2325,7 +2327,7 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O33" t="n">
         <v>53408</v>
@@ -2342,16 +2344,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Enco Buds 2 White</t>
+          <t>RP-HJE118GU Silver</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>949</v>
+        <v>239</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2362,17 +2364,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>15.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>21.45</v>
+        <v>6.14</v>
       </c>
       <c r="J34" t="n">
-        <v>822</v>
+        <v>236</v>
       </c>
       <c r="K34" t="n">
-        <v>822</v>
+        <v>236</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
@@ -2381,15 +2383,11 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>6892385|83de5d30-5122-11ed-9101-a4bf014d67ab</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>9317641</v>
+        <v>615436</v>
       </c>
     </row>
     <row r="35">
@@ -2409,7 +2407,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2420,7 +2418,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2435,11 +2433,11 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
         <v>6028990</v>
@@ -2465,7 +2463,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>849</v>
+        <v>1199</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2476,7 +2474,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>36.9%</t>
+          <t>93.3%</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2495,7 +2493,7 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
         <v>484000378</v>
@@ -2521,7 +2519,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2399</v>
+        <v>2199</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -2532,7 +2530,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-55.6%</t>
+          <t>-59.3%</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2551,7 +2549,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O37" t="n">
         <v>505582</v>
@@ -2563,21 +2561,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Планшетные ПК</t>
+          <t>Процессоры</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PRESTIGIO</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Q Mini 4137 4G 1/16GB Black (PMT4137_4G_D_EU)</t>
+          <t>Ryzen 7 5800X (100-100000063WOF)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1799</v>
+        <v>7849</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -2588,54 +2586,52 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-13.2%</t>
+          <t>-9.0%</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>54.09</v>
+        <v>233</v>
       </c>
       <c r="J38" t="n">
-        <v>2072</v>
+        <v>8621</v>
       </c>
       <c r="K38" t="n">
-        <v>2072</v>
+        <v>8621</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>PMT4137_4G_D_EU</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="O38" t="n">
+        <v>327457</v>
       </c>
       <c r="P38" t="n">
-        <v>-7332319</v>
+        <v>5586726</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Планшетные ПК</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>LAND ROVER</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Redmi Pad SE 4/128GB Mint Green</t>
+          <t>T3 Black</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7599</v>
+        <v>699</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -2646,52 +2642,54 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-46.2%</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>191.78</v>
+        <v>34</v>
       </c>
       <c r="J39" t="n">
-        <v>7346</v>
+        <v>1299</v>
       </c>
       <c r="K39" t="n">
-        <v>7346</v>
+        <v>1299</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>7</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1001346</v>
+        <v>19</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>6009b371fc0d3022243dde9c</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>10781582</v>
+        <v>-6002172</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Процессоры</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>MAXCOM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800X (100-100000063WOF)</t>
+          <t>Classic MM135 Black/Blue</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7899</v>
+        <v>429</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -2702,17 +2700,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-8.4%</t>
+          <t>-6.1%</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>233</v>
+        <v>11.93</v>
       </c>
       <c r="J40" t="n">
-        <v>8621</v>
+        <v>457</v>
       </c>
       <c r="K40" t="n">
-        <v>8621</v>
+        <v>457</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
@@ -2721,13 +2719,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>9</v>
-      </c>
-      <c r="O40" t="n">
-        <v>327457</v>
+        <v>6</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>00-00039643</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>5586726</v>
+        <v>3243074</v>
       </c>
     </row>
     <row r="41">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GOOGLE</t>
+          <t>NOKIA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pixel 5 8/128Gb Sorta Sage Global Version</t>
+          <t>G11 4/64GB Ice</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10149</v>
+        <v>4249</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -2758,32 +2758,34 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-2.0%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="J41" t="n">
-        <v>10353</v>
+        <v>4207</v>
       </c>
       <c r="K41" t="n">
-        <v>10353</v>
+        <v>4207</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
-      </c>
-      <c r="O41" t="n">
-        <v>745831</v>
+        <v>13</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>U0655978</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>-5866565</v>
+        <v>8815500</v>
       </c>
     </row>
     <row r="42">
@@ -2794,16 +2796,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LAND ROVER</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>T3 Black</t>
+          <t>Galaxy A04 4/64GB Copper (SM-A045FZCGSEK)</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>799</v>
+        <v>4799</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -2814,34 +2816,34 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-38.5%</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>34</v>
+        <v>117.62</v>
       </c>
       <c r="J42" t="n">
-        <v>1299</v>
+        <v>4505</v>
       </c>
       <c r="K42" t="n">
-        <v>1299</v>
+        <v>4505</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>6009b371fc0d3022243dde9c</t>
+          <t>00-00057498</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>-6002172</v>
+        <v>9280908</v>
       </c>
     </row>
     <row r="43">
@@ -2852,16 +2854,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAXCOM</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Classic MM135 Black/Blue</t>
+          <t>Galaxy Note 9 N960U 8/512Gb Ocean Blue 1 SIM USA Open Box</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>449</v>
+        <v>8749</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -2872,17 +2874,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>-28.3%</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>11.93</v>
+        <v>322</v>
       </c>
       <c r="J43" t="n">
-        <v>457</v>
+        <v>12204</v>
       </c>
       <c r="K43" t="n">
-        <v>457</v>
+        <v>12204</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
@@ -2891,15 +2893,15 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>00-00039643</t>
+          <t>STH0010445</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3243074</v>
+        <v>8487029</v>
       </c>
     </row>
     <row r="44">
@@ -2910,16 +2912,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NOKIA</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>G11 4/64GB Ice</t>
+          <t>Galaxy S20 5G 128GB White 1 Sim (SM-G981U) USA Open Box</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4299</v>
+        <v>10749</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -2930,34 +2932,34 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>-4.2%</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>111</v>
+        <v>293</v>
       </c>
       <c r="J44" t="n">
-        <v>4207</v>
+        <v>11222</v>
       </c>
       <c r="K44" t="n">
-        <v>4207</v>
+        <v>11222</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>U0655978</t>
+          <t>STH0011957</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>8815500</v>
+        <v>-8771655</v>
       </c>
     </row>
     <row r="45">
@@ -2973,11 +2975,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy A04 4/64GB Black (SM-A045FZKGSEK)</t>
+          <t>Galaxy S20 Ultra 128GB (SM-G988U) Gray 1Sim USA Open Box</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4599</v>
+        <v>13399</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -2988,17 +2990,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>117.62</v>
+        <v>388</v>
       </c>
       <c r="J45" t="n">
-        <v>4505</v>
+        <v>14861</v>
       </c>
       <c r="K45" t="n">
-        <v>4505</v>
+        <v>14861</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
@@ -3007,15 +3009,15 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>00-00057500</t>
+          <t>STH0013140</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>9280907</v>
+        <v>9224348</v>
       </c>
     </row>
     <row r="46">
@@ -3026,16 +3028,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>TECNO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy A04 4/64GB Copper (SM-A045FZCGSEK)</t>
+          <t>Spark 8C KG5j 2/64GB Diamond Grey (4895180777677)</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4599</v>
+        <v>3399</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3046,34 +3048,32 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>-4.6%</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>117.62</v>
+        <v>93</v>
       </c>
       <c r="J46" t="n">
-        <v>4505</v>
+        <v>3562</v>
       </c>
       <c r="K46" t="n">
-        <v>4505</v>
+        <v>3562</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>00-00057498</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4895180777677</v>
       </c>
       <c r="P46" t="n">
-        <v>9280908</v>
+        <v>-9150395</v>
       </c>
     </row>
     <row r="47">
@@ -3084,16 +3084,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>ULEFONE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G 8/256GB Black (SM-A346EZKESEK)</t>
+          <t>Armor X10 Pro 4/64GB Black</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>14499</v>
+        <v>5499</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3104,17 +3104,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>11.1%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>340.89</v>
+        <v>140.99</v>
       </c>
       <c r="J47" t="n">
-        <v>13057</v>
+        <v>5400</v>
       </c>
       <c r="K47" t="n">
-        <v>13057</v>
+        <v>5400</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
@@ -3123,13 +3123,15 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>15</v>
-      </c>
-      <c r="O47" t="n">
-        <v>455676</v>
+        <v>6</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>00-00056693</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>9940485</v>
+        <v>8749789</v>
       </c>
     </row>
     <row r="48">
@@ -3140,16 +3142,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>ULEFONE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy A51 2020 6/128GB Blue (SM-A515FZBWSEK)</t>
+          <t>Note 14 4/64GB Lavender Purple (6937748735052)</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10399</v>
+        <v>3999</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3160,32 +3162,34 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>276</v>
+        <v>92.17</v>
       </c>
       <c r="J48" t="n">
-        <v>10461</v>
+        <v>3531</v>
       </c>
       <c r="K48" t="n">
-        <v>10461</v>
+        <v>3531</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>8</v>
-      </c>
-      <c r="O48" t="n">
-        <v>619617</v>
+        <v>7</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>00-00057639</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>-4069775</v>
+        <v>9368870</v>
       </c>
     </row>
     <row r="49">
@@ -3196,16 +3200,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy Note 9 N960U 8/512Gb Ocean Blue 1 SIM USA Open Box</t>
+          <t>Redmi Note 12 Pro 5G 8/256GB Sky Blue</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8999</v>
+        <v>12199</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3216,17 +3220,17 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-26.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>322</v>
+        <v>315.93</v>
       </c>
       <c r="J49" t="n">
-        <v>12204</v>
+        <v>12101</v>
       </c>
       <c r="K49" t="n">
-        <v>12204</v>
+        <v>12101</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -3235,15 +3239,13 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>24</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>STH0010445</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="O49" t="n">
+        <v>991522</v>
       </c>
       <c r="P49" t="n">
-        <v>8487029</v>
+        <v>10590485</v>
       </c>
     </row>
     <row r="50">
@@ -3254,16 +3256,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>ZTE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy S20 Ultra 128GB (SM-G988U) Gray 1Sim USA Open Box</t>
+          <t>Blade A72S 4/64GB Blue</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13499</v>
+        <v>4399</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3274,17 +3276,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-9.2%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>388</v>
+        <v>110.79</v>
       </c>
       <c r="J50" t="n">
-        <v>14861</v>
+        <v>4244</v>
       </c>
       <c r="K50" t="n">
-        <v>14861</v>
+        <v>4244</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
@@ -3293,299 +3295,13 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>14</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>STH0013140</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="O50" t="n">
+        <v>993080</v>
       </c>
       <c r="P50" t="n">
-        <v>9224348</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ULEFONE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Armor X10 Pro 4/64GB Black</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>5499</v>
-      </c>
-      <c r="E51" t="n">
-        <v>9</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>140.99</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5400</v>
-      </c>
-      <c r="K51" t="n">
-        <v>5400</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>2</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>00-00056693</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>8749789</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ULEFONE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Note 14 4/64GB Lavender Purple (6937748735052)</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>3899</v>
-      </c>
-      <c r="E52" t="n">
-        <v>9</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>10.4%</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>92.17</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3531</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3531</v>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>3</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>00-00057639</t>
-        </is>
-      </c>
-      <c r="P52" t="n">
-        <v>9368870</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>XIAOMI</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Redmi Note 12 Pro 5G 8/256GB Sky Blue</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>12199</v>
-      </c>
-      <c r="E53" t="n">
-        <v>9</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>315.93</v>
-      </c>
-      <c r="J53" t="n">
-        <v>12101</v>
-      </c>
-      <c r="K53" t="n">
-        <v>12101</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>4</v>
-      </c>
-      <c r="O53" t="n">
-        <v>991522</v>
-      </c>
-      <c r="P53" t="n">
-        <v>10590485</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ZTE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Blade A72S 4/64GB Blue</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>3999</v>
-      </c>
-      <c r="E54" t="n">
-        <v>9</v>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>110.79</v>
-      </c>
-      <c r="J54" t="n">
-        <v>4244</v>
-      </c>
-      <c r="K54" t="n">
-        <v>4244</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>4</v>
-      </c>
-      <c r="O54" t="n">
-        <v>993080</v>
-      </c>
-      <c r="P54" t="n">
         <v>10548201</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ZTE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Blade V40 Design 6/128GB Black</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>4899</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9</v>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>127.55</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4886</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4886</v>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>4</v>
-      </c>
-      <c r="O55" t="n">
-        <v>993085</v>
-      </c>
-      <c r="P55" t="n">
-        <v>10548205</v>
       </c>
     </row>
   </sheetData>
@@ -3594,6 +3310,538 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Категория</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Бренд</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Тип цены</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Кол.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Нац.</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Ц.пост.1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ц.пост.2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Пр.нац</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Пост.</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Возр.</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Код</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Мультимедийные колонки</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>REAL-EL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>S-80 Black</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>409</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>410</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Фот</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>151709</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1910314</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Мультимедийные колонки</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TRUST</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mila (16697)</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>499</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="I3" t="n">
+        <v>475</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Фот</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>304334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Планшетные ПК</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Redmi Pad SE 4/128GB Mint Green</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7399</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>191.78</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7346</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Фот</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1001346</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10781582</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Телефоны мобильные</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Galaxy A34 5G 8/256GB Black (SM-A346EZKESEK)</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14499</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11.1%</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>340.89</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13057</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Фот</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>18</v>
+      </c>
+      <c r="M5" t="n">
+        <v>455676</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9940485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Категория</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Бренд</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Тип цены</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Кол.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Нац.</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Ц.пост.1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ц.пост.2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Пр.нац</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Пост.</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Возр.</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Код</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Наушники</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AIRON</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Наушники AirTune PLAY (6945545521570)</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>699</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-8.2%</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="I2" t="n">
+        <v>762</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Магаз</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6945545521570</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7995426</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Наушники</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PANASONIC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RP-HJE125E White</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>279</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="I3" t="n">
+        <v>272</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Магаз</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6028990</v>
+      </c>
+      <c r="N3" t="n">
+        <v>571146</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Телефоны мобильные</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Galaxy S20 Ultra 128GB (SM-G988U) Gray 1Sim USA Open Box</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>13399</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-9.8%</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>388</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14861</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Фот</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>STH0013140</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>9224348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3682,36 +3930,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Компьютерные кулеры - аксессуары</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>ID-COOLING</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Enco Buds 2 Midnight</t>
+          <t>Разветвитель питания вентиляторов ID-Cooling FS-04 ARGB Splitter 1-4</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>949</v>
+        <v>135</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15.5%</t>
+          <t>8.4%</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>21.45</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>822</v>
+        <v>124</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
@@ -3720,195 +3968,13 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="M2" t="n">
-        <v>1391711</v>
+        <v>444082</v>
       </c>
       <c r="N2" t="n">
-        <v>9711608</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Категория</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Бренд</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Модель</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Цена</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Тип цены</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Кол.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Нац.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ц.пост.1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Ц.пост.2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Пр.нац</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Пост.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Возр.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Код</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Категория</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Бренд</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Модель</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Цена</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Тип цены</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Кол.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Нац.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ц.пост.1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Ц.пост.2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Пр.нац</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Пост.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Возр.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Код</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
+        <v>9436713</v>
       </c>
     </row>
   </sheetData>
